--- a/Open Source Tuberculosis Consortium Compounds.xlsx
+++ b/Open Source Tuberculosis Consortium Compounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahim\Documents\GitHub\OSTB_Series_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43DF461F-1169-4C46-8547-5DB3727BB2A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66196B3A-92E3-4DC4-8CB7-7CB01F8E61E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="522">
   <si>
     <t xml:space="preserve">OSTB ID
 </t>
@@ -1226,9 +1226,6 @@
     <t>JBG27-1-1</t>
   </si>
   <si>
-    <t>JBG29-3-4/ JBG29-4-1/ JBG29-4-2</t>
-  </si>
-  <si>
     <t>OC(C(Cl)=C1)=C(NC(CN2CCOCC2)=O)C(Cl)=C1Cl</t>
   </si>
   <si>
@@ -1406,9 +1403,6 @@
     <t>LKPJKFRGNQQAEI-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>SKF-57841-A</t>
-  </si>
-  <si>
     <t>OC(C(Cl)=C1)=C(NC(CN2CCCC2)=O)C(Cl)=C1Cl</t>
   </si>
   <si>
@@ -1418,9 +1412,6 @@
     <t>WJZKZIGPRKVIBP-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>SKF-57845-A</t>
-  </si>
-  <si>
     <t>OC(C(Cl)=C1)=C(NC(CN2CCCCC2)=O)C(Cl)=C1Cl</t>
   </si>
   <si>
@@ -1430,9 +1421,6 @@
     <t>JSAQWFABXMOLEF-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>SKF-57856-A</t>
-  </si>
-  <si>
     <t>OC(C(Cl)=C1)=C(NC(CN(CC)CC)=O)C(Cl)=C1Cl</t>
   </si>
   <si>
@@ -1442,9 +1430,6 @@
     <t>USDMRGLCXBKDFO-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>SKF-57858-A</t>
-  </si>
-  <si>
     <t>OSTBS99</t>
   </si>
   <si>
@@ -1463,9 +1448,6 @@
     <t>WSBZLMCARLWAEN-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>GSK807337A</t>
-  </si>
-  <si>
     <t>Clc1cc(NC(CN2CCOCC2)=O)c(Cl)cc1</t>
   </si>
   <si>
@@ -1475,9 +1457,6 @@
     <t>ZIWXUBMODWBKQB-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>GSK856324A</t>
-  </si>
-  <si>
     <t>Clc1cc(NC(CN2CCOCC2)=O)cc(Cl)c1</t>
   </si>
   <si>
@@ -1487,9 +1466,6 @@
     <t>NKEOLRWGTITEKX-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>GR200832X</t>
-  </si>
-  <si>
     <t>COc1c(NC(CN2CCOCC2)=O)c(Cl)c(Cl)cc1Cl.Cl</t>
   </si>
   <si>
@@ -1497,9 +1473,6 @@
   </si>
   <si>
     <t>InChI=1S/C13H15Cl3N2O3.ClH/c1-20-13-9(15)6-8(14)11(16)12(13)17-10(19)7-18-2-4-21-5-3-18;/h6H,2-5,7H2,1H3,(H,17,19);1H</t>
-  </si>
-  <si>
-    <t>SKF-57857-A</t>
   </si>
   <si>
     <r>
@@ -1539,12 +1512,108 @@
   <si>
     <t>&lt;</t>
   </si>
+  <si>
+    <t>OSTBL5</t>
+  </si>
+  <si>
+    <t>FI7-1</t>
+  </si>
+  <si>
+    <t>OC(C(Cl)=C1)=C(C(NCCN2CCOCC2)=O)C(Cl)=C1Cl</t>
+  </si>
+  <si>
+    <t>1S/C13H15Cl3N2O3/c14-8-7-9(15)12(19)10(11(8)16)13(20)17-1-2-18-3-5-21-6-4-18/h7,19H,1-6H2,(H,17,20)</t>
+  </si>
+  <si>
+    <t>SBURILLTWGDGHX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>OSTBL2</t>
+  </si>
+  <si>
+    <t>FI12-2D</t>
+  </si>
+  <si>
+    <t>O=C(CN1CCOCC1)NC2=C([H])C(Cl)=C(O)C(Cl)=C2[H]</t>
+  </si>
+  <si>
+    <t>1S/C12H14Cl2N2O3/c13-9-5-8(6-10(14)12(9)18)15-11(17)7-16-1-3-19-4-2-16/h5-6,18H,1-4,7H2,(H,15,17)</t>
+  </si>
+  <si>
+    <t>ZAIKOSZVKNJROG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>OSTBL3</t>
+  </si>
+  <si>
+    <t>FI16-1</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(NC(CN2CCOCC2)=O)=C(F)C(F)=C1</t>
+  </si>
+  <si>
+    <t>1S/C12H12F4N2O2/c13-7-5-8(14)11(16)12(10(7)15)17-9(19)6-18-1-3-20-4-2-18/h5H,1-4,6H2,(H,17,19)</t>
+  </si>
+  <si>
+    <t>SHZLQOYTXDWJDY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>OSTBL1</t>
+  </si>
+  <si>
+    <t>FI18-1</t>
+  </si>
+  <si>
+    <t>ClC1=CC(NC(CN2CCOCC2)=O)=C(Cl)C(Cl)=C1</t>
+  </si>
+  <si>
+    <t>1S/C12H13Cl3N2O2/c13-8-5-9(14)12(15)10(6-8)16-11(18)7-17-1-3-19-4-2-17/h5-6H,1-4,7H2,(H,16,18)</t>
+  </si>
+  <si>
+    <t>YKJOBONYFFLZPP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>OSTBL6</t>
+  </si>
+  <si>
+    <t>FI19-1</t>
+  </si>
+  <si>
+    <t>ClC1=C(O)C(S(NCCN2CCOCC2)(=O)=O)=CC(Cl)=C1</t>
+  </si>
+  <si>
+    <t>1S/C12H16Cl2N2O4S/c13-9-7-10(14)12(17)11(8-9)21(18,19)15-1-2-16-3-5-20-6-4-16/h7-8,15,17H,1-6H2</t>
+  </si>
+  <si>
+    <t>ZISORKXNPXVEDY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>OSTBL4</t>
+  </si>
+  <si>
+    <t>FI22-1</t>
+  </si>
+  <si>
+    <t>ClC1=CC(NC(CN2CCOCC2)=O)=CC(Cl)=N1</t>
+  </si>
+  <si>
+    <t>1S/C11H13Cl2N3O2/c12-9-5-8(6-10(13)15-9)14-11(17)7-16-1-3-18-4-2-16/h5-6H,1-4,7H2,(H,14,15,17)</t>
+  </si>
+  <si>
+    <t>UHWPRBXBKGTUPY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FI26-1</t>
+  </si>
+  <si>
+    <t>JBG29-3-4/ JBG29-4-1/ JBG29-4-2/FI10-2 Prep</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1554,20 +1623,24 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1607,6 +1680,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1616,7 +1695,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1624,11 +1703,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1655,9 +1749,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1714,11 +1805,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1726,13 +1835,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1740,6 +1843,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2069,8 +2181,8 @@
   </sheetPr>
   <dimension ref="A1:AK1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M104" sqref="M104"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2109,34 +2221,34 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>495</v>
+        <v>482</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>486</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>9</v>
@@ -2179,8 +2291,8 @@
       <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>492</v>
+      <c r="H2" s="17" t="s">
+        <v>483</v>
       </c>
       <c r="I2" s="3">
         <v>100</v>
@@ -2285,8 +2397,8 @@
       <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>492</v>
+      <c r="H4" s="17" t="s">
+        <v>483</v>
       </c>
       <c r="I4" s="3">
         <v>100</v>
@@ -2444,8 +2556,8 @@
       <c r="G7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>492</v>
+      <c r="H7" s="17" t="s">
+        <v>483</v>
       </c>
       <c r="I7" s="3">
         <v>100</v>
@@ -2652,8 +2764,8 @@
       <c r="G11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>492</v>
+      <c r="H11" s="17" t="s">
+        <v>483</v>
       </c>
       <c r="I11" s="3">
         <v>100</v>
@@ -2705,8 +2817,8 @@
       <c r="G12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>492</v>
+      <c r="H12" s="17" t="s">
+        <v>483</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -2758,8 +2870,8 @@
       <c r="G13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>492</v>
+      <c r="H13" s="17" t="s">
+        <v>483</v>
       </c>
       <c r="I13" s="3">
         <v>100</v>
@@ -2811,8 +2923,8 @@
       <c r="G14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>492</v>
+      <c r="H14" s="17" t="s">
+        <v>483</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
@@ -2831,9 +2943,9 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="13"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="12"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -2866,8 +2978,8 @@
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="18" t="s">
-        <v>492</v>
+      <c r="J15" s="17" t="s">
+        <v>483</v>
       </c>
       <c r="K15" s="5">
         <v>125</v>
@@ -3027,8 +3139,8 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="18" t="s">
-        <v>492</v>
+      <c r="J18" s="17" t="s">
+        <v>483</v>
       </c>
       <c r="K18" s="5">
         <v>125</v>
@@ -3188,8 +3300,8 @@
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="18" t="s">
-        <v>492</v>
+      <c r="J21" s="17" t="s">
+        <v>483</v>
       </c>
       <c r="K21" s="5">
         <v>125</v>
@@ -3455,8 +3567,8 @@
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="18" t="s">
-        <v>492</v>
+      <c r="J26" s="17" t="s">
+        <v>483</v>
       </c>
       <c r="K26" s="5">
         <v>125</v>
@@ -6246,14 +6358,14 @@
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
       <c r="R81" s="3" t="s">
         <v>384</v>
       </c>
@@ -6299,14 +6411,14 @@
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
@@ -6350,14 +6462,14 @@
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
@@ -6380,51 +6492,51 @@
       <c r="AK83" s="4"/>
     </row>
     <row r="84" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33">
+        <v>3</v>
+      </c>
+      <c r="E84" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30">
-        <v>3</v>
-      </c>
-      <c r="E84" s="32" t="s">
+      <c r="F84" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="F84" s="32" t="s">
+      <c r="G84" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="G84" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="H84" s="33"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="K84" s="29">
+      <c r="H84" s="34"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="K84" s="35">
         <v>125</v>
       </c>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29">
+      <c r="L84" s="35"/>
+      <c r="M84" s="35">
         <v>2.0099999999999998</v>
       </c>
-      <c r="N84" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="O84" s="17">
+      <c r="N84" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="O84" s="16">
         <v>0.48</v>
       </c>
-      <c r="P84" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q84" s="10">
+      <c r="P84" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q84" s="42">
         <v>4</v>
       </c>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
@@ -6445,29 +6557,29 @@
       <c r="AK84" s="5"/>
     </row>
     <row r="85" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="O85" s="17">
+      <c r="A85" s="33"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="O85" s="16">
         <v>0.39700000000000002</v>
       </c>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
+      <c r="P85" s="41"/>
+      <c r="Q85" s="42"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
@@ -6488,34 +6600,34 @@
       <c r="AK85" s="4"/>
     </row>
     <row r="86" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17">
+        <v>3</v>
+      </c>
+      <c r="E86" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18">
-        <v>3</v>
-      </c>
-      <c r="E86" s="20" t="s">
+      <c r="F86" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="F86" s="20" t="s">
+      <c r="G86" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="G86" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="13"/>
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
@@ -6537,36 +6649,36 @@
       <c r="AK86" s="4"/>
     </row>
     <row r="87" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18">
+      <c r="A87" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17">
         <v>3</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="F87" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="G87" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="G87" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="13"/>
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
@@ -6588,36 +6700,36 @@
       <c r="AK87" s="4"/>
     </row>
     <row r="88" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18">
+      <c r="A88" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17">
         <v>3</v>
       </c>
-      <c r="E88" s="20" t="s">
+      <c r="E88" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="F88" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="G88" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="G88" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="13"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
@@ -6639,36 +6751,36 @@
       <c r="AK88" s="4"/>
     </row>
     <row r="89" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="B89" s="19" t="s">
+      <c r="A89" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17">
+        <v>3</v>
+      </c>
+      <c r="E89" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18">
-        <v>3</v>
-      </c>
-      <c r="E89" s="20" t="s">
+      <c r="F89" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="F89" s="20" t="s">
+      <c r="G89" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="G89" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="13"/>
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
@@ -6690,45 +6802,45 @@
       <c r="AK89" s="4"/>
     </row>
     <row r="90" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18">
+      <c r="A90" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17">
         <v>3</v>
       </c>
-      <c r="E90" s="20" t="s">
+      <c r="E90" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="F90" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="F90" s="20" t="s">
+      <c r="G90" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="G90" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="K90" s="22">
+      <c r="H90" s="14"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="K90" s="21">
         <v>125</v>
       </c>
-      <c r="L90" s="22"/>
-      <c r="M90" s="24">
+      <c r="L90" s="21"/>
+      <c r="M90" s="23">
         <v>27.81</v>
       </c>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="11">
+      <c r="N90" s="23"/>
+      <c r="O90" s="23"/>
+      <c r="P90" s="23"/>
+      <c r="Q90" s="10">
         <f xml:space="preserve"> 4</f>
         <v>4</v>
       </c>
-      <c r="R90" s="14"/>
+      <c r="R90" s="13"/>
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
@@ -6750,48 +6862,48 @@
       <c r="AK90" s="4"/>
     </row>
     <row r="91" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18">
+      <c r="A91" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17">
         <v>3</v>
       </c>
-      <c r="E91" s="20" t="s">
+      <c r="E91" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F91" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="F91" s="20" t="s">
+      <c r="G91" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="G91" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="K91" s="22">
+      <c r="H91" s="14"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="K91" s="21">
         <v>125</v>
       </c>
-      <c r="L91" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="M91" s="24">
+      <c r="L91" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="M91" s="23">
         <v>100</v>
       </c>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q91" s="11">
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q91" s="10">
         <v>4</v>
       </c>
-      <c r="R91" s="14"/>
+      <c r="R91" s="13"/>
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
@@ -6813,46 +6925,46 @@
       <c r="AK91" s="4"/>
     </row>
     <row r="92" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="B92" s="19" t="s">
+      <c r="A92" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17">
+        <v>3</v>
+      </c>
+      <c r="E92" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18">
-        <v>3</v>
-      </c>
-      <c r="E92" s="20" t="s">
+      <c r="F92" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="F92" s="20" t="s">
+      <c r="G92" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="G92" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="K92" s="22">
+      <c r="H92" s="14"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="K92" s="21">
         <v>125</v>
       </c>
-      <c r="L92" s="22"/>
-      <c r="M92" s="24">
+      <c r="L92" s="21"/>
+      <c r="M92" s="23">
         <v>2.58</v>
       </c>
-      <c r="N92" s="24"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q92" s="11">
+      <c r="N92" s="23"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q92" s="10">
         <v>4</v>
       </c>
-      <c r="R92" s="14"/>
+      <c r="R92" s="13"/>
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
@@ -6874,38 +6986,38 @@
       <c r="AK92" s="4"/>
     </row>
     <row r="93" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18">
+      <c r="A93" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17">
         <v>3</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F93" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="F93" s="20" t="s">
+      <c r="G93" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="G93" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="24">
+      <c r="H93" s="14"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="23">
         <v>20.84</v>
       </c>
-      <c r="N93" s="24"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="24"/>
-      <c r="Q93" s="24"/>
-      <c r="R93" s="14"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="23"/>
+      <c r="P93" s="23"/>
+      <c r="Q93" s="23"/>
+      <c r="R93" s="13"/>
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
@@ -6927,53 +7039,53 @@
       <c r="AK93" s="4"/>
     </row>
     <row r="94" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30">
+      <c r="A94" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33">
         <v>3</v>
       </c>
-      <c r="E94" s="32" t="s">
+      <c r="E94" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="F94" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="G94" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="F94" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="G94" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="H94" s="33"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="K94" s="29">
+      <c r="H94" s="34"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="K94" s="35">
         <v>125</v>
       </c>
-      <c r="L94" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="M94" s="37">
+      <c r="L94" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="M94" s="40">
         <v>100</v>
       </c>
-      <c r="N94" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="O94" s="11">
+      <c r="N94" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="O94" s="10">
         <v>1.0751999999999999</v>
       </c>
-      <c r="P94" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q94" s="10">
+      <c r="P94" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q94" s="42">
         <v>4</v>
       </c>
-      <c r="R94" s="34"/>
-      <c r="S94" s="36"/>
+      <c r="R94" s="38"/>
+      <c r="S94" s="39"/>
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
       <c r="V94" s="5"/>
@@ -6994,29 +7106,29 @@
       <c r="AK94" s="5"/>
     </row>
     <row r="95" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="O95" s="11">
+      <c r="A95" s="33"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="O95" s="10">
         <v>0.43269999999999997</v>
       </c>
-      <c r="P95" s="35"/>
-      <c r="Q95" s="10"/>
-      <c r="R95" s="34"/>
-      <c r="S95" s="36"/>
+      <c r="P95" s="41"/>
+      <c r="Q95" s="42"/>
+      <c r="R95" s="38"/>
+      <c r="S95" s="39"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
@@ -7037,46 +7149,46 @@
       <c r="AK95" s="4"/>
     </row>
     <row r="96" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18">
+      <c r="A96" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17">
         <v>3</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="F96" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="F96" s="20" t="s">
+      <c r="G96" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="G96" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="K96" s="22">
+      <c r="H96" s="14"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="K96" s="21">
         <v>125</v>
       </c>
-      <c r="L96" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="M96" s="24">
+      <c r="L96" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="M96" s="23">
         <v>100</v>
       </c>
-      <c r="P96" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q96" s="11">
+      <c r="P96" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q96" s="10">
         <v>4</v>
       </c>
-      <c r="R96" s="14"/>
+      <c r="R96" s="13"/>
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
@@ -7098,38 +7210,36 @@
       <c r="AK96" s="4"/>
     </row>
     <row r="97" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18">
+      <c r="A97" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17">
         <v>3</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="F97" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="F97" s="20" t="s">
+      <c r="G97" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="G97" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="24">
+      <c r="H97" s="14"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="23">
         <v>1.69</v>
       </c>
-      <c r="N97" s="24"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="24"/>
-      <c r="Q97" s="24"/>
-      <c r="R97" s="14"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="23"/>
+      <c r="Q97" s="23"/>
+      <c r="R97" s="13"/>
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
@@ -7151,38 +7261,36 @@
       <c r="AK97" s="4"/>
     </row>
     <row r="98" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18">
+      <c r="A98" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17">
         <v>3</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="G98" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="F98" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="G98" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="24">
+      <c r="H98" s="14"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="23">
         <v>2.65</v>
       </c>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="14"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="23"/>
+      <c r="Q98" s="23"/>
+      <c r="R98" s="13"/>
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
@@ -7204,38 +7312,36 @@
       <c r="AK98" s="4"/>
     </row>
     <row r="99" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18">
+      <c r="A99" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17">
         <v>3</v>
       </c>
-      <c r="E99" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="F99" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="G99" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="24">
+      <c r="E99" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="H99" s="14"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="23">
         <v>2.67</v>
       </c>
-      <c r="N99" s="24"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="24"/>
-      <c r="Q99" s="24"/>
-      <c r="R99" s="14"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="23"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="13"/>
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
@@ -7257,38 +7363,36 @@
       <c r="AK99" s="4"/>
     </row>
     <row r="100" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18">
+      <c r="A100" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17">
         <v>3</v>
       </c>
-      <c r="E100" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="F100" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="G100" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="24">
+      <c r="E100" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="H100" s="14"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="23">
         <v>3.01</v>
       </c>
-      <c r="N100" s="24"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="14"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="23"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="13"/>
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
@@ -7310,40 +7414,40 @@
       <c r="AK100" s="4"/>
     </row>
     <row r="101" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18">
+      <c r="A101" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17">
         <v>3</v>
       </c>
-      <c r="E101" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="F101" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="G101" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="M101" s="24">
+      <c r="E101" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="H101" s="14"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="M101" s="23">
         <v>100</v>
       </c>
-      <c r="N101" s="24"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="24"/>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="14"/>
+      <c r="N101" s="23"/>
+      <c r="O101" s="23"/>
+      <c r="P101" s="23"/>
+      <c r="Q101" s="23"/>
+      <c r="R101" s="13"/>
       <c r="S101" s="4"/>
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
@@ -7365,40 +7469,38 @@
       <c r="AK101" s="4"/>
     </row>
     <row r="102" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18">
+      <c r="A102" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17">
         <v>3</v>
       </c>
-      <c r="E102" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="F102" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="G102" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="M102" s="24">
+      <c r="E102" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H102" s="14"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="M102" s="23">
         <v>100</v>
       </c>
-      <c r="N102" s="24"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="14"/>
+      <c r="N102" s="23"/>
+      <c r="O102" s="23"/>
+      <c r="P102" s="23"/>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="13"/>
       <c r="S102" s="4"/>
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
@@ -7420,40 +7522,38 @@
       <c r="AK102" s="4"/>
     </row>
     <row r="103" spans="1:37" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18">
+      <c r="A103" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17">
         <v>3</v>
       </c>
-      <c r="E103" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="F103" s="20" t="s">
+      <c r="E103" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="H103" s="14"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="G103" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="M103" s="24">
+      <c r="M103" s="23">
         <v>100</v>
       </c>
-      <c r="N103" s="24"/>
-      <c r="O103" s="24"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="24"/>
-      <c r="R103" s="14"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="23"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="13"/>
       <c r="S103" s="4"/>
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
@@ -7474,41 +7574,39 @@
       <c r="AJ103" s="4"/>
       <c r="AK103" s="4"/>
     </row>
-    <row r="104" spans="1:37" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18">
+    <row r="104" spans="1:37" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17">
         <v>3</v>
       </c>
-      <c r="E104" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="F104" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="G104" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="H104" s="16"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="M104" s="24">
+      <c r="E104" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="M104" s="23">
         <v>100</v>
       </c>
-      <c r="N104" s="24"/>
-      <c r="O104" s="24"/>
-      <c r="P104" s="24"/>
-      <c r="Q104" s="24"/>
-      <c r="R104" s="14"/>
+      <c r="N104" s="23"/>
+      <c r="O104" s="23"/>
+      <c r="P104" s="23"/>
+      <c r="Q104" s="23"/>
+      <c r="R104" s="13"/>
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
@@ -7529,14 +7627,26 @@
       <c r="AJ104" s="4"/>
       <c r="AK104" s="4"/>
     </row>
-    <row r="105" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+    <row r="105" spans="1:37" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="B105" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="C105" s="30"/>
+      <c r="D105" s="29">
+        <v>3</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>494</v>
+      </c>
       <c r="H105" s="5"/>
       <c r="I105" s="4"/>
       <c r="J105" s="5"/>
@@ -7568,14 +7678,26 @@
       <c r="AJ105" s="4"/>
       <c r="AK105" s="4"/>
     </row>
-    <row r="106" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+    <row r="106" spans="1:37" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="C106" s="30"/>
+      <c r="D106" s="29">
+        <v>3</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="G106" s="31" t="s">
+        <v>499</v>
+      </c>
       <c r="H106" s="5"/>
       <c r="I106" s="4"/>
       <c r="J106" s="5"/>
@@ -7607,14 +7729,26 @@
       <c r="AJ106" s="4"/>
       <c r="AK106" s="4"/>
     </row>
-    <row r="107" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+    <row r="107" spans="1:37" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C107" s="30"/>
+      <c r="D107" s="29">
+        <v>3</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>504</v>
+      </c>
       <c r="H107" s="5"/>
       <c r="I107" s="4"/>
       <c r="J107" s="5"/>
@@ -7646,14 +7780,26 @@
       <c r="AJ107" s="4"/>
       <c r="AK107" s="4"/>
     </row>
-    <row r="108" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+    <row r="108" spans="1:37" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="C108" s="30"/>
+      <c r="D108" s="29">
+        <v>3</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="G108" s="31" t="s">
+        <v>509</v>
+      </c>
       <c r="H108" s="5"/>
       <c r="I108" s="4"/>
       <c r="J108" s="5"/>
@@ -7685,14 +7831,26 @@
       <c r="AJ108" s="4"/>
       <c r="AK108" s="4"/>
     </row>
-    <row r="109" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+    <row r="109" spans="1:37" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="B109" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="C109" s="30"/>
+      <c r="D109" s="29">
+        <v>3</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>514</v>
+      </c>
       <c r="H109" s="5"/>
       <c r="I109" s="4"/>
       <c r="J109" s="5"/>
@@ -7724,14 +7882,26 @@
       <c r="AJ109" s="4"/>
       <c r="AK109" s="4"/>
     </row>
-    <row r="110" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+    <row r="110" spans="1:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="C110" s="30"/>
+      <c r="D110" s="29">
+        <v>3</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="G110" s="31" t="s">
+        <v>519</v>
+      </c>
       <c r="H110" s="5"/>
       <c r="I110" s="4"/>
       <c r="J110" s="5"/>
@@ -42514,11 +42684,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B94:B95"/>
     <mergeCell ref="A94:A95"/>
     <mergeCell ref="L94:L95"/>
     <mergeCell ref="K94:K95"/>
@@ -42526,6 +42691,11 @@
     <mergeCell ref="I94:I95"/>
     <mergeCell ref="H94:H95"/>
     <mergeCell ref="G94:G95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B94:B95"/>
     <mergeCell ref="R84:R85"/>
     <mergeCell ref="S84:S85"/>
     <mergeCell ref="M94:M95"/>
@@ -42533,14 +42703,14 @@
     <mergeCell ref="Q94:Q95"/>
     <mergeCell ref="R94:R95"/>
     <mergeCell ref="S94:S95"/>
+    <mergeCell ref="Q84:Q85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="M84:M85"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="D84:D85"/>
     <mergeCell ref="H84:H85"/>
     <mergeCell ref="C84:C85"/>
     <mergeCell ref="L84:L85"/>
-    <mergeCell ref="Q84:Q85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="M84:M85"/>
     <mergeCell ref="J84:J85"/>
     <mergeCell ref="K84:K85"/>
     <mergeCell ref="B84:B85"/>
@@ -42558,5 +42728,6 @@
     <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Open Source Tuberculosis Consortium Compounds.xlsx
+++ b/Open Source Tuberculosis Consortium Compounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahim\Documents\GitHub\OSTB_Series_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66196B3A-92E3-4DC4-8CB7-7CB01F8E61E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC1333C-8F5A-4982-8A97-909F37C01264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="552">
   <si>
     <t xml:space="preserve">OSTB ID
 </t>
@@ -1608,12 +1608,102 @@
   <si>
     <t>JBG29-3-4/ JBG29-4-1/ JBG29-4-2/FI10-2 Prep</t>
   </si>
+  <si>
+    <t>OSTBL7</t>
+  </si>
+  <si>
+    <t>O=C(NC1=CC(Cl)=CC=C1SSC2=C(NC(CN3CCOCC3)=O)C=C(Cl)C=C2)CN4CCOCC4</t>
+  </si>
+  <si>
+    <t>1S/C24H28Cl2N4O4S2/c25-17-1-3-21(19(13-17)27-23(31)15-29-5-9-33-10-6-29)35-36-22-4-2-18(26)14-20(22)28-24(32)16-30-7-11-34-12-8-30/h1-4,13-14H,5-12,15-16H2,(H,27,31)(H,28,32)</t>
+  </si>
+  <si>
+    <t>DCPKPQCLOPMELM-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>OSTBL8</t>
+  </si>
+  <si>
+    <t>ClC1=CC(NC(CN2CCOCC2)=O)=C(O)C=C1</t>
+  </si>
+  <si>
+    <t>1S/C12H15ClN2O3/c13-9-1-2-11(16)10(7-9)14-12(17)8-15-3-5-18-6-4-15/h1-2,7,16H,3-6,8H2,(H,14,17)</t>
+  </si>
+  <si>
+    <t>PAMFBPXMUMZDQC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>OSTBL10</t>
+  </si>
+  <si>
+    <t>O=C(CN1CCOCC1)NC2=C(Cl)C=C(Cl)C(O)=C2</t>
+  </si>
+  <si>
+    <t>1S/C12H14Cl2N2O3/c13-8-5-9(14)11(17)6-10(8)15-12(18)7-16-1-3-19-4-2-16/h5-6,17H,1-4,7H2,(H,15,18)</t>
+  </si>
+  <si>
+    <t>IQWRWWKXBBOPFA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>OSTBL9</t>
+  </si>
+  <si>
+    <t>ClC1=CC(F)=CC(NC(CN2CCOCC2)=O)=C1O</t>
+  </si>
+  <si>
+    <t>1S/C12H14ClFN2O3/c13-9-5-8(14)6-10(12(9)18)15-11(17)7-16-1-3-19-4-2-16/h5-6,18H,1-4,7H2,(H,15,17)</t>
+  </si>
+  <si>
+    <t>NTQQKXLSBKNTAQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FI31-2</t>
+  </si>
+  <si>
+    <t>FI34-1C</t>
+  </si>
+  <si>
+    <t>FI29-1D</t>
+  </si>
+  <si>
+    <t>FI35-1</t>
+  </si>
+  <si>
+    <t>OSTBL11</t>
+  </si>
+  <si>
+    <t>O=C(CN1CCC(C=CC=C2)=C2C1)NC3=C(Cl)C(Cl)=CC(Cl)=C3O</t>
+  </si>
+  <si>
+    <t>1S/C17H15Cl3N2O2/c18-12-7-13(19)17(24)16(15(12)20)21-14(23)9-22-6-5-10-3-1-2-4-11(10)8-22/h1-4,7,24H,5-6,8-9H2,(H,21,23)</t>
+  </si>
+  <si>
+    <t>PFJOEOBTFRFPJJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FI39-1A</t>
+  </si>
+  <si>
+    <t>OSTBL12</t>
+  </si>
+  <si>
+    <t>FI37-1B</t>
+  </si>
+  <si>
+    <t>ClC1=CC(Cl)=C(O)C(C(OCCBr)=O)=C1Cl</t>
+  </si>
+  <si>
+    <t>1S/C9H6BrCl3O3/c10-1-2-16-9(15)6-7(13)4(11)3-5(12)8(6)14/h3,14H,1-2H2</t>
+  </si>
+  <si>
+    <t>FKKZUSHYPRBQBG-UHFFFAOYSA-N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1686,6 +1776,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1722,7 +1826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1809,34 +1913,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1852,6 +1953,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2181,11 +2304,11 @@
   </sheetPr>
   <dimension ref="A1:AK1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.26953125" customWidth="1"/>
     <col min="2" max="2" width="19.81640625" customWidth="1"/>
@@ -2198,7 +2321,7 @@
     <col min="13" max="17" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="11.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2273,8 +2396,8 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:37" ht="11.25" customHeight="1">
+      <c r="A2" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4"/>
@@ -2328,7 +2451,7 @@
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
     </row>
-    <row r="3" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="11.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -2379,7 +2502,7 @@
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
     </row>
-    <row r="4" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="11.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2432,7 +2555,7 @@
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
     </row>
-    <row r="5" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="11.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -2487,7 +2610,7 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
     </row>
-    <row r="6" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="11.25" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2538,7 +2661,7 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
     </row>
-    <row r="7" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="11.25" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2591,7 +2714,7 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
     </row>
-    <row r="8" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="11.25" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -2642,7 +2765,7 @@
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
     </row>
-    <row r="9" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="11.25" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2697,7 +2820,7 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
     </row>
-    <row r="10" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="11.25" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -2746,7 +2869,7 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
     </row>
-    <row r="11" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="11.25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -2799,7 +2922,7 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
     </row>
-    <row r="12" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="11.25" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -2852,7 +2975,7 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
     </row>
-    <row r="13" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="11.25" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -2905,7 +3028,7 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
     </row>
-    <row r="14" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="11.25" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -2958,7 +3081,7 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
     </row>
-    <row r="15" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="11.25" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -3011,7 +3134,7 @@
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
     </row>
-    <row r="16" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="11.25" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
@@ -3064,7 +3187,7 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
     </row>
-    <row r="17" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="11.25" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>74</v>
       </c>
@@ -3117,7 +3240,7 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
     </row>
-    <row r="18" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="11.25" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>79</v>
       </c>
@@ -3172,7 +3295,7 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="11.25" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -3225,7 +3348,7 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
     </row>
-    <row r="20" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="11.25" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>89</v>
       </c>
@@ -3278,7 +3401,7 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
     </row>
-    <row r="21" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="11.25" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>94</v>
       </c>
@@ -3333,7 +3456,7 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
     </row>
-    <row r="22" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="11.25" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>99</v>
       </c>
@@ -3386,7 +3509,7 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
     </row>
-    <row r="23" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="11.25" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>104</v>
       </c>
@@ -3439,7 +3562,7 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
     </row>
-    <row r="24" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="11.25" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>109</v>
       </c>
@@ -3492,7 +3615,7 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
     </row>
-    <row r="25" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="11.25" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>114</v>
       </c>
@@ -3545,7 +3668,7 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
     </row>
-    <row r="26" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="11.25" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>119</v>
       </c>
@@ -3600,7 +3723,7 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
     </row>
-    <row r="27" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="11.25" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>124</v>
       </c>
@@ -3653,7 +3776,7 @@
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
     </row>
-    <row r="28" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="11.25" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>129</v>
       </c>
@@ -3704,7 +3827,7 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
     </row>
-    <row r="29" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="11.25" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>134</v>
       </c>
@@ -3755,7 +3878,7 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
     </row>
-    <row r="30" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="11.25" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>139</v>
       </c>
@@ -3806,7 +3929,7 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
     </row>
-    <row r="31" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="11.25" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>144</v>
       </c>
@@ -3857,7 +3980,7 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
     </row>
-    <row r="32" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="11.25" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>149</v>
       </c>
@@ -3908,7 +4031,7 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
     </row>
-    <row r="33" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="11.25" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>154</v>
       </c>
@@ -3959,7 +4082,7 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
     </row>
-    <row r="34" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="11.25" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>159</v>
       </c>
@@ -4010,7 +4133,7 @@
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
     </row>
-    <row r="35" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="11.25" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>164</v>
       </c>
@@ -4061,7 +4184,7 @@
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4"/>
     </row>
-    <row r="36" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="11.25" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>169</v>
       </c>
@@ -4112,7 +4235,7 @@
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
     </row>
-    <row r="37" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="11.25" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>174</v>
       </c>
@@ -4163,7 +4286,7 @@
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4"/>
     </row>
-    <row r="38" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="11.25" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>179</v>
       </c>
@@ -4214,7 +4337,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
     </row>
-    <row r="39" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="11.25" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>184</v>
       </c>
@@ -4265,7 +4388,7 @@
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
     </row>
-    <row r="40" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="11.25" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>188</v>
       </c>
@@ -4316,7 +4439,7 @@
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
     </row>
-    <row r="41" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="11.25" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>193</v>
       </c>
@@ -4367,7 +4490,7 @@
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4"/>
     </row>
-    <row r="42" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="11.25" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>197</v>
       </c>
@@ -4418,7 +4541,7 @@
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
     </row>
-    <row r="43" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="11.25" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>202</v>
       </c>
@@ -4469,7 +4592,7 @@
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
     </row>
-    <row r="44" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="11.25" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>207</v>
       </c>
@@ -4520,7 +4643,7 @@
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
     </row>
-    <row r="45" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="11.25" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>212</v>
       </c>
@@ -4571,7 +4694,7 @@
       <c r="AJ45" s="4"/>
       <c r="AK45" s="4"/>
     </row>
-    <row r="46" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="11.25" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>217</v>
       </c>
@@ -4622,7 +4745,7 @@
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
     </row>
-    <row r="47" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="11.25" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>222</v>
       </c>
@@ -4671,7 +4794,7 @@
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4"/>
     </row>
-    <row r="48" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="11.25" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>226</v>
       </c>
@@ -4720,7 +4843,7 @@
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
     </row>
-    <row r="49" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="11.25" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>230</v>
       </c>
@@ -4769,7 +4892,7 @@
       <c r="AJ49" s="4"/>
       <c r="AK49" s="4"/>
     </row>
-    <row r="50" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="11.25" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>234</v>
       </c>
@@ -4818,7 +4941,7 @@
       <c r="AJ50" s="4"/>
       <c r="AK50" s="4"/>
     </row>
-    <row r="51" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="11.25" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>238</v>
       </c>
@@ -4867,7 +4990,7 @@
       <c r="AJ51" s="4"/>
       <c r="AK51" s="4"/>
     </row>
-    <row r="52" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="11.25" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>242</v>
       </c>
@@ -4916,7 +5039,7 @@
       <c r="AJ52" s="4"/>
       <c r="AK52" s="4"/>
     </row>
-    <row r="53" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="11.25" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>246</v>
       </c>
@@ -4965,7 +5088,7 @@
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4"/>
     </row>
-    <row r="54" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="11.25" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>250</v>
       </c>
@@ -5014,7 +5137,7 @@
       <c r="AJ54" s="4"/>
       <c r="AK54" s="4"/>
     </row>
-    <row r="55" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="11.25" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>254</v>
       </c>
@@ -5063,7 +5186,7 @@
       <c r="AJ55" s="4"/>
       <c r="AK55" s="4"/>
     </row>
-    <row r="56" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="11.25" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>256</v>
       </c>
@@ -5112,7 +5235,7 @@
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4"/>
     </row>
-    <row r="57" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="11.25" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>260</v>
       </c>
@@ -5163,7 +5286,7 @@
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
     </row>
-    <row r="58" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="11.25" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>265</v>
       </c>
@@ -5214,7 +5337,7 @@
       <c r="AJ58" s="4"/>
       <c r="AK58" s="4"/>
     </row>
-    <row r="59" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="11.25" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>270</v>
       </c>
@@ -5265,7 +5388,7 @@
       <c r="AJ59" s="4"/>
       <c r="AK59" s="4"/>
     </row>
-    <row r="60" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="11.25" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>275</v>
       </c>
@@ -5316,7 +5439,7 @@
       <c r="AJ60" s="4"/>
       <c r="AK60" s="4"/>
     </row>
-    <row r="61" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="11.25" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>280</v>
       </c>
@@ -5367,7 +5490,7 @@
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4"/>
     </row>
-    <row r="62" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="11.25" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>285</v>
       </c>
@@ -5418,7 +5541,7 @@
       <c r="AJ62" s="4"/>
       <c r="AK62" s="4"/>
     </row>
-    <row r="63" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="11.25" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>290</v>
       </c>
@@ -5469,7 +5592,7 @@
       <c r="AJ63" s="4"/>
       <c r="AK63" s="4"/>
     </row>
-    <row r="64" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="11.25" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>295</v>
       </c>
@@ -5520,7 +5643,7 @@
       <c r="AJ64" s="4"/>
       <c r="AK64" s="4"/>
     </row>
-    <row r="65" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="11.25" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>300</v>
       </c>
@@ -5571,7 +5694,7 @@
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4"/>
     </row>
-    <row r="66" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="11.25" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>305</v>
       </c>
@@ -5622,7 +5745,7 @@
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4"/>
     </row>
-    <row r="67" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="11.25" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>310</v>
       </c>
@@ -5673,7 +5796,7 @@
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
     </row>
-    <row r="68" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="11.25" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>315</v>
       </c>
@@ -5724,7 +5847,7 @@
       <c r="AJ68" s="4"/>
       <c r="AK68" s="4"/>
     </row>
-    <row r="69" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="11.25" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>320</v>
       </c>
@@ -5775,7 +5898,7 @@
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4"/>
     </row>
-    <row r="70" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="11.25" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>325</v>
       </c>
@@ -5826,7 +5949,7 @@
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
     </row>
-    <row r="71" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="11.25" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>330</v>
       </c>
@@ -5877,7 +6000,7 @@
       <c r="AJ71" s="4"/>
       <c r="AK71" s="4"/>
     </row>
-    <row r="72" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="11.25" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>335</v>
       </c>
@@ -5928,7 +6051,7 @@
       <c r="AJ72" s="4"/>
       <c r="AK72" s="4"/>
     </row>
-    <row r="73" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="11.25" customHeight="1">
       <c r="A73" s="7" t="s">
         <v>340</v>
       </c>
@@ -5979,7 +6102,7 @@
       <c r="AJ73" s="4"/>
       <c r="AK73" s="4"/>
     </row>
-    <row r="74" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="11.25" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>345</v>
       </c>
@@ -6030,7 +6153,7 @@
       <c r="AJ74" s="4"/>
       <c r="AK74" s="4"/>
     </row>
-    <row r="75" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="11.25" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>350</v>
       </c>
@@ -6081,7 +6204,7 @@
       <c r="AJ75" s="4"/>
       <c r="AK75" s="4"/>
     </row>
-    <row r="76" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="11.25" customHeight="1">
       <c r="A76" s="7" t="s">
         <v>355</v>
       </c>
@@ -6132,7 +6255,7 @@
       <c r="AJ76" s="4"/>
       <c r="AK76" s="4"/>
     </row>
-    <row r="77" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="11.25" customHeight="1">
       <c r="A77" s="7" t="s">
         <v>360</v>
       </c>
@@ -6183,7 +6306,7 @@
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4"/>
     </row>
-    <row r="78" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="11.25" customHeight="1">
       <c r="A78" s="7" t="s">
         <v>365</v>
       </c>
@@ -6234,7 +6357,7 @@
       <c r="AJ78" s="4"/>
       <c r="AK78" s="4"/>
     </row>
-    <row r="79" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="11.25" customHeight="1">
       <c r="A79" s="7" t="s">
         <v>370</v>
       </c>
@@ -6285,7 +6408,7 @@
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4"/>
     </row>
-    <row r="80" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" ht="11.25" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>375</v>
       </c>
@@ -6336,7 +6459,7 @@
       <c r="AJ80" s="4"/>
       <c r="AK80" s="4"/>
     </row>
-    <row r="81" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="11.25" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>380</v>
       </c>
@@ -6389,7 +6512,7 @@
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4"/>
     </row>
-    <row r="82" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="11.25" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>386</v>
       </c>
@@ -6440,7 +6563,7 @@
       <c r="AJ82" s="4"/>
       <c r="AK82" s="4"/>
     </row>
-    <row r="83" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="11.25" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>387</v>
       </c>
@@ -6491,36 +6614,36 @@
       <c r="AJ83" s="4"/>
       <c r="AK83" s="4"/>
     </row>
-    <row r="84" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
+    <row r="84" spans="1:37" ht="11.25" customHeight="1">
+      <c r="A84" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="42" t="s">
         <v>521</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33">
+      <c r="C84" s="32"/>
+      <c r="D84" s="32">
         <v>3</v>
       </c>
-      <c r="E84" s="37" t="s">
+      <c r="E84" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="F84" s="37" t="s">
+      <c r="F84" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="G84" s="37" t="s">
+      <c r="G84" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="H84" s="34"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="33" t="s">
+      <c r="H84" s="35"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="K84" s="35">
+      <c r="K84" s="33">
         <v>125</v>
       </c>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35">
+      <c r="L84" s="33"/>
+      <c r="M84" s="33">
         <v>2.0099999999999998</v>
       </c>
       <c r="N84" s="26" t="s">
@@ -6529,14 +6652,14 @@
       <c r="O84" s="16">
         <v>0.48</v>
       </c>
-      <c r="P84" s="41" t="s">
+      <c r="P84" s="40" t="s">
         <v>489</v>
       </c>
-      <c r="Q84" s="42">
+      <c r="Q84" s="41">
         <v>4</v>
       </c>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
@@ -6556,30 +6679,30 @@
       <c r="AJ84" s="5"/>
       <c r="AK84" s="5"/>
     </row>
-    <row r="85" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
+    <row r="85" spans="1:37" ht="27" customHeight="1">
+      <c r="A85" s="32"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
       <c r="N85" s="26" t="s">
         <v>488</v>
       </c>
       <c r="O85" s="16">
         <v>0.39700000000000002</v>
       </c>
-      <c r="P85" s="41"/>
-      <c r="Q85" s="42"/>
-      <c r="R85" s="39"/>
-      <c r="S85" s="39"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
@@ -6599,7 +6722,7 @@
       <c r="AJ85" s="4"/>
       <c r="AK85" s="4"/>
     </row>
-    <row r="86" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" ht="11.25" customHeight="1">
       <c r="A86" s="17" t="s">
         <v>389</v>
       </c>
@@ -6648,7 +6771,7 @@
       <c r="AJ86" s="4"/>
       <c r="AK86" s="4"/>
     </row>
-    <row r="87" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" ht="11.25" customHeight="1">
       <c r="A87" s="17" t="s">
         <v>408</v>
       </c>
@@ -6699,7 +6822,7 @@
       <c r="AJ87" s="4"/>
       <c r="AK87" s="4"/>
     </row>
-    <row r="88" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" ht="11.25" customHeight="1">
       <c r="A88" s="17" t="s">
         <v>409</v>
       </c>
@@ -6750,7 +6873,7 @@
       <c r="AJ88" s="4"/>
       <c r="AK88" s="4"/>
     </row>
-    <row r="89" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="11.25" customHeight="1">
       <c r="A89" s="17" t="s">
         <v>410</v>
       </c>
@@ -6801,7 +6924,7 @@
       <c r="AJ89" s="4"/>
       <c r="AK89" s="4"/>
     </row>
-    <row r="90" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="11.25" customHeight="1">
       <c r="A90" s="17" t="s">
         <v>411</v>
       </c>
@@ -6861,7 +6984,7 @@
       <c r="AJ90" s="4"/>
       <c r="AK90" s="4"/>
     </row>
-    <row r="91" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="11.25" customHeight="1">
       <c r="A91" s="17" t="s">
         <v>412</v>
       </c>
@@ -6924,7 +7047,7 @@
       <c r="AJ91" s="4"/>
       <c r="AK91" s="4"/>
     </row>
-    <row r="92" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" ht="11.25" customHeight="1">
       <c r="A92" s="17" t="s">
         <v>430</v>
       </c>
@@ -6985,7 +7108,7 @@
       <c r="AJ92" s="4"/>
       <c r="AK92" s="4"/>
     </row>
-    <row r="93" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="11.25" customHeight="1">
       <c r="A93" s="17" t="s">
         <v>431</v>
       </c>
@@ -7038,38 +7161,38 @@
       <c r="AJ93" s="4"/>
       <c r="AK93" s="4"/>
     </row>
-    <row r="94" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="33" t="s">
+    <row r="94" spans="1:37" ht="11.25" customHeight="1">
+      <c r="A94" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33">
+      <c r="C94" s="32"/>
+      <c r="D94" s="32">
         <v>3</v>
       </c>
-      <c r="E94" s="37" t="s">
+      <c r="E94" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="F94" s="37" t="s">
+      <c r="F94" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="G94" s="37" t="s">
+      <c r="G94" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="H94" s="34"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="33" t="s">
+      <c r="H94" s="35"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="K94" s="35">
+      <c r="K94" s="33">
         <v>125</v>
       </c>
-      <c r="L94" s="35" t="s">
+      <c r="L94" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="M94" s="40">
+      <c r="M94" s="39">
         <v>100</v>
       </c>
       <c r="N94" s="10" t="s">
@@ -7078,14 +7201,14 @@
       <c r="O94" s="10">
         <v>1.0751999999999999</v>
       </c>
-      <c r="P94" s="41" t="s">
+      <c r="P94" s="40" t="s">
         <v>489</v>
       </c>
-      <c r="Q94" s="42">
+      <c r="Q94" s="41">
         <v>4</v>
       </c>
-      <c r="R94" s="38"/>
-      <c r="S94" s="39"/>
+      <c r="R94" s="34"/>
+      <c r="S94" s="38"/>
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
       <c r="V94" s="5"/>
@@ -7105,30 +7228,30 @@
       <c r="AJ94" s="5"/>
       <c r="AK94" s="5"/>
     </row>
-    <row r="95" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="40"/>
+    <row r="95" spans="1:37" ht="11.25" customHeight="1">
+      <c r="A95" s="32"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="39"/>
       <c r="N95" s="10" t="s">
         <v>488</v>
       </c>
       <c r="O95" s="10">
         <v>0.43269999999999997</v>
       </c>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="42"/>
-      <c r="R95" s="38"/>
-      <c r="S95" s="39"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="34"/>
+      <c r="S95" s="38"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
@@ -7148,7 +7271,7 @@
       <c r="AJ95" s="4"/>
       <c r="AK95" s="4"/>
     </row>
-    <row r="96" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" ht="11.25" customHeight="1">
       <c r="A96" s="17" t="s">
         <v>433</v>
       </c>
@@ -7209,7 +7332,7 @@
       <c r="AJ96" s="4"/>
       <c r="AK96" s="4"/>
     </row>
-    <row r="97" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" ht="11.25" customHeight="1">
       <c r="A97" s="17" t="s">
         <v>434</v>
       </c>
@@ -7260,7 +7383,7 @@
       <c r="AJ97" s="4"/>
       <c r="AK97" s="4"/>
     </row>
-    <row r="98" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" ht="11.25" customHeight="1">
       <c r="A98" s="17" t="s">
         <v>435</v>
       </c>
@@ -7311,7 +7434,7 @@
       <c r="AJ98" s="4"/>
       <c r="AK98" s="4"/>
     </row>
-    <row r="99" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" ht="11.25" customHeight="1">
       <c r="A99" s="17" t="s">
         <v>436</v>
       </c>
@@ -7362,7 +7485,7 @@
       <c r="AJ99" s="4"/>
       <c r="AK99" s="4"/>
     </row>
-    <row r="100" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" ht="11.25" customHeight="1">
       <c r="A100" s="17" t="s">
         <v>437</v>
       </c>
@@ -7413,7 +7536,7 @@
       <c r="AJ100" s="4"/>
       <c r="AK100" s="4"/>
     </row>
-    <row r="101" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" ht="11.25" customHeight="1">
       <c r="A101" s="17" t="s">
         <v>438</v>
       </c>
@@ -7468,7 +7591,7 @@
       <c r="AJ101" s="4"/>
       <c r="AK101" s="4"/>
     </row>
-    <row r="102" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" ht="11.25" customHeight="1">
       <c r="A102" s="17" t="s">
         <v>466</v>
       </c>
@@ -7521,7 +7644,7 @@
       <c r="AJ102" s="4"/>
       <c r="AK102" s="4"/>
     </row>
-    <row r="103" spans="1:37" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" ht="12.5" customHeight="1">
       <c r="A103" s="17" t="s">
         <v>467</v>
       </c>
@@ -7574,7 +7697,7 @@
       <c r="AJ103" s="4"/>
       <c r="AK103" s="4"/>
     </row>
-    <row r="104" spans="1:37" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:37" ht="12.5" customHeight="1" thickBot="1">
       <c r="A104" s="17" t="s">
         <v>468</v>
       </c>
@@ -7627,25 +7750,25 @@
       <c r="AJ104" s="4"/>
       <c r="AK104" s="4"/>
     </row>
-    <row r="105" spans="1:37" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="B105" s="29" t="s">
-        <v>491</v>
-      </c>
-      <c r="C105" s="30"/>
-      <c r="D105" s="29">
+    <row r="105" spans="1:37" ht="15.5" customHeight="1" thickBot="1">
+      <c r="A105" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="B105" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="C105" s="29"/>
+      <c r="D105" s="30">
         <v>3</v>
       </c>
-      <c r="E105" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="F105" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="G105" s="32" t="s">
-        <v>494</v>
+      <c r="E105" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="F105" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="G105" s="43" t="s">
+        <v>509</v>
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="4"/>
@@ -7678,24 +7801,24 @@
       <c r="AJ105" s="4"/>
       <c r="AK105" s="4"/>
     </row>
-    <row r="106" spans="1:37" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="29" t="s">
+    <row r="106" spans="1:37" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A106" s="49" t="s">
         <v>495</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="49" t="s">
         <v>496</v>
       </c>
-      <c r="C106" s="30"/>
-      <c r="D106" s="29">
+      <c r="C106" s="29"/>
+      <c r="D106" s="30">
         <v>3</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="F106" s="31" t="s">
+      <c r="F106" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="G106" s="31" t="s">
+      <c r="G106" s="44" t="s">
         <v>499</v>
       </c>
       <c r="H106" s="5"/>
@@ -7729,24 +7852,24 @@
       <c r="AJ106" s="4"/>
       <c r="AK106" s="4"/>
     </row>
-    <row r="107" spans="1:37" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="29" t="s">
+    <row r="107" spans="1:37" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A107" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="C107" s="30"/>
-      <c r="D107" s="29">
+      <c r="C107" s="29"/>
+      <c r="D107" s="30">
         <v>3</v>
       </c>
-      <c r="E107" s="31" t="s">
+      <c r="E107" s="43" t="s">
         <v>502</v>
       </c>
-      <c r="F107" s="31" t="s">
+      <c r="F107" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="G107" s="31" t="s">
+      <c r="G107" s="43" t="s">
         <v>504</v>
       </c>
       <c r="H107" s="5"/>
@@ -7780,25 +7903,25 @@
       <c r="AJ107" s="4"/>
       <c r="AK107" s="4"/>
     </row>
-    <row r="108" spans="1:37" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="B108" s="29" t="s">
-        <v>506</v>
-      </c>
-      <c r="C108" s="30"/>
-      <c r="D108" s="29">
+    <row r="108" spans="1:37" ht="12" customHeight="1" thickBot="1">
+      <c r="A108" s="46" t="s">
+        <v>515</v>
+      </c>
+      <c r="B108" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="C108" s="29"/>
+      <c r="D108" s="30">
         <v>3</v>
       </c>
-      <c r="E108" s="31" t="s">
-        <v>507</v>
-      </c>
-      <c r="F108" s="31" t="s">
-        <v>508</v>
-      </c>
-      <c r="G108" s="31" t="s">
-        <v>509</v>
+      <c r="E108" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="F108" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="G108" s="43" t="s">
+        <v>519</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="4"/>
@@ -7831,25 +7954,25 @@
       <c r="AJ108" s="4"/>
       <c r="AK108" s="4"/>
     </row>
-    <row r="109" spans="1:37" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="29" t="s">
-        <v>510</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="29">
+    <row r="109" spans="1:37" ht="16" customHeight="1" thickBot="1">
+      <c r="A109" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="B109" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="C109" s="29"/>
+      <c r="D109" s="30">
         <v>3</v>
       </c>
-      <c r="E109" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="F109" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="G109" s="31" t="s">
-        <v>514</v>
+      <c r="E109" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="F109" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="G109" s="43" t="s">
+        <v>494</v>
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="4"/>
@@ -7882,25 +8005,25 @@
       <c r="AJ109" s="4"/>
       <c r="AK109" s="4"/>
     </row>
-    <row r="110" spans="1:37" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="B110" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="C110" s="30"/>
-      <c r="D110" s="29">
+    <row r="110" spans="1:37" ht="14" customHeight="1" thickBot="1">
+      <c r="A110" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="B110" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="C110" s="29"/>
+      <c r="D110" s="30">
         <v>3</v>
       </c>
-      <c r="E110" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="F110" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="G110" s="31" t="s">
-        <v>519</v>
+      <c r="E110" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="F110" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="G110" s="43" t="s">
+        <v>514</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="4"/>
@@ -7933,14 +8056,26 @@
       <c r="AJ110" s="4"/>
       <c r="AK110" s="4"/>
     </row>
-    <row r="111" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+    <row r="111" spans="1:37" ht="16.5" customHeight="1">
+      <c r="A111" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="B111" s="49" t="s">
+        <v>538</v>
+      </c>
       <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="D111" s="30">
+        <v>3</v>
+      </c>
+      <c r="E111" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="F111" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="G111" s="44" t="s">
+        <v>525</v>
+      </c>
       <c r="H111" s="5"/>
       <c r="I111" s="4"/>
       <c r="J111" s="5"/>
@@ -7972,14 +8107,26 @@
       <c r="AJ111" s="4"/>
       <c r="AK111" s="4"/>
     </row>
-    <row r="112" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+    <row r="112" spans="1:37" ht="12.5">
+      <c r="A112" s="46" t="s">
+        <v>526</v>
+      </c>
+      <c r="B112" s="46" t="s">
+        <v>539</v>
+      </c>
       <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="D112" s="30">
+        <v>3</v>
+      </c>
+      <c r="E112" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="F112" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="G112" s="43" t="s">
+        <v>529</v>
+      </c>
       <c r="H112" s="5"/>
       <c r="I112" s="4"/>
       <c r="J112" s="5"/>
@@ -8011,14 +8158,26 @@
       <c r="AJ112" s="4"/>
       <c r="AK112" s="4"/>
     </row>
-    <row r="113" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+    <row r="113" spans="1:37" ht="12.5">
+      <c r="A113" s="46" t="s">
+        <v>534</v>
+      </c>
+      <c r="B113" s="46" t="s">
+        <v>540</v>
+      </c>
       <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="D113" s="30">
+        <v>3</v>
+      </c>
+      <c r="E113" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="F113" s="43" t="s">
+        <v>536</v>
+      </c>
+      <c r="G113" s="43" t="s">
+        <v>537</v>
+      </c>
       <c r="H113" s="5"/>
       <c r="I113" s="4"/>
       <c r="J113" s="5"/>
@@ -8050,14 +8209,26 @@
       <c r="AJ113" s="4"/>
       <c r="AK113" s="4"/>
     </row>
-    <row r="114" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+    <row r="114" spans="1:37" ht="12.5">
+      <c r="A114" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="B114" s="46" t="s">
+        <v>541</v>
+      </c>
       <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="D114" s="30">
+        <v>3</v>
+      </c>
+      <c r="E114" s="43" t="s">
+        <v>531</v>
+      </c>
+      <c r="F114" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="G114" s="43" t="s">
+        <v>533</v>
+      </c>
       <c r="H114" s="5"/>
       <c r="I114" s="4"/>
       <c r="J114" s="5"/>
@@ -8089,14 +8260,26 @@
       <c r="AJ114" s="4"/>
       <c r="AK114" s="4"/>
     </row>
-    <row r="115" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+    <row r="115" spans="1:37" ht="12.5">
+      <c r="A115" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>546</v>
+      </c>
       <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
+      <c r="D115" s="30">
+        <v>3</v>
+      </c>
+      <c r="E115" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="F115" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="G115" s="47" t="s">
+        <v>545</v>
+      </c>
       <c r="H115" s="5"/>
       <c r="I115" s="4"/>
       <c r="J115" s="5"/>
@@ -8128,14 +8311,26 @@
       <c r="AJ115" s="4"/>
       <c r="AK115" s="4"/>
     </row>
-    <row r="116" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+    <row r="116" spans="1:37" ht="18.5" customHeight="1">
+      <c r="A116" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>548</v>
+      </c>
       <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="D116" s="4">
+        <v>3</v>
+      </c>
+      <c r="E116" s="50" t="s">
+        <v>549</v>
+      </c>
+      <c r="F116" s="50" t="s">
+        <v>550</v>
+      </c>
+      <c r="G116" s="50" t="s">
+        <v>551</v>
+      </c>
       <c r="H116" s="5"/>
       <c r="I116" s="4"/>
       <c r="J116" s="5"/>
@@ -8167,7 +8362,7 @@
       <c r="AJ116" s="4"/>
       <c r="AK116" s="4"/>
     </row>
-    <row r="117" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" ht="12.5">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -8206,7 +8401,7 @@
       <c r="AJ117" s="4"/>
       <c r="AK117" s="4"/>
     </row>
-    <row r="118" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" ht="12.5">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -8245,7 +8440,7 @@
       <c r="AJ118" s="4"/>
       <c r="AK118" s="4"/>
     </row>
-    <row r="119" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" ht="12.5">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -8284,7 +8479,7 @@
       <c r="AJ119" s="4"/>
       <c r="AK119" s="4"/>
     </row>
-    <row r="120" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" ht="12.5">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -8323,7 +8518,7 @@
       <c r="AJ120" s="4"/>
       <c r="AK120" s="4"/>
     </row>
-    <row r="121" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" ht="12.5">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -8362,7 +8557,7 @@
       <c r="AJ121" s="4"/>
       <c r="AK121" s="4"/>
     </row>
-    <row r="122" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" ht="12.5">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -8401,7 +8596,7 @@
       <c r="AJ122" s="4"/>
       <c r="AK122" s="4"/>
     </row>
-    <row r="123" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" ht="12.5">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -8440,7 +8635,7 @@
       <c r="AJ123" s="4"/>
       <c r="AK123" s="4"/>
     </row>
-    <row r="124" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" ht="12.5">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -8479,7 +8674,7 @@
       <c r="AJ124" s="4"/>
       <c r="AK124" s="4"/>
     </row>
-    <row r="125" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" ht="12.5">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -8518,7 +8713,7 @@
       <c r="AJ125" s="4"/>
       <c r="AK125" s="4"/>
     </row>
-    <row r="126" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" ht="12.5">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -8557,7 +8752,7 @@
       <c r="AJ126" s="4"/>
       <c r="AK126" s="4"/>
     </row>
-    <row r="127" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" ht="12.5">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -8596,7 +8791,7 @@
       <c r="AJ127" s="4"/>
       <c r="AK127" s="4"/>
     </row>
-    <row r="128" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" ht="12.5">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -8635,7 +8830,7 @@
       <c r="AJ128" s="4"/>
       <c r="AK128" s="4"/>
     </row>
-    <row r="129" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" ht="12.5">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -8674,7 +8869,7 @@
       <c r="AJ129" s="4"/>
       <c r="AK129" s="4"/>
     </row>
-    <row r="130" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" ht="12.5">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -8713,7 +8908,7 @@
       <c r="AJ130" s="4"/>
       <c r="AK130" s="4"/>
     </row>
-    <row r="131" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" ht="12.5">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -8752,7 +8947,7 @@
       <c r="AJ131" s="4"/>
       <c r="AK131" s="4"/>
     </row>
-    <row r="132" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" ht="12.5">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -8791,7 +8986,7 @@
       <c r="AJ132" s="4"/>
       <c r="AK132" s="4"/>
     </row>
-    <row r="133" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" ht="12.5">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -8830,7 +9025,7 @@
       <c r="AJ133" s="4"/>
       <c r="AK133" s="4"/>
     </row>
-    <row r="134" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" ht="12.5">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -8869,7 +9064,7 @@
       <c r="AJ134" s="4"/>
       <c r="AK134" s="4"/>
     </row>
-    <row r="135" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" ht="12.5">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -8908,7 +9103,7 @@
       <c r="AJ135" s="4"/>
       <c r="AK135" s="4"/>
     </row>
-    <row r="136" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" ht="12.5">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -8947,7 +9142,7 @@
       <c r="AJ136" s="4"/>
       <c r="AK136" s="4"/>
     </row>
-    <row r="137" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" ht="12.5">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -8986,7 +9181,7 @@
       <c r="AJ137" s="4"/>
       <c r="AK137" s="4"/>
     </row>
-    <row r="138" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" ht="12.5">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -9025,7 +9220,7 @@
       <c r="AJ138" s="4"/>
       <c r="AK138" s="4"/>
     </row>
-    <row r="139" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" ht="12.5">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -9064,7 +9259,7 @@
       <c r="AJ139" s="4"/>
       <c r="AK139" s="4"/>
     </row>
-    <row r="140" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" ht="12.5">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -9103,7 +9298,7 @@
       <c r="AJ140" s="4"/>
       <c r="AK140" s="4"/>
     </row>
-    <row r="141" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" ht="12.5">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -9142,7 +9337,7 @@
       <c r="AJ141" s="4"/>
       <c r="AK141" s="4"/>
     </row>
-    <row r="142" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" ht="12.5">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -9181,7 +9376,7 @@
       <c r="AJ142" s="4"/>
       <c r="AK142" s="4"/>
     </row>
-    <row r="143" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" ht="12.5">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -9220,7 +9415,7 @@
       <c r="AJ143" s="4"/>
       <c r="AK143" s="4"/>
     </row>
-    <row r="144" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" ht="12.5">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -9259,7 +9454,7 @@
       <c r="AJ144" s="4"/>
       <c r="AK144" s="4"/>
     </row>
-    <row r="145" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" ht="12.5">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -9298,7 +9493,7 @@
       <c r="AJ145" s="4"/>
       <c r="AK145" s="4"/>
     </row>
-    <row r="146" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" ht="12.5">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -9337,7 +9532,7 @@
       <c r="AJ146" s="4"/>
       <c r="AK146" s="4"/>
     </row>
-    <row r="147" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" ht="12.5">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -9376,7 +9571,7 @@
       <c r="AJ147" s="4"/>
       <c r="AK147" s="4"/>
     </row>
-    <row r="148" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" ht="12.5">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -9415,7 +9610,7 @@
       <c r="AJ148" s="4"/>
       <c r="AK148" s="4"/>
     </row>
-    <row r="149" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" ht="12.5">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -9454,7 +9649,7 @@
       <c r="AJ149" s="4"/>
       <c r="AK149" s="4"/>
     </row>
-    <row r="150" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" ht="12.5">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -9493,7 +9688,7 @@
       <c r="AJ150" s="4"/>
       <c r="AK150" s="4"/>
     </row>
-    <row r="151" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" ht="12.5">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -9532,7 +9727,7 @@
       <c r="AJ151" s="4"/>
       <c r="AK151" s="4"/>
     </row>
-    <row r="152" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" ht="12.5">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -9571,7 +9766,7 @@
       <c r="AJ152" s="4"/>
       <c r="AK152" s="4"/>
     </row>
-    <row r="153" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" ht="12.5">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -9610,7 +9805,7 @@
       <c r="AJ153" s="4"/>
       <c r="AK153" s="4"/>
     </row>
-    <row r="154" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" ht="12.5">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -9649,7 +9844,7 @@
       <c r="AJ154" s="4"/>
       <c r="AK154" s="4"/>
     </row>
-    <row r="155" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" ht="12.5">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -9688,7 +9883,7 @@
       <c r="AJ155" s="4"/>
       <c r="AK155" s="4"/>
     </row>
-    <row r="156" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" ht="12.5">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -9727,7 +9922,7 @@
       <c r="AJ156" s="4"/>
       <c r="AK156" s="4"/>
     </row>
-    <row r="157" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" ht="12.5">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -9766,7 +9961,7 @@
       <c r="AJ157" s="4"/>
       <c r="AK157" s="4"/>
     </row>
-    <row r="158" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" ht="12.5">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -9805,7 +10000,7 @@
       <c r="AJ158" s="4"/>
       <c r="AK158" s="4"/>
     </row>
-    <row r="159" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" ht="12.5">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -9844,7 +10039,7 @@
       <c r="AJ159" s="4"/>
       <c r="AK159" s="4"/>
     </row>
-    <row r="160" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" ht="12.5">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -9883,7 +10078,7 @@
       <c r="AJ160" s="4"/>
       <c r="AK160" s="4"/>
     </row>
-    <row r="161" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" ht="12.5">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -9922,7 +10117,7 @@
       <c r="AJ161" s="4"/>
       <c r="AK161" s="4"/>
     </row>
-    <row r="162" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:37" ht="12.5">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -9961,7 +10156,7 @@
       <c r="AJ162" s="4"/>
       <c r="AK162" s="4"/>
     </row>
-    <row r="163" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:37" ht="12.5">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -10000,7 +10195,7 @@
       <c r="AJ163" s="4"/>
       <c r="AK163" s="4"/>
     </row>
-    <row r="164" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:37" ht="12.5">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -10039,7 +10234,7 @@
       <c r="AJ164" s="4"/>
       <c r="AK164" s="4"/>
     </row>
-    <row r="165" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:37" ht="12.5">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -10078,7 +10273,7 @@
       <c r="AJ165" s="4"/>
       <c r="AK165" s="4"/>
     </row>
-    <row r="166" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:37" ht="12.5">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -10117,7 +10312,7 @@
       <c r="AJ166" s="4"/>
       <c r="AK166" s="4"/>
     </row>
-    <row r="167" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:37" ht="12.5">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -10156,7 +10351,7 @@
       <c r="AJ167" s="4"/>
       <c r="AK167" s="4"/>
     </row>
-    <row r="168" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:37" ht="12.5">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -10195,7 +10390,7 @@
       <c r="AJ168" s="4"/>
       <c r="AK168" s="4"/>
     </row>
-    <row r="169" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:37" ht="12.5">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -10234,7 +10429,7 @@
       <c r="AJ169" s="4"/>
       <c r="AK169" s="4"/>
     </row>
-    <row r="170" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:37" ht="12.5">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -10273,7 +10468,7 @@
       <c r="AJ170" s="4"/>
       <c r="AK170" s="4"/>
     </row>
-    <row r="171" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:37" ht="12.5">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -10312,7 +10507,7 @@
       <c r="AJ171" s="4"/>
       <c r="AK171" s="4"/>
     </row>
-    <row r="172" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:37" ht="12.5">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -10351,7 +10546,7 @@
       <c r="AJ172" s="4"/>
       <c r="AK172" s="4"/>
     </row>
-    <row r="173" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:37" ht="12.5">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -10390,7 +10585,7 @@
       <c r="AJ173" s="4"/>
       <c r="AK173" s="4"/>
     </row>
-    <row r="174" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:37" ht="12.5">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -10429,7 +10624,7 @@
       <c r="AJ174" s="4"/>
       <c r="AK174" s="4"/>
     </row>
-    <row r="175" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:37" ht="12.5">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -10468,7 +10663,7 @@
       <c r="AJ175" s="4"/>
       <c r="AK175" s="4"/>
     </row>
-    <row r="176" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:37" ht="12.5">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -10507,7 +10702,7 @@
       <c r="AJ176" s="4"/>
       <c r="AK176" s="4"/>
     </row>
-    <row r="177" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:37" ht="12.5">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -10546,7 +10741,7 @@
       <c r="AJ177" s="4"/>
       <c r="AK177" s="4"/>
     </row>
-    <row r="178" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:37" ht="12.5">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -10585,7 +10780,7 @@
       <c r="AJ178" s="4"/>
       <c r="AK178" s="4"/>
     </row>
-    <row r="179" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:37" ht="12.5">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -10624,7 +10819,7 @@
       <c r="AJ179" s="4"/>
       <c r="AK179" s="4"/>
     </row>
-    <row r="180" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:37" ht="12.5">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -10663,7 +10858,7 @@
       <c r="AJ180" s="4"/>
       <c r="AK180" s="4"/>
     </row>
-    <row r="181" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:37" ht="12.5">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -10702,7 +10897,7 @@
       <c r="AJ181" s="4"/>
       <c r="AK181" s="4"/>
     </row>
-    <row r="182" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:37" ht="12.5">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -10741,7 +10936,7 @@
       <c r="AJ182" s="4"/>
       <c r="AK182" s="4"/>
     </row>
-    <row r="183" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:37" ht="12.5">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -10780,7 +10975,7 @@
       <c r="AJ183" s="4"/>
       <c r="AK183" s="4"/>
     </row>
-    <row r="184" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:37" ht="12.5">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -10819,7 +11014,7 @@
       <c r="AJ184" s="4"/>
       <c r="AK184" s="4"/>
     </row>
-    <row r="185" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:37" ht="12.5">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -10858,7 +11053,7 @@
       <c r="AJ185" s="4"/>
       <c r="AK185" s="4"/>
     </row>
-    <row r="186" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:37" ht="12.5">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -10897,7 +11092,7 @@
       <c r="AJ186" s="4"/>
       <c r="AK186" s="4"/>
     </row>
-    <row r="187" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:37" ht="12.5">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -10936,7 +11131,7 @@
       <c r="AJ187" s="4"/>
       <c r="AK187" s="4"/>
     </row>
-    <row r="188" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:37" ht="12.5">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -10975,7 +11170,7 @@
       <c r="AJ188" s="4"/>
       <c r="AK188" s="4"/>
     </row>
-    <row r="189" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:37" ht="12.5">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -11014,7 +11209,7 @@
       <c r="AJ189" s="4"/>
       <c r="AK189" s="4"/>
     </row>
-    <row r="190" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:37" ht="12.5">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -11053,7 +11248,7 @@
       <c r="AJ190" s="4"/>
       <c r="AK190" s="4"/>
     </row>
-    <row r="191" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:37" ht="12.5">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -11092,7 +11287,7 @@
       <c r="AJ191" s="4"/>
       <c r="AK191" s="4"/>
     </row>
-    <row r="192" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:37" ht="12.5">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -11131,7 +11326,7 @@
       <c r="AJ192" s="4"/>
       <c r="AK192" s="4"/>
     </row>
-    <row r="193" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:37" ht="12.5">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -11170,7 +11365,7 @@
       <c r="AJ193" s="4"/>
       <c r="AK193" s="4"/>
     </row>
-    <row r="194" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:37" ht="12.5">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -11209,7 +11404,7 @@
       <c r="AJ194" s="4"/>
       <c r="AK194" s="4"/>
     </row>
-    <row r="195" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:37" ht="12.5">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -11248,7 +11443,7 @@
       <c r="AJ195" s="4"/>
       <c r="AK195" s="4"/>
     </row>
-    <row r="196" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:37" ht="12.5">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -11287,7 +11482,7 @@
       <c r="AJ196" s="4"/>
       <c r="AK196" s="4"/>
     </row>
-    <row r="197" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:37" ht="12.5">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -11326,7 +11521,7 @@
       <c r="AJ197" s="4"/>
       <c r="AK197" s="4"/>
     </row>
-    <row r="198" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:37" ht="12.5">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -11365,7 +11560,7 @@
       <c r="AJ198" s="4"/>
       <c r="AK198" s="4"/>
     </row>
-    <row r="199" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:37" ht="12.5">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -11404,7 +11599,7 @@
       <c r="AJ199" s="4"/>
       <c r="AK199" s="4"/>
     </row>
-    <row r="200" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:37" ht="12.5">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -11443,7 +11638,7 @@
       <c r="AJ200" s="4"/>
       <c r="AK200" s="4"/>
     </row>
-    <row r="201" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:37" ht="12.5">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -11482,7 +11677,7 @@
       <c r="AJ201" s="4"/>
       <c r="AK201" s="4"/>
     </row>
-    <row r="202" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:37" ht="12.5">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -11521,7 +11716,7 @@
       <c r="AJ202" s="4"/>
       <c r="AK202" s="4"/>
     </row>
-    <row r="203" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:37" ht="12.5">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -11560,7 +11755,7 @@
       <c r="AJ203" s="4"/>
       <c r="AK203" s="4"/>
     </row>
-    <row r="204" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:37" ht="12.5">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -11599,7 +11794,7 @@
       <c r="AJ204" s="4"/>
       <c r="AK204" s="4"/>
     </row>
-    <row r="205" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:37" ht="12.5">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -11638,7 +11833,7 @@
       <c r="AJ205" s="4"/>
       <c r="AK205" s="4"/>
     </row>
-    <row r="206" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:37" ht="12.5">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -11677,7 +11872,7 @@
       <c r="AJ206" s="4"/>
       <c r="AK206" s="4"/>
     </row>
-    <row r="207" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:37" ht="12.5">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -11716,7 +11911,7 @@
       <c r="AJ207" s="4"/>
       <c r="AK207" s="4"/>
     </row>
-    <row r="208" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:37" ht="12.5">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -11755,7 +11950,7 @@
       <c r="AJ208" s="4"/>
       <c r="AK208" s="4"/>
     </row>
-    <row r="209" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:37" ht="12.5">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -11794,7 +11989,7 @@
       <c r="AJ209" s="4"/>
       <c r="AK209" s="4"/>
     </row>
-    <row r="210" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:37" ht="12.5">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -11833,7 +12028,7 @@
       <c r="AJ210" s="4"/>
       <c r="AK210" s="4"/>
     </row>
-    <row r="211" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:37" ht="12.5">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -11872,7 +12067,7 @@
       <c r="AJ211" s="4"/>
       <c r="AK211" s="4"/>
     </row>
-    <row r="212" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:37" ht="12.5">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -11911,7 +12106,7 @@
       <c r="AJ212" s="4"/>
       <c r="AK212" s="4"/>
     </row>
-    <row r="213" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:37" ht="12.5">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -11950,7 +12145,7 @@
       <c r="AJ213" s="4"/>
       <c r="AK213" s="4"/>
     </row>
-    <row r="214" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:37" ht="12.5">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -11989,7 +12184,7 @@
       <c r="AJ214" s="4"/>
       <c r="AK214" s="4"/>
     </row>
-    <row r="215" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:37" ht="12.5">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -12028,7 +12223,7 @@
       <c r="AJ215" s="4"/>
       <c r="AK215" s="4"/>
     </row>
-    <row r="216" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:37" ht="12.5">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -12067,7 +12262,7 @@
       <c r="AJ216" s="4"/>
       <c r="AK216" s="4"/>
     </row>
-    <row r="217" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:37" ht="12.5">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -12106,7 +12301,7 @@
       <c r="AJ217" s="4"/>
       <c r="AK217" s="4"/>
     </row>
-    <row r="218" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:37" ht="12.5">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -12145,7 +12340,7 @@
       <c r="AJ218" s="4"/>
       <c r="AK218" s="4"/>
     </row>
-    <row r="219" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:37" ht="12.5">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -12184,7 +12379,7 @@
       <c r="AJ219" s="4"/>
       <c r="AK219" s="4"/>
     </row>
-    <row r="220" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:37" ht="12.5">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -12223,7 +12418,7 @@
       <c r="AJ220" s="4"/>
       <c r="AK220" s="4"/>
     </row>
-    <row r="221" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:37" ht="12.5">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -12262,7 +12457,7 @@
       <c r="AJ221" s="4"/>
       <c r="AK221" s="4"/>
     </row>
-    <row r="222" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:37" ht="12.5">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -12301,7 +12496,7 @@
       <c r="AJ222" s="4"/>
       <c r="AK222" s="4"/>
     </row>
-    <row r="223" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:37" ht="12.5">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -12340,7 +12535,7 @@
       <c r="AJ223" s="4"/>
       <c r="AK223" s="4"/>
     </row>
-    <row r="224" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:37" ht="12.5">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -12379,7 +12574,7 @@
       <c r="AJ224" s="4"/>
       <c r="AK224" s="4"/>
     </row>
-    <row r="225" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:37" ht="12.5">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -12418,7 +12613,7 @@
       <c r="AJ225" s="4"/>
       <c r="AK225" s="4"/>
     </row>
-    <row r="226" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:37" ht="12.5">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -12457,7 +12652,7 @@
       <c r="AJ226" s="4"/>
       <c r="AK226" s="4"/>
     </row>
-    <row r="227" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:37" ht="12.5">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -12496,7 +12691,7 @@
       <c r="AJ227" s="4"/>
       <c r="AK227" s="4"/>
     </row>
-    <row r="228" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:37" ht="12.5">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -12535,7 +12730,7 @@
       <c r="AJ228" s="4"/>
       <c r="AK228" s="4"/>
     </row>
-    <row r="229" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:37" ht="12.5">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -12574,7 +12769,7 @@
       <c r="AJ229" s="4"/>
       <c r="AK229" s="4"/>
     </row>
-    <row r="230" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:37" ht="12.5">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -12613,7 +12808,7 @@
       <c r="AJ230" s="4"/>
       <c r="AK230" s="4"/>
     </row>
-    <row r="231" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:37" ht="12.5">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -12652,7 +12847,7 @@
       <c r="AJ231" s="4"/>
       <c r="AK231" s="4"/>
     </row>
-    <row r="232" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:37" ht="12.5">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -12691,7 +12886,7 @@
       <c r="AJ232" s="4"/>
       <c r="AK232" s="4"/>
     </row>
-    <row r="233" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:37" ht="12.5">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -12730,7 +12925,7 @@
       <c r="AJ233" s="4"/>
       <c r="AK233" s="4"/>
     </row>
-    <row r="234" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:37" ht="12.5">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -12769,7 +12964,7 @@
       <c r="AJ234" s="4"/>
       <c r="AK234" s="4"/>
     </row>
-    <row r="235" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:37" ht="12.5">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -12808,7 +13003,7 @@
       <c r="AJ235" s="4"/>
       <c r="AK235" s="4"/>
     </row>
-    <row r="236" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:37" ht="12.5">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -12847,7 +13042,7 @@
       <c r="AJ236" s="4"/>
       <c r="AK236" s="4"/>
     </row>
-    <row r="237" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:37" ht="12.5">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -12886,7 +13081,7 @@
       <c r="AJ237" s="4"/>
       <c r="AK237" s="4"/>
     </row>
-    <row r="238" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:37" ht="12.5">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -12925,7 +13120,7 @@
       <c r="AJ238" s="4"/>
       <c r="AK238" s="4"/>
     </row>
-    <row r="239" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:37" ht="12.5">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -12964,7 +13159,7 @@
       <c r="AJ239" s="4"/>
       <c r="AK239" s="4"/>
     </row>
-    <row r="240" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:37" ht="12.5">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -13003,7 +13198,7 @@
       <c r="AJ240" s="4"/>
       <c r="AK240" s="4"/>
     </row>
-    <row r="241" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:37" ht="12.5">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -13042,7 +13237,7 @@
       <c r="AJ241" s="4"/>
       <c r="AK241" s="4"/>
     </row>
-    <row r="242" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:37" ht="12.5">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -13081,7 +13276,7 @@
       <c r="AJ242" s="4"/>
       <c r="AK242" s="4"/>
     </row>
-    <row r="243" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:37" ht="12.5">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -13120,7 +13315,7 @@
       <c r="AJ243" s="4"/>
       <c r="AK243" s="4"/>
     </row>
-    <row r="244" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:37" ht="12.5">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -13159,7 +13354,7 @@
       <c r="AJ244" s="4"/>
       <c r="AK244" s="4"/>
     </row>
-    <row r="245" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:37" ht="12.5">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -13198,7 +13393,7 @@
       <c r="AJ245" s="4"/>
       <c r="AK245" s="4"/>
     </row>
-    <row r="246" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:37" ht="12.5">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -13237,7 +13432,7 @@
       <c r="AJ246" s="4"/>
       <c r="AK246" s="4"/>
     </row>
-    <row r="247" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:37" ht="12.5">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -13276,7 +13471,7 @@
       <c r="AJ247" s="4"/>
       <c r="AK247" s="4"/>
     </row>
-    <row r="248" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:37" ht="12.5">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -13315,7 +13510,7 @@
       <c r="AJ248" s="4"/>
       <c r="AK248" s="4"/>
     </row>
-    <row r="249" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:37" ht="12.5">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -13354,7 +13549,7 @@
       <c r="AJ249" s="4"/>
       <c r="AK249" s="4"/>
     </row>
-    <row r="250" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:37" ht="12.5">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -13393,7 +13588,7 @@
       <c r="AJ250" s="4"/>
       <c r="AK250" s="4"/>
     </row>
-    <row r="251" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:37" ht="12.5">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -13432,7 +13627,7 @@
       <c r="AJ251" s="4"/>
       <c r="AK251" s="4"/>
     </row>
-    <row r="252" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:37" ht="12.5">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -13471,7 +13666,7 @@
       <c r="AJ252" s="4"/>
       <c r="AK252" s="4"/>
     </row>
-    <row r="253" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:37" ht="12.5">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -13510,7 +13705,7 @@
       <c r="AJ253" s="4"/>
       <c r="AK253" s="4"/>
     </row>
-    <row r="254" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:37" ht="12.5">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -13549,7 +13744,7 @@
       <c r="AJ254" s="4"/>
       <c r="AK254" s="4"/>
     </row>
-    <row r="255" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:37" ht="12.5">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -13588,7 +13783,7 @@
       <c r="AJ255" s="4"/>
       <c r="AK255" s="4"/>
     </row>
-    <row r="256" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:37" ht="12.5">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -13627,7 +13822,7 @@
       <c r="AJ256" s="4"/>
       <c r="AK256" s="4"/>
     </row>
-    <row r="257" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:37" ht="12.5">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -13666,7 +13861,7 @@
       <c r="AJ257" s="4"/>
       <c r="AK257" s="4"/>
     </row>
-    <row r="258" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:37" ht="12.5">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -13705,7 +13900,7 @@
       <c r="AJ258" s="4"/>
       <c r="AK258" s="4"/>
     </row>
-    <row r="259" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:37" ht="12.5">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -13744,7 +13939,7 @@
       <c r="AJ259" s="4"/>
       <c r="AK259" s="4"/>
     </row>
-    <row r="260" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:37" ht="12.5">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -13783,7 +13978,7 @@
       <c r="AJ260" s="4"/>
       <c r="AK260" s="4"/>
     </row>
-    <row r="261" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:37" ht="12.5">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -13822,7 +14017,7 @@
       <c r="AJ261" s="4"/>
       <c r="AK261" s="4"/>
     </row>
-    <row r="262" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:37" ht="12.5">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -13861,7 +14056,7 @@
       <c r="AJ262" s="4"/>
       <c r="AK262" s="4"/>
     </row>
-    <row r="263" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:37" ht="12.5">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -13900,7 +14095,7 @@
       <c r="AJ263" s="4"/>
       <c r="AK263" s="4"/>
     </row>
-    <row r="264" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:37" ht="12.5">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -13939,7 +14134,7 @@
       <c r="AJ264" s="4"/>
       <c r="AK264" s="4"/>
     </row>
-    <row r="265" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:37" ht="12.5">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -13978,7 +14173,7 @@
       <c r="AJ265" s="4"/>
       <c r="AK265" s="4"/>
     </row>
-    <row r="266" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:37" ht="12.5">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -14017,7 +14212,7 @@
       <c r="AJ266" s="4"/>
       <c r="AK266" s="4"/>
     </row>
-    <row r="267" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:37" ht="12.5">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -14056,7 +14251,7 @@
       <c r="AJ267" s="4"/>
       <c r="AK267" s="4"/>
     </row>
-    <row r="268" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:37" ht="12.5">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -14095,7 +14290,7 @@
       <c r="AJ268" s="4"/>
       <c r="AK268" s="4"/>
     </row>
-    <row r="269" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:37" ht="12.5">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -14134,7 +14329,7 @@
       <c r="AJ269" s="4"/>
       <c r="AK269" s="4"/>
     </row>
-    <row r="270" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:37" ht="12.5">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -14173,7 +14368,7 @@
       <c r="AJ270" s="4"/>
       <c r="AK270" s="4"/>
     </row>
-    <row r="271" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:37" ht="12.5">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -14212,7 +14407,7 @@
       <c r="AJ271" s="4"/>
       <c r="AK271" s="4"/>
     </row>
-    <row r="272" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:37" ht="12.5">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -14251,7 +14446,7 @@
       <c r="AJ272" s="4"/>
       <c r="AK272" s="4"/>
     </row>
-    <row r="273" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:37" ht="12.5">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -14290,7 +14485,7 @@
       <c r="AJ273" s="4"/>
       <c r="AK273" s="4"/>
     </row>
-    <row r="274" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:37" ht="12.5">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -14329,7 +14524,7 @@
       <c r="AJ274" s="4"/>
       <c r="AK274" s="4"/>
     </row>
-    <row r="275" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:37" ht="12.5">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -14368,7 +14563,7 @@
       <c r="AJ275" s="4"/>
       <c r="AK275" s="4"/>
     </row>
-    <row r="276" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:37" ht="12.5">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -14407,7 +14602,7 @@
       <c r="AJ276" s="4"/>
       <c r="AK276" s="4"/>
     </row>
-    <row r="277" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:37" ht="12.5">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -14446,7 +14641,7 @@
       <c r="AJ277" s="4"/>
       <c r="AK277" s="4"/>
     </row>
-    <row r="278" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:37" ht="12.5">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -14485,7 +14680,7 @@
       <c r="AJ278" s="4"/>
       <c r="AK278" s="4"/>
     </row>
-    <row r="279" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:37" ht="12.5">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -14524,7 +14719,7 @@
       <c r="AJ279" s="4"/>
       <c r="AK279" s="4"/>
     </row>
-    <row r="280" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:37" ht="12.5">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -14563,7 +14758,7 @@
       <c r="AJ280" s="4"/>
       <c r="AK280" s="4"/>
     </row>
-    <row r="281" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:37" ht="12.5">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -14602,7 +14797,7 @@
       <c r="AJ281" s="4"/>
       <c r="AK281" s="4"/>
     </row>
-    <row r="282" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:37" ht="12.5">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -14641,7 +14836,7 @@
       <c r="AJ282" s="4"/>
       <c r="AK282" s="4"/>
     </row>
-    <row r="283" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:37" ht="12.5">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -14680,7 +14875,7 @@
       <c r="AJ283" s="4"/>
       <c r="AK283" s="4"/>
     </row>
-    <row r="284" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:37" ht="12.5">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -14719,7 +14914,7 @@
       <c r="AJ284" s="4"/>
       <c r="AK284" s="4"/>
     </row>
-    <row r="285" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:37" ht="12.5">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -14758,7 +14953,7 @@
       <c r="AJ285" s="4"/>
       <c r="AK285" s="4"/>
     </row>
-    <row r="286" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:37" ht="12.5">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -14797,7 +14992,7 @@
       <c r="AJ286" s="4"/>
       <c r="AK286" s="4"/>
     </row>
-    <row r="287" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:37" ht="12.5">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -14836,7 +15031,7 @@
       <c r="AJ287" s="4"/>
       <c r="AK287" s="4"/>
     </row>
-    <row r="288" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:37" ht="12.5">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -14875,7 +15070,7 @@
       <c r="AJ288" s="4"/>
       <c r="AK288" s="4"/>
     </row>
-    <row r="289" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:37" ht="12.5">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -14914,7 +15109,7 @@
       <c r="AJ289" s="4"/>
       <c r="AK289" s="4"/>
     </row>
-    <row r="290" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:37" ht="12.5">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -14953,7 +15148,7 @@
       <c r="AJ290" s="4"/>
       <c r="AK290" s="4"/>
     </row>
-    <row r="291" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:37" ht="12.5">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -14992,7 +15187,7 @@
       <c r="AJ291" s="4"/>
       <c r="AK291" s="4"/>
     </row>
-    <row r="292" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:37" ht="12.5">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -15031,7 +15226,7 @@
       <c r="AJ292" s="4"/>
       <c r="AK292" s="4"/>
     </row>
-    <row r="293" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:37" ht="12.5">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -15070,7 +15265,7 @@
       <c r="AJ293" s="4"/>
       <c r="AK293" s="4"/>
     </row>
-    <row r="294" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:37" ht="12.5">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -15109,7 +15304,7 @@
       <c r="AJ294" s="4"/>
       <c r="AK294" s="4"/>
     </row>
-    <row r="295" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:37" ht="12.5">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -15148,7 +15343,7 @@
       <c r="AJ295" s="4"/>
       <c r="AK295" s="4"/>
     </row>
-    <row r="296" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:37" ht="12.5">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -15187,7 +15382,7 @@
       <c r="AJ296" s="4"/>
       <c r="AK296" s="4"/>
     </row>
-    <row r="297" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:37" ht="12.5">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -15226,7 +15421,7 @@
       <c r="AJ297" s="4"/>
       <c r="AK297" s="4"/>
     </row>
-    <row r="298" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:37" ht="12.5">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -15265,7 +15460,7 @@
       <c r="AJ298" s="4"/>
       <c r="AK298" s="4"/>
     </row>
-    <row r="299" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:37" ht="12.5">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -15304,7 +15499,7 @@
       <c r="AJ299" s="4"/>
       <c r="AK299" s="4"/>
     </row>
-    <row r="300" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:37" ht="12.5">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -15343,7 +15538,7 @@
       <c r="AJ300" s="4"/>
       <c r="AK300" s="4"/>
     </row>
-    <row r="301" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:37" ht="12.5">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -15382,7 +15577,7 @@
       <c r="AJ301" s="4"/>
       <c r="AK301" s="4"/>
     </row>
-    <row r="302" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:37" ht="12.5">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -15421,7 +15616,7 @@
       <c r="AJ302" s="4"/>
       <c r="AK302" s="4"/>
     </row>
-    <row r="303" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:37" ht="12.5">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -15460,7 +15655,7 @@
       <c r="AJ303" s="4"/>
       <c r="AK303" s="4"/>
     </row>
-    <row r="304" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:37" ht="12.5">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -15499,7 +15694,7 @@
       <c r="AJ304" s="4"/>
       <c r="AK304" s="4"/>
     </row>
-    <row r="305" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:37" ht="12.5">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -15538,7 +15733,7 @@
       <c r="AJ305" s="4"/>
       <c r="AK305" s="4"/>
     </row>
-    <row r="306" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:37" ht="12.5">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -15577,7 +15772,7 @@
       <c r="AJ306" s="4"/>
       <c r="AK306" s="4"/>
     </row>
-    <row r="307" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:37" ht="12.5">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -15616,7 +15811,7 @@
       <c r="AJ307" s="4"/>
       <c r="AK307" s="4"/>
     </row>
-    <row r="308" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:37" ht="12.5">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -15655,7 +15850,7 @@
       <c r="AJ308" s="4"/>
       <c r="AK308" s="4"/>
     </row>
-    <row r="309" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:37" ht="12.5">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -15694,7 +15889,7 @@
       <c r="AJ309" s="4"/>
       <c r="AK309" s="4"/>
     </row>
-    <row r="310" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:37" ht="12.5">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -15733,7 +15928,7 @@
       <c r="AJ310" s="4"/>
       <c r="AK310" s="4"/>
     </row>
-    <row r="311" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:37" ht="12.5">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -15772,7 +15967,7 @@
       <c r="AJ311" s="4"/>
       <c r="AK311" s="4"/>
     </row>
-    <row r="312" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:37" ht="12.5">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -15811,7 +16006,7 @@
       <c r="AJ312" s="4"/>
       <c r="AK312" s="4"/>
     </row>
-    <row r="313" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:37" ht="12.5">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -15850,7 +16045,7 @@
       <c r="AJ313" s="4"/>
       <c r="AK313" s="4"/>
     </row>
-    <row r="314" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:37" ht="12.5">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -15889,7 +16084,7 @@
       <c r="AJ314" s="4"/>
       <c r="AK314" s="4"/>
     </row>
-    <row r="315" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:37" ht="12.5">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -15928,7 +16123,7 @@
       <c r="AJ315" s="4"/>
       <c r="AK315" s="4"/>
     </row>
-    <row r="316" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:37" ht="12.5">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -15967,7 +16162,7 @@
       <c r="AJ316" s="4"/>
       <c r="AK316" s="4"/>
     </row>
-    <row r="317" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:37" ht="12.5">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -16006,7 +16201,7 @@
       <c r="AJ317" s="4"/>
       <c r="AK317" s="4"/>
     </row>
-    <row r="318" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:37" ht="12.5">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -16045,7 +16240,7 @@
       <c r="AJ318" s="4"/>
       <c r="AK318" s="4"/>
     </row>
-    <row r="319" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:37" ht="12.5">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -16084,7 +16279,7 @@
       <c r="AJ319" s="4"/>
       <c r="AK319" s="4"/>
     </row>
-    <row r="320" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:37" ht="12.5">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -16123,7 +16318,7 @@
       <c r="AJ320" s="4"/>
       <c r="AK320" s="4"/>
     </row>
-    <row r="321" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:37" ht="12.5">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -16162,7 +16357,7 @@
       <c r="AJ321" s="4"/>
       <c r="AK321" s="4"/>
     </row>
-    <row r="322" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:37" ht="12.5">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -16201,7 +16396,7 @@
       <c r="AJ322" s="4"/>
       <c r="AK322" s="4"/>
     </row>
-    <row r="323" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:37" ht="12.5">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -16240,7 +16435,7 @@
       <c r="AJ323" s="4"/>
       <c r="AK323" s="4"/>
     </row>
-    <row r="324" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:37" ht="12.5">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -16279,7 +16474,7 @@
       <c r="AJ324" s="4"/>
       <c r="AK324" s="4"/>
     </row>
-    <row r="325" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:37" ht="12.5">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -16318,7 +16513,7 @@
       <c r="AJ325" s="4"/>
       <c r="AK325" s="4"/>
     </row>
-    <row r="326" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:37" ht="12.5">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -16357,7 +16552,7 @@
       <c r="AJ326" s="4"/>
       <c r="AK326" s="4"/>
     </row>
-    <row r="327" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:37" ht="12.5">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -16396,7 +16591,7 @@
       <c r="AJ327" s="4"/>
       <c r="AK327" s="4"/>
     </row>
-    <row r="328" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:37" ht="12.5">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -16435,7 +16630,7 @@
       <c r="AJ328" s="4"/>
       <c r="AK328" s="4"/>
     </row>
-    <row r="329" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:37" ht="12.5">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -16474,7 +16669,7 @@
       <c r="AJ329" s="4"/>
       <c r="AK329" s="4"/>
     </row>
-    <row r="330" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:37" ht="12.5">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -16513,7 +16708,7 @@
       <c r="AJ330" s="4"/>
       <c r="AK330" s="4"/>
     </row>
-    <row r="331" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:37" ht="12.5">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -16552,7 +16747,7 @@
       <c r="AJ331" s="4"/>
       <c r="AK331" s="4"/>
     </row>
-    <row r="332" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:37" ht="12.5">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -16591,7 +16786,7 @@
       <c r="AJ332" s="4"/>
       <c r="AK332" s="4"/>
     </row>
-    <row r="333" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:37" ht="12.5">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -16630,7 +16825,7 @@
       <c r="AJ333" s="4"/>
       <c r="AK333" s="4"/>
     </row>
-    <row r="334" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:37" ht="12.5">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -16669,7 +16864,7 @@
       <c r="AJ334" s="4"/>
       <c r="AK334" s="4"/>
     </row>
-    <row r="335" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:37" ht="12.5">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -16708,7 +16903,7 @@
       <c r="AJ335" s="4"/>
       <c r="AK335" s="4"/>
     </row>
-    <row r="336" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:37" ht="12.5">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -16747,7 +16942,7 @@
       <c r="AJ336" s="4"/>
       <c r="AK336" s="4"/>
     </row>
-    <row r="337" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:37" ht="12.5">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -16786,7 +16981,7 @@
       <c r="AJ337" s="4"/>
       <c r="AK337" s="4"/>
     </row>
-    <row r="338" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:37" ht="12.5">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -16825,7 +17020,7 @@
       <c r="AJ338" s="4"/>
       <c r="AK338" s="4"/>
     </row>
-    <row r="339" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:37" ht="12.5">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -16864,7 +17059,7 @@
       <c r="AJ339" s="4"/>
       <c r="AK339" s="4"/>
     </row>
-    <row r="340" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:37" ht="12.5">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -16903,7 +17098,7 @@
       <c r="AJ340" s="4"/>
       <c r="AK340" s="4"/>
     </row>
-    <row r="341" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:37" ht="12.5">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -16942,7 +17137,7 @@
       <c r="AJ341" s="4"/>
       <c r="AK341" s="4"/>
     </row>
-    <row r="342" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:37" ht="12.5">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -16981,7 +17176,7 @@
       <c r="AJ342" s="4"/>
       <c r="AK342" s="4"/>
     </row>
-    <row r="343" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:37" ht="12.5">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -17020,7 +17215,7 @@
       <c r="AJ343" s="4"/>
       <c r="AK343" s="4"/>
     </row>
-    <row r="344" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:37" ht="12.5">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -17059,7 +17254,7 @@
       <c r="AJ344" s="4"/>
       <c r="AK344" s="4"/>
     </row>
-    <row r="345" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:37" ht="12.5">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -17098,7 +17293,7 @@
       <c r="AJ345" s="4"/>
       <c r="AK345" s="4"/>
     </row>
-    <row r="346" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:37" ht="12.5">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -17137,7 +17332,7 @@
       <c r="AJ346" s="4"/>
       <c r="AK346" s="4"/>
     </row>
-    <row r="347" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:37" ht="12.5">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -17176,7 +17371,7 @@
       <c r="AJ347" s="4"/>
       <c r="AK347" s="4"/>
     </row>
-    <row r="348" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:37" ht="12.5">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -17215,7 +17410,7 @@
       <c r="AJ348" s="4"/>
       <c r="AK348" s="4"/>
     </row>
-    <row r="349" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:37" ht="12.5">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -17254,7 +17449,7 @@
       <c r="AJ349" s="4"/>
       <c r="AK349" s="4"/>
     </row>
-    <row r="350" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:37" ht="12.5">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -17293,7 +17488,7 @@
       <c r="AJ350" s="4"/>
       <c r="AK350" s="4"/>
     </row>
-    <row r="351" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:37" ht="12.5">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -17332,7 +17527,7 @@
       <c r="AJ351" s="4"/>
       <c r="AK351" s="4"/>
     </row>
-    <row r="352" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:37" ht="12.5">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -17371,7 +17566,7 @@
       <c r="AJ352" s="4"/>
       <c r="AK352" s="4"/>
     </row>
-    <row r="353" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:37" ht="12.5">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -17410,7 +17605,7 @@
       <c r="AJ353" s="4"/>
       <c r="AK353" s="4"/>
     </row>
-    <row r="354" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:37" ht="12.5">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -17449,7 +17644,7 @@
       <c r="AJ354" s="4"/>
       <c r="AK354" s="4"/>
     </row>
-    <row r="355" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:37" ht="12.5">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -17488,7 +17683,7 @@
       <c r="AJ355" s="4"/>
       <c r="AK355" s="4"/>
     </row>
-    <row r="356" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:37" ht="12.5">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -17527,7 +17722,7 @@
       <c r="AJ356" s="4"/>
       <c r="AK356" s="4"/>
     </row>
-    <row r="357" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:37" ht="12.5">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -17566,7 +17761,7 @@
       <c r="AJ357" s="4"/>
       <c r="AK357" s="4"/>
     </row>
-    <row r="358" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:37" ht="12.5">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -17605,7 +17800,7 @@
       <c r="AJ358" s="4"/>
       <c r="AK358" s="4"/>
     </row>
-    <row r="359" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:37" ht="12.5">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -17644,7 +17839,7 @@
       <c r="AJ359" s="4"/>
       <c r="AK359" s="4"/>
     </row>
-    <row r="360" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:37" ht="12.5">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -17683,7 +17878,7 @@
       <c r="AJ360" s="4"/>
       <c r="AK360" s="4"/>
     </row>
-    <row r="361" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:37" ht="12.5">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -17722,7 +17917,7 @@
       <c r="AJ361" s="4"/>
       <c r="AK361" s="4"/>
     </row>
-    <row r="362" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:37" ht="12.5">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -17761,7 +17956,7 @@
       <c r="AJ362" s="4"/>
       <c r="AK362" s="4"/>
     </row>
-    <row r="363" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:37" ht="12.5">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -17800,7 +17995,7 @@
       <c r="AJ363" s="4"/>
       <c r="AK363" s="4"/>
     </row>
-    <row r="364" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:37" ht="12.5">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -17839,7 +18034,7 @@
       <c r="AJ364" s="4"/>
       <c r="AK364" s="4"/>
     </row>
-    <row r="365" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:37" ht="12.5">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -17878,7 +18073,7 @@
       <c r="AJ365" s="4"/>
       <c r="AK365" s="4"/>
     </row>
-    <row r="366" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:37" ht="12.5">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -17917,7 +18112,7 @@
       <c r="AJ366" s="4"/>
       <c r="AK366" s="4"/>
     </row>
-    <row r="367" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:37" ht="12.5">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -17956,7 +18151,7 @@
       <c r="AJ367" s="4"/>
       <c r="AK367" s="4"/>
     </row>
-    <row r="368" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:37" ht="12.5">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -17995,7 +18190,7 @@
       <c r="AJ368" s="4"/>
       <c r="AK368" s="4"/>
     </row>
-    <row r="369" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:37" ht="12.5">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -18034,7 +18229,7 @@
       <c r="AJ369" s="4"/>
       <c r="AK369" s="4"/>
     </row>
-    <row r="370" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:37" ht="12.5">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -18073,7 +18268,7 @@
       <c r="AJ370" s="4"/>
       <c r="AK370" s="4"/>
     </row>
-    <row r="371" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:37" ht="12.5">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -18112,7 +18307,7 @@
       <c r="AJ371" s="4"/>
       <c r="AK371" s="4"/>
     </row>
-    <row r="372" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:37" ht="12.5">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -18151,7 +18346,7 @@
       <c r="AJ372" s="4"/>
       <c r="AK372" s="4"/>
     </row>
-    <row r="373" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:37" ht="12.5">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -18190,7 +18385,7 @@
       <c r="AJ373" s="4"/>
       <c r="AK373" s="4"/>
     </row>
-    <row r="374" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:37" ht="12.5">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -18229,7 +18424,7 @@
       <c r="AJ374" s="4"/>
       <c r="AK374" s="4"/>
     </row>
-    <row r="375" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:37" ht="12.5">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -18268,7 +18463,7 @@
       <c r="AJ375" s="4"/>
       <c r="AK375" s="4"/>
     </row>
-    <row r="376" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:37" ht="12.5">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -18307,7 +18502,7 @@
       <c r="AJ376" s="4"/>
       <c r="AK376" s="4"/>
     </row>
-    <row r="377" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:37" ht="12.5">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -18346,7 +18541,7 @@
       <c r="AJ377" s="4"/>
       <c r="AK377" s="4"/>
     </row>
-    <row r="378" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:37" ht="12.5">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -18385,7 +18580,7 @@
       <c r="AJ378" s="4"/>
       <c r="AK378" s="4"/>
     </row>
-    <row r="379" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:37" ht="12.5">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -18424,7 +18619,7 @@
       <c r="AJ379" s="4"/>
       <c r="AK379" s="4"/>
     </row>
-    <row r="380" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:37" ht="12.5">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -18463,7 +18658,7 @@
       <c r="AJ380" s="4"/>
       <c r="AK380" s="4"/>
     </row>
-    <row r="381" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:37" ht="12.5">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -18502,7 +18697,7 @@
       <c r="AJ381" s="4"/>
       <c r="AK381" s="4"/>
     </row>
-    <row r="382" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:37" ht="12.5">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -18541,7 +18736,7 @@
       <c r="AJ382" s="4"/>
       <c r="AK382" s="4"/>
     </row>
-    <row r="383" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:37" ht="12.5">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -18580,7 +18775,7 @@
       <c r="AJ383" s="4"/>
       <c r="AK383" s="4"/>
     </row>
-    <row r="384" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:37" ht="12.5">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -18619,7 +18814,7 @@
       <c r="AJ384" s="4"/>
       <c r="AK384" s="4"/>
     </row>
-    <row r="385" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:37" ht="12.5">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -18658,7 +18853,7 @@
       <c r="AJ385" s="4"/>
       <c r="AK385" s="4"/>
     </row>
-    <row r="386" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:37" ht="12.5">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -18697,7 +18892,7 @@
       <c r="AJ386" s="4"/>
       <c r="AK386" s="4"/>
     </row>
-    <row r="387" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:37" ht="12.5">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -18736,7 +18931,7 @@
       <c r="AJ387" s="4"/>
       <c r="AK387" s="4"/>
     </row>
-    <row r="388" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:37" ht="12.5">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -18775,7 +18970,7 @@
       <c r="AJ388" s="4"/>
       <c r="AK388" s="4"/>
     </row>
-    <row r="389" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:37" ht="12.5">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -18814,7 +19009,7 @@
       <c r="AJ389" s="4"/>
       <c r="AK389" s="4"/>
     </row>
-    <row r="390" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:37" ht="12.5">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -18853,7 +19048,7 @@
       <c r="AJ390" s="4"/>
       <c r="AK390" s="4"/>
     </row>
-    <row r="391" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:37" ht="12.5">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -18892,7 +19087,7 @@
       <c r="AJ391" s="4"/>
       <c r="AK391" s="4"/>
     </row>
-    <row r="392" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:37" ht="12.5">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -18931,7 +19126,7 @@
       <c r="AJ392" s="4"/>
       <c r="AK392" s="4"/>
     </row>
-    <row r="393" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:37" ht="12.5">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -18970,7 +19165,7 @@
       <c r="AJ393" s="4"/>
       <c r="AK393" s="4"/>
     </row>
-    <row r="394" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:37" ht="12.5">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -19009,7 +19204,7 @@
       <c r="AJ394" s="4"/>
       <c r="AK394" s="4"/>
     </row>
-    <row r="395" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:37" ht="12.5">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -19048,7 +19243,7 @@
       <c r="AJ395" s="4"/>
       <c r="AK395" s="4"/>
     </row>
-    <row r="396" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:37" ht="12.5">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -19087,7 +19282,7 @@
       <c r="AJ396" s="4"/>
       <c r="AK396" s="4"/>
     </row>
-    <row r="397" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:37" ht="12.5">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -19126,7 +19321,7 @@
       <c r="AJ397" s="4"/>
       <c r="AK397" s="4"/>
     </row>
-    <row r="398" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:37" ht="12.5">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -19165,7 +19360,7 @@
       <c r="AJ398" s="4"/>
       <c r="AK398" s="4"/>
     </row>
-    <row r="399" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:37" ht="12.5">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -19204,7 +19399,7 @@
       <c r="AJ399" s="4"/>
       <c r="AK399" s="4"/>
     </row>
-    <row r="400" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:37" ht="12.5">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -19243,7 +19438,7 @@
       <c r="AJ400" s="4"/>
       <c r="AK400" s="4"/>
     </row>
-    <row r="401" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:37" ht="12.5">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -19282,7 +19477,7 @@
       <c r="AJ401" s="4"/>
       <c r="AK401" s="4"/>
     </row>
-    <row r="402" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:37" ht="12.5">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -19321,7 +19516,7 @@
       <c r="AJ402" s="4"/>
       <c r="AK402" s="4"/>
     </row>
-    <row r="403" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:37" ht="12.5">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -19360,7 +19555,7 @@
       <c r="AJ403" s="4"/>
       <c r="AK403" s="4"/>
     </row>
-    <row r="404" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:37" ht="12.5">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -19399,7 +19594,7 @@
       <c r="AJ404" s="4"/>
       <c r="AK404" s="4"/>
     </row>
-    <row r="405" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:37" ht="12.5">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -19438,7 +19633,7 @@
       <c r="AJ405" s="4"/>
       <c r="AK405" s="4"/>
     </row>
-    <row r="406" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:37" ht="12.5">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -19477,7 +19672,7 @@
       <c r="AJ406" s="4"/>
       <c r="AK406" s="4"/>
     </row>
-    <row r="407" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:37" ht="12.5">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -19516,7 +19711,7 @@
       <c r="AJ407" s="4"/>
       <c r="AK407" s="4"/>
     </row>
-    <row r="408" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:37" ht="12.5">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -19555,7 +19750,7 @@
       <c r="AJ408" s="4"/>
       <c r="AK408" s="4"/>
     </row>
-    <row r="409" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:37" ht="12.5">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -19594,7 +19789,7 @@
       <c r="AJ409" s="4"/>
       <c r="AK409" s="4"/>
     </row>
-    <row r="410" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:37" ht="12.5">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -19633,7 +19828,7 @@
       <c r="AJ410" s="4"/>
       <c r="AK410" s="4"/>
     </row>
-    <row r="411" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:37" ht="12.5">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -19672,7 +19867,7 @@
       <c r="AJ411" s="4"/>
       <c r="AK411" s="4"/>
     </row>
-    <row r="412" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:37" ht="12.5">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -19711,7 +19906,7 @@
       <c r="AJ412" s="4"/>
       <c r="AK412" s="4"/>
     </row>
-    <row r="413" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:37" ht="12.5">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -19750,7 +19945,7 @@
       <c r="AJ413" s="4"/>
       <c r="AK413" s="4"/>
     </row>
-    <row r="414" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:37" ht="12.5">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -19789,7 +19984,7 @@
       <c r="AJ414" s="4"/>
       <c r="AK414" s="4"/>
     </row>
-    <row r="415" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:37" ht="12.5">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -19828,7 +20023,7 @@
       <c r="AJ415" s="4"/>
       <c r="AK415" s="4"/>
     </row>
-    <row r="416" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:37" ht="12.5">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -19867,7 +20062,7 @@
       <c r="AJ416" s="4"/>
       <c r="AK416" s="4"/>
     </row>
-    <row r="417" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:37" ht="12.5">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -19906,7 +20101,7 @@
       <c r="AJ417" s="4"/>
       <c r="AK417" s="4"/>
     </row>
-    <row r="418" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:37" ht="12.5">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -19945,7 +20140,7 @@
       <c r="AJ418" s="4"/>
       <c r="AK418" s="4"/>
     </row>
-    <row r="419" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:37" ht="12.5">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -19984,7 +20179,7 @@
       <c r="AJ419" s="4"/>
       <c r="AK419" s="4"/>
     </row>
-    <row r="420" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:37" ht="12.5">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -20023,7 +20218,7 @@
       <c r="AJ420" s="4"/>
       <c r="AK420" s="4"/>
     </row>
-    <row r="421" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:37" ht="12.5">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -20062,7 +20257,7 @@
       <c r="AJ421" s="4"/>
       <c r="AK421" s="4"/>
     </row>
-    <row r="422" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:37" ht="12.5">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -20101,7 +20296,7 @@
       <c r="AJ422" s="4"/>
       <c r="AK422" s="4"/>
     </row>
-    <row r="423" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:37" ht="12.5">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -20140,7 +20335,7 @@
       <c r="AJ423" s="4"/>
       <c r="AK423" s="4"/>
     </row>
-    <row r="424" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:37" ht="12.5">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -20179,7 +20374,7 @@
       <c r="AJ424" s="4"/>
       <c r="AK424" s="4"/>
     </row>
-    <row r="425" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:37" ht="12.5">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -20218,7 +20413,7 @@
       <c r="AJ425" s="4"/>
       <c r="AK425" s="4"/>
     </row>
-    <row r="426" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:37" ht="12.5">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -20257,7 +20452,7 @@
       <c r="AJ426" s="4"/>
       <c r="AK426" s="4"/>
     </row>
-    <row r="427" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:37" ht="12.5">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -20296,7 +20491,7 @@
       <c r="AJ427" s="4"/>
       <c r="AK427" s="4"/>
     </row>
-    <row r="428" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:37" ht="12.5">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -20335,7 +20530,7 @@
       <c r="AJ428" s="4"/>
       <c r="AK428" s="4"/>
     </row>
-    <row r="429" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:37" ht="12.5">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -20374,7 +20569,7 @@
       <c r="AJ429" s="4"/>
       <c r="AK429" s="4"/>
     </row>
-    <row r="430" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:37" ht="12.5">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -20413,7 +20608,7 @@
       <c r="AJ430" s="4"/>
       <c r="AK430" s="4"/>
     </row>
-    <row r="431" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:37" ht="12.5">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -20452,7 +20647,7 @@
       <c r="AJ431" s="4"/>
       <c r="AK431" s="4"/>
     </row>
-    <row r="432" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:37" ht="12.5">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -20491,7 +20686,7 @@
       <c r="AJ432" s="4"/>
       <c r="AK432" s="4"/>
     </row>
-    <row r="433" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:37" ht="12.5">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -20530,7 +20725,7 @@
       <c r="AJ433" s="4"/>
       <c r="AK433" s="4"/>
     </row>
-    <row r="434" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:37" ht="12.5">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -20569,7 +20764,7 @@
       <c r="AJ434" s="4"/>
       <c r="AK434" s="4"/>
     </row>
-    <row r="435" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:37" ht="12.5">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -20608,7 +20803,7 @@
       <c r="AJ435" s="4"/>
       <c r="AK435" s="4"/>
     </row>
-    <row r="436" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:37" ht="12.5">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -20647,7 +20842,7 @@
       <c r="AJ436" s="4"/>
       <c r="AK436" s="4"/>
     </row>
-    <row r="437" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:37" ht="12.5">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -20686,7 +20881,7 @@
       <c r="AJ437" s="4"/>
       <c r="AK437" s="4"/>
     </row>
-    <row r="438" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:37" ht="12.5">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -20725,7 +20920,7 @@
       <c r="AJ438" s="4"/>
       <c r="AK438" s="4"/>
     </row>
-    <row r="439" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:37" ht="12.5">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -20764,7 +20959,7 @@
       <c r="AJ439" s="4"/>
       <c r="AK439" s="4"/>
     </row>
-    <row r="440" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:37" ht="12.5">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -20803,7 +20998,7 @@
       <c r="AJ440" s="4"/>
       <c r="AK440" s="4"/>
     </row>
-    <row r="441" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:37" ht="12.5">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -20842,7 +21037,7 @@
       <c r="AJ441" s="4"/>
       <c r="AK441" s="4"/>
     </row>
-    <row r="442" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:37" ht="12.5">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -20881,7 +21076,7 @@
       <c r="AJ442" s="4"/>
       <c r="AK442" s="4"/>
     </row>
-    <row r="443" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:37" ht="12.5">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -20920,7 +21115,7 @@
       <c r="AJ443" s="4"/>
       <c r="AK443" s="4"/>
     </row>
-    <row r="444" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:37" ht="12.5">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -20959,7 +21154,7 @@
       <c r="AJ444" s="4"/>
       <c r="AK444" s="4"/>
     </row>
-    <row r="445" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:37" ht="12.5">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -20998,7 +21193,7 @@
       <c r="AJ445" s="4"/>
       <c r="AK445" s="4"/>
     </row>
-    <row r="446" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:37" ht="12.5">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -21037,7 +21232,7 @@
       <c r="AJ446" s="4"/>
       <c r="AK446" s="4"/>
     </row>
-    <row r="447" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:37" ht="12.5">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -21076,7 +21271,7 @@
       <c r="AJ447" s="4"/>
       <c r="AK447" s="4"/>
     </row>
-    <row r="448" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:37" ht="12.5">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -21115,7 +21310,7 @@
       <c r="AJ448" s="4"/>
       <c r="AK448" s="4"/>
     </row>
-    <row r="449" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:37" ht="12.5">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -21154,7 +21349,7 @@
       <c r="AJ449" s="4"/>
       <c r="AK449" s="4"/>
     </row>
-    <row r="450" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:37" ht="12.5">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -21193,7 +21388,7 @@
       <c r="AJ450" s="4"/>
       <c r="AK450" s="4"/>
     </row>
-    <row r="451" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:37" ht="12.5">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -21232,7 +21427,7 @@
       <c r="AJ451" s="4"/>
       <c r="AK451" s="4"/>
     </row>
-    <row r="452" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:37" ht="12.5">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -21271,7 +21466,7 @@
       <c r="AJ452" s="4"/>
       <c r="AK452" s="4"/>
     </row>
-    <row r="453" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:37" ht="12.5">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -21310,7 +21505,7 @@
       <c r="AJ453" s="4"/>
       <c r="AK453" s="4"/>
     </row>
-    <row r="454" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:37" ht="12.5">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -21349,7 +21544,7 @@
       <c r="AJ454" s="4"/>
       <c r="AK454" s="4"/>
     </row>
-    <row r="455" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:37" ht="12.5">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -21388,7 +21583,7 @@
       <c r="AJ455" s="4"/>
       <c r="AK455" s="4"/>
     </row>
-    <row r="456" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:37" ht="12.5">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -21427,7 +21622,7 @@
       <c r="AJ456" s="4"/>
       <c r="AK456" s="4"/>
     </row>
-    <row r="457" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:37" ht="12.5">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -21466,7 +21661,7 @@
       <c r="AJ457" s="4"/>
       <c r="AK457" s="4"/>
     </row>
-    <row r="458" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:37" ht="12.5">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -21505,7 +21700,7 @@
       <c r="AJ458" s="4"/>
       <c r="AK458" s="4"/>
     </row>
-    <row r="459" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:37" ht="12.5">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -21544,7 +21739,7 @@
       <c r="AJ459" s="4"/>
       <c r="AK459" s="4"/>
     </row>
-    <row r="460" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:37" ht="12.5">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -21583,7 +21778,7 @@
       <c r="AJ460" s="4"/>
       <c r="AK460" s="4"/>
     </row>
-    <row r="461" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:37" ht="12.5">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -21622,7 +21817,7 @@
       <c r="AJ461" s="4"/>
       <c r="AK461" s="4"/>
     </row>
-    <row r="462" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:37" ht="12.5">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -21661,7 +21856,7 @@
       <c r="AJ462" s="4"/>
       <c r="AK462" s="4"/>
     </row>
-    <row r="463" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:37" ht="12.5">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -21700,7 +21895,7 @@
       <c r="AJ463" s="4"/>
       <c r="AK463" s="4"/>
     </row>
-    <row r="464" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:37" ht="12.5">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -21739,7 +21934,7 @@
       <c r="AJ464" s="4"/>
       <c r="AK464" s="4"/>
     </row>
-    <row r="465" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:37" ht="12.5">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -21778,7 +21973,7 @@
       <c r="AJ465" s="4"/>
       <c r="AK465" s="4"/>
     </row>
-    <row r="466" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:37" ht="12.5">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -21817,7 +22012,7 @@
       <c r="AJ466" s="4"/>
       <c r="AK466" s="4"/>
     </row>
-    <row r="467" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:37" ht="12.5">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -21856,7 +22051,7 @@
       <c r="AJ467" s="4"/>
       <c r="AK467" s="4"/>
     </row>
-    <row r="468" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:37" ht="12.5">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -21895,7 +22090,7 @@
       <c r="AJ468" s="4"/>
       <c r="AK468" s="4"/>
     </row>
-    <row r="469" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:37" ht="12.5">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -21934,7 +22129,7 @@
       <c r="AJ469" s="4"/>
       <c r="AK469" s="4"/>
     </row>
-    <row r="470" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:37" ht="12.5">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -21973,7 +22168,7 @@
       <c r="AJ470" s="4"/>
       <c r="AK470" s="4"/>
     </row>
-    <row r="471" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:37" ht="12.5">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -22012,7 +22207,7 @@
       <c r="AJ471" s="4"/>
       <c r="AK471" s="4"/>
     </row>
-    <row r="472" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:37" ht="12.5">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -22051,7 +22246,7 @@
       <c r="AJ472" s="4"/>
       <c r="AK472" s="4"/>
     </row>
-    <row r="473" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:37" ht="12.5">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -22090,7 +22285,7 @@
       <c r="AJ473" s="4"/>
       <c r="AK473" s="4"/>
     </row>
-    <row r="474" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:37" ht="12.5">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -22129,7 +22324,7 @@
       <c r="AJ474" s="4"/>
       <c r="AK474" s="4"/>
     </row>
-    <row r="475" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:37" ht="12.5">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -22168,7 +22363,7 @@
       <c r="AJ475" s="4"/>
       <c r="AK475" s="4"/>
     </row>
-    <row r="476" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:37" ht="12.5">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -22207,7 +22402,7 @@
       <c r="AJ476" s="4"/>
       <c r="AK476" s="4"/>
     </row>
-    <row r="477" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:37" ht="12.5">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -22246,7 +22441,7 @@
       <c r="AJ477" s="4"/>
       <c r="AK477" s="4"/>
     </row>
-    <row r="478" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:37" ht="12.5">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -22285,7 +22480,7 @@
       <c r="AJ478" s="4"/>
       <c r="AK478" s="4"/>
     </row>
-    <row r="479" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:37" ht="12.5">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -22324,7 +22519,7 @@
       <c r="AJ479" s="4"/>
       <c r="AK479" s="4"/>
     </row>
-    <row r="480" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:37" ht="12.5">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -22363,7 +22558,7 @@
       <c r="AJ480" s="4"/>
       <c r="AK480" s="4"/>
     </row>
-    <row r="481" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:37" ht="12.5">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -22402,7 +22597,7 @@
       <c r="AJ481" s="4"/>
       <c r="AK481" s="4"/>
     </row>
-    <row r="482" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:37" ht="12.5">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -22441,7 +22636,7 @@
       <c r="AJ482" s="4"/>
       <c r="AK482" s="4"/>
     </row>
-    <row r="483" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:37" ht="12.5">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -22480,7 +22675,7 @@
       <c r="AJ483" s="4"/>
       <c r="AK483" s="4"/>
     </row>
-    <row r="484" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:37" ht="12.5">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -22519,7 +22714,7 @@
       <c r="AJ484" s="4"/>
       <c r="AK484" s="4"/>
     </row>
-    <row r="485" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:37" ht="12.5">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -22558,7 +22753,7 @@
       <c r="AJ485" s="4"/>
       <c r="AK485" s="4"/>
     </row>
-    <row r="486" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:37" ht="12.5">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -22597,7 +22792,7 @@
       <c r="AJ486" s="4"/>
       <c r="AK486" s="4"/>
     </row>
-    <row r="487" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:37" ht="12.5">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -22636,7 +22831,7 @@
       <c r="AJ487" s="4"/>
       <c r="AK487" s="4"/>
     </row>
-    <row r="488" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:37" ht="12.5">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -22675,7 +22870,7 @@
       <c r="AJ488" s="4"/>
       <c r="AK488" s="4"/>
     </row>
-    <row r="489" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:37" ht="12.5">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -22714,7 +22909,7 @@
       <c r="AJ489" s="4"/>
       <c r="AK489" s="4"/>
     </row>
-    <row r="490" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:37" ht="12.5">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -22753,7 +22948,7 @@
       <c r="AJ490" s="4"/>
       <c r="AK490" s="4"/>
     </row>
-    <row r="491" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:37" ht="12.5">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -22792,7 +22987,7 @@
       <c r="AJ491" s="4"/>
       <c r="AK491" s="4"/>
     </row>
-    <row r="492" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:37" ht="12.5">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -22831,7 +23026,7 @@
       <c r="AJ492" s="4"/>
       <c r="AK492" s="4"/>
     </row>
-    <row r="493" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:37" ht="12.5">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -22870,7 +23065,7 @@
       <c r="AJ493" s="4"/>
       <c r="AK493" s="4"/>
     </row>
-    <row r="494" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:37" ht="12.5">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -22909,7 +23104,7 @@
       <c r="AJ494" s="4"/>
       <c r="AK494" s="4"/>
     </row>
-    <row r="495" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:37" ht="12.5">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -22948,7 +23143,7 @@
       <c r="AJ495" s="4"/>
       <c r="AK495" s="4"/>
     </row>
-    <row r="496" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:37" ht="12.5">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -22987,7 +23182,7 @@
       <c r="AJ496" s="4"/>
       <c r="AK496" s="4"/>
     </row>
-    <row r="497" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:37" ht="12.5">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -23026,7 +23221,7 @@
       <c r="AJ497" s="4"/>
       <c r="AK497" s="4"/>
     </row>
-    <row r="498" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:37" ht="12.5">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -23065,7 +23260,7 @@
       <c r="AJ498" s="4"/>
       <c r="AK498" s="4"/>
     </row>
-    <row r="499" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:37" ht="12.5">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -23104,7 +23299,7 @@
       <c r="AJ499" s="4"/>
       <c r="AK499" s="4"/>
     </row>
-    <row r="500" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:37" ht="12.5">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -23143,7 +23338,7 @@
       <c r="AJ500" s="4"/>
       <c r="AK500" s="4"/>
     </row>
-    <row r="501" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:37" ht="12.5">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -23182,7 +23377,7 @@
       <c r="AJ501" s="4"/>
       <c r="AK501" s="4"/>
     </row>
-    <row r="502" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:37" ht="12.5">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -23221,7 +23416,7 @@
       <c r="AJ502" s="4"/>
       <c r="AK502" s="4"/>
     </row>
-    <row r="503" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:37" ht="12.5">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -23260,7 +23455,7 @@
       <c r="AJ503" s="4"/>
       <c r="AK503" s="4"/>
     </row>
-    <row r="504" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:37" ht="12.5">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -23299,7 +23494,7 @@
       <c r="AJ504" s="4"/>
       <c r="AK504" s="4"/>
     </row>
-    <row r="505" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:37" ht="12.5">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -23338,7 +23533,7 @@
       <c r="AJ505" s="4"/>
       <c r="AK505" s="4"/>
     </row>
-    <row r="506" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:37" ht="12.5">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -23377,7 +23572,7 @@
       <c r="AJ506" s="4"/>
       <c r="AK506" s="4"/>
     </row>
-    <row r="507" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:37" ht="12.5">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -23416,7 +23611,7 @@
       <c r="AJ507" s="4"/>
       <c r="AK507" s="4"/>
     </row>
-    <row r="508" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:37" ht="12.5">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -23455,7 +23650,7 @@
       <c r="AJ508" s="4"/>
       <c r="AK508" s="4"/>
     </row>
-    <row r="509" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:37" ht="12.5">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -23494,7 +23689,7 @@
       <c r="AJ509" s="4"/>
       <c r="AK509" s="4"/>
     </row>
-    <row r="510" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:37" ht="12.5">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -23533,7 +23728,7 @@
       <c r="AJ510" s="4"/>
       <c r="AK510" s="4"/>
     </row>
-    <row r="511" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:37" ht="12.5">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -23572,7 +23767,7 @@
       <c r="AJ511" s="4"/>
       <c r="AK511" s="4"/>
     </row>
-    <row r="512" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:37" ht="12.5">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -23611,7 +23806,7 @@
       <c r="AJ512" s="4"/>
       <c r="AK512" s="4"/>
     </row>
-    <row r="513" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:37" ht="12.5">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -23650,7 +23845,7 @@
       <c r="AJ513" s="4"/>
       <c r="AK513" s="4"/>
     </row>
-    <row r="514" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:37" ht="12.5">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -23689,7 +23884,7 @@
       <c r="AJ514" s="4"/>
       <c r="AK514" s="4"/>
     </row>
-    <row r="515" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:37" ht="12.5">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -23728,7 +23923,7 @@
       <c r="AJ515" s="4"/>
       <c r="AK515" s="4"/>
     </row>
-    <row r="516" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:37" ht="12.5">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -23767,7 +23962,7 @@
       <c r="AJ516" s="4"/>
       <c r="AK516" s="4"/>
     </row>
-    <row r="517" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:37" ht="12.5">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -23806,7 +24001,7 @@
       <c r="AJ517" s="4"/>
       <c r="AK517" s="4"/>
     </row>
-    <row r="518" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:37" ht="12.5">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -23845,7 +24040,7 @@
       <c r="AJ518" s="4"/>
       <c r="AK518" s="4"/>
     </row>
-    <row r="519" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:37" ht="12.5">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -23884,7 +24079,7 @@
       <c r="AJ519" s="4"/>
       <c r="AK519" s="4"/>
     </row>
-    <row r="520" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:37" ht="12.5">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -23923,7 +24118,7 @@
       <c r="AJ520" s="4"/>
       <c r="AK520" s="4"/>
     </row>
-    <row r="521" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:37" ht="12.5">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -23962,7 +24157,7 @@
       <c r="AJ521" s="4"/>
       <c r="AK521" s="4"/>
     </row>
-    <row r="522" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:37" ht="12.5">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -24001,7 +24196,7 @@
       <c r="AJ522" s="4"/>
       <c r="AK522" s="4"/>
     </row>
-    <row r="523" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:37" ht="12.5">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -24040,7 +24235,7 @@
       <c r="AJ523" s="4"/>
       <c r="AK523" s="4"/>
     </row>
-    <row r="524" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:37" ht="12.5">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -24079,7 +24274,7 @@
       <c r="AJ524" s="4"/>
       <c r="AK524" s="4"/>
     </row>
-    <row r="525" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:37" ht="12.5">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -24118,7 +24313,7 @@
       <c r="AJ525" s="4"/>
       <c r="AK525" s="4"/>
     </row>
-    <row r="526" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:37" ht="12.5">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -24157,7 +24352,7 @@
       <c r="AJ526" s="4"/>
       <c r="AK526" s="4"/>
     </row>
-    <row r="527" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:37" ht="12.5">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -24196,7 +24391,7 @@
       <c r="AJ527" s="4"/>
       <c r="AK527" s="4"/>
     </row>
-    <row r="528" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:37" ht="12.5">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -24235,7 +24430,7 @@
       <c r="AJ528" s="4"/>
       <c r="AK528" s="4"/>
     </row>
-    <row r="529" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:37" ht="12.5">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -24274,7 +24469,7 @@
       <c r="AJ529" s="4"/>
       <c r="AK529" s="4"/>
     </row>
-    <row r="530" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:37" ht="12.5">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -24313,7 +24508,7 @@
       <c r="AJ530" s="4"/>
       <c r="AK530" s="4"/>
     </row>
-    <row r="531" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:37" ht="12.5">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -24352,7 +24547,7 @@
       <c r="AJ531" s="4"/>
       <c r="AK531" s="4"/>
     </row>
-    <row r="532" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:37" ht="12.5">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -24391,7 +24586,7 @@
       <c r="AJ532" s="4"/>
       <c r="AK532" s="4"/>
     </row>
-    <row r="533" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:37" ht="12.5">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -24430,7 +24625,7 @@
       <c r="AJ533" s="4"/>
       <c r="AK533" s="4"/>
     </row>
-    <row r="534" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:37" ht="12.5">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -24469,7 +24664,7 @@
       <c r="AJ534" s="4"/>
       <c r="AK534" s="4"/>
     </row>
-    <row r="535" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:37" ht="12.5">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -24508,7 +24703,7 @@
       <c r="AJ535" s="4"/>
       <c r="AK535" s="4"/>
     </row>
-    <row r="536" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:37" ht="12.5">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -24547,7 +24742,7 @@
       <c r="AJ536" s="4"/>
       <c r="AK536" s="4"/>
     </row>
-    <row r="537" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:37" ht="12.5">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -24586,7 +24781,7 @@
       <c r="AJ537" s="4"/>
       <c r="AK537" s="4"/>
     </row>
-    <row r="538" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:37" ht="12.5">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -24625,7 +24820,7 @@
       <c r="AJ538" s="4"/>
       <c r="AK538" s="4"/>
     </row>
-    <row r="539" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:37" ht="12.5">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -24664,7 +24859,7 @@
       <c r="AJ539" s="4"/>
       <c r="AK539" s="4"/>
     </row>
-    <row r="540" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:37" ht="12.5">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -24703,7 +24898,7 @@
       <c r="AJ540" s="4"/>
       <c r="AK540" s="4"/>
     </row>
-    <row r="541" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:37" ht="12.5">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -24742,7 +24937,7 @@
       <c r="AJ541" s="4"/>
       <c r="AK541" s="4"/>
     </row>
-    <row r="542" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:37" ht="12.5">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -24781,7 +24976,7 @@
       <c r="AJ542" s="4"/>
       <c r="AK542" s="4"/>
     </row>
-    <row r="543" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:37" ht="12.5">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -24820,7 +25015,7 @@
       <c r="AJ543" s="4"/>
       <c r="AK543" s="4"/>
     </row>
-    <row r="544" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:37" ht="12.5">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -24859,7 +25054,7 @@
       <c r="AJ544" s="4"/>
       <c r="AK544" s="4"/>
     </row>
-    <row r="545" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:37" ht="12.5">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -24898,7 +25093,7 @@
       <c r="AJ545" s="4"/>
       <c r="AK545" s="4"/>
     </row>
-    <row r="546" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:37" ht="12.5">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -24937,7 +25132,7 @@
       <c r="AJ546" s="4"/>
       <c r="AK546" s="4"/>
     </row>
-    <row r="547" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:37" ht="12.5">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -24976,7 +25171,7 @@
       <c r="AJ547" s="4"/>
       <c r="AK547" s="4"/>
     </row>
-    <row r="548" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:37" ht="12.5">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -25015,7 +25210,7 @@
       <c r="AJ548" s="4"/>
       <c r="AK548" s="4"/>
     </row>
-    <row r="549" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:37" ht="12.5">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -25054,7 +25249,7 @@
       <c r="AJ549" s="4"/>
       <c r="AK549" s="4"/>
     </row>
-    <row r="550" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:37" ht="12.5">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -25093,7 +25288,7 @@
       <c r="AJ550" s="4"/>
       <c r="AK550" s="4"/>
     </row>
-    <row r="551" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:37" ht="12.5">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -25132,7 +25327,7 @@
       <c r="AJ551" s="4"/>
       <c r="AK551" s="4"/>
     </row>
-    <row r="552" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:37" ht="12.5">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -25171,7 +25366,7 @@
       <c r="AJ552" s="4"/>
       <c r="AK552" s="4"/>
     </row>
-    <row r="553" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:37" ht="12.5">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -25210,7 +25405,7 @@
       <c r="AJ553" s="4"/>
       <c r="AK553" s="4"/>
     </row>
-    <row r="554" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:37" ht="12.5">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -25249,7 +25444,7 @@
       <c r="AJ554" s="4"/>
       <c r="AK554" s="4"/>
     </row>
-    <row r="555" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:37" ht="12.5">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -25288,7 +25483,7 @@
       <c r="AJ555" s="4"/>
       <c r="AK555" s="4"/>
     </row>
-    <row r="556" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:37" ht="12.5">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -25327,7 +25522,7 @@
       <c r="AJ556" s="4"/>
       <c r="AK556" s="4"/>
     </row>
-    <row r="557" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:37" ht="12.5">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -25366,7 +25561,7 @@
       <c r="AJ557" s="4"/>
       <c r="AK557" s="4"/>
     </row>
-    <row r="558" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:37" ht="12.5">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -25405,7 +25600,7 @@
       <c r="AJ558" s="4"/>
       <c r="AK558" s="4"/>
     </row>
-    <row r="559" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:37" ht="12.5">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -25444,7 +25639,7 @@
       <c r="AJ559" s="4"/>
       <c r="AK559" s="4"/>
     </row>
-    <row r="560" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:37" ht="12.5">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -25483,7 +25678,7 @@
       <c r="AJ560" s="4"/>
       <c r="AK560" s="4"/>
     </row>
-    <row r="561" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:37" ht="12.5">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -25522,7 +25717,7 @@
       <c r="AJ561" s="4"/>
       <c r="AK561" s="4"/>
     </row>
-    <row r="562" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:37" ht="12.5">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -25561,7 +25756,7 @@
       <c r="AJ562" s="4"/>
       <c r="AK562" s="4"/>
     </row>
-    <row r="563" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:37" ht="12.5">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -25600,7 +25795,7 @@
       <c r="AJ563" s="4"/>
       <c r="AK563" s="4"/>
     </row>
-    <row r="564" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:37" ht="12.5">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -25639,7 +25834,7 @@
       <c r="AJ564" s="4"/>
       <c r="AK564" s="4"/>
     </row>
-    <row r="565" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:37" ht="12.5">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -25678,7 +25873,7 @@
       <c r="AJ565" s="4"/>
       <c r="AK565" s="4"/>
     </row>
-    <row r="566" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:37" ht="12.5">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -25717,7 +25912,7 @@
       <c r="AJ566" s="4"/>
       <c r="AK566" s="4"/>
     </row>
-    <row r="567" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:37" ht="12.5">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -25756,7 +25951,7 @@
       <c r="AJ567" s="4"/>
       <c r="AK567" s="4"/>
     </row>
-    <row r="568" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:37" ht="12.5">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -25795,7 +25990,7 @@
       <c r="AJ568" s="4"/>
       <c r="AK568" s="4"/>
     </row>
-    <row r="569" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:37" ht="12.5">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -25834,7 +26029,7 @@
       <c r="AJ569" s="4"/>
       <c r="AK569" s="4"/>
     </row>
-    <row r="570" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:37" ht="12.5">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -25873,7 +26068,7 @@
       <c r="AJ570" s="4"/>
       <c r="AK570" s="4"/>
     </row>
-    <row r="571" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:37" ht="12.5">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -25912,7 +26107,7 @@
       <c r="AJ571" s="4"/>
       <c r="AK571" s="4"/>
     </row>
-    <row r="572" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:37" ht="12.5">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -25951,7 +26146,7 @@
       <c r="AJ572" s="4"/>
       <c r="AK572" s="4"/>
     </row>
-    <row r="573" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:37" ht="12.5">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -25990,7 +26185,7 @@
       <c r="AJ573" s="4"/>
       <c r="AK573" s="4"/>
     </row>
-    <row r="574" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:37" ht="12.5">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -26029,7 +26224,7 @@
       <c r="AJ574" s="4"/>
       <c r="AK574" s="4"/>
     </row>
-    <row r="575" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:37" ht="12.5">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -26068,7 +26263,7 @@
       <c r="AJ575" s="4"/>
       <c r="AK575" s="4"/>
     </row>
-    <row r="576" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:37" ht="12.5">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -26107,7 +26302,7 @@
       <c r="AJ576" s="4"/>
       <c r="AK576" s="4"/>
     </row>
-    <row r="577" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:37" ht="12.5">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -26146,7 +26341,7 @@
       <c r="AJ577" s="4"/>
       <c r="AK577" s="4"/>
     </row>
-    <row r="578" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:37" ht="12.5">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -26185,7 +26380,7 @@
       <c r="AJ578" s="4"/>
       <c r="AK578" s="4"/>
     </row>
-    <row r="579" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:37" ht="12.5">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -26224,7 +26419,7 @@
       <c r="AJ579" s="4"/>
       <c r="AK579" s="4"/>
     </row>
-    <row r="580" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:37" ht="12.5">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -26263,7 +26458,7 @@
       <c r="AJ580" s="4"/>
       <c r="AK580" s="4"/>
     </row>
-    <row r="581" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:37" ht="12.5">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -26302,7 +26497,7 @@
       <c r="AJ581" s="4"/>
       <c r="AK581" s="4"/>
     </row>
-    <row r="582" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:37" ht="12.5">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -26341,7 +26536,7 @@
       <c r="AJ582" s="4"/>
       <c r="AK582" s="4"/>
     </row>
-    <row r="583" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:37" ht="12.5">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -26380,7 +26575,7 @@
       <c r="AJ583" s="4"/>
       <c r="AK583" s="4"/>
     </row>
-    <row r="584" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:37" ht="12.5">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -26419,7 +26614,7 @@
       <c r="AJ584" s="4"/>
       <c r="AK584" s="4"/>
     </row>
-    <row r="585" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:37" ht="12.5">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -26458,7 +26653,7 @@
       <c r="AJ585" s="4"/>
       <c r="AK585" s="4"/>
     </row>
-    <row r="586" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:37" ht="12.5">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -26497,7 +26692,7 @@
       <c r="AJ586" s="4"/>
       <c r="AK586" s="4"/>
     </row>
-    <row r="587" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:37" ht="12.5">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -26536,7 +26731,7 @@
       <c r="AJ587" s="4"/>
       <c r="AK587" s="4"/>
     </row>
-    <row r="588" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:37" ht="12.5">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -26575,7 +26770,7 @@
       <c r="AJ588" s="4"/>
       <c r="AK588" s="4"/>
     </row>
-    <row r="589" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:37" ht="12.5">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -26614,7 +26809,7 @@
       <c r="AJ589" s="4"/>
       <c r="AK589" s="4"/>
     </row>
-    <row r="590" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:37" ht="12.5">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -26653,7 +26848,7 @@
       <c r="AJ590" s="4"/>
       <c r="AK590" s="4"/>
     </row>
-    <row r="591" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:37" ht="12.5">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -26692,7 +26887,7 @@
       <c r="AJ591" s="4"/>
       <c r="AK591" s="4"/>
     </row>
-    <row r="592" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:37" ht="12.5">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -26731,7 +26926,7 @@
       <c r="AJ592" s="4"/>
       <c r="AK592" s="4"/>
     </row>
-    <row r="593" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:37" ht="12.5">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -26770,7 +26965,7 @@
       <c r="AJ593" s="4"/>
       <c r="AK593" s="4"/>
     </row>
-    <row r="594" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:37" ht="12.5">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -26809,7 +27004,7 @@
       <c r="AJ594" s="4"/>
       <c r="AK594" s="4"/>
     </row>
-    <row r="595" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:37" ht="12.5">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -26848,7 +27043,7 @@
       <c r="AJ595" s="4"/>
       <c r="AK595" s="4"/>
     </row>
-    <row r="596" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:37" ht="12.5">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -26887,7 +27082,7 @@
       <c r="AJ596" s="4"/>
       <c r="AK596" s="4"/>
     </row>
-    <row r="597" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:37" ht="12.5">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -26926,7 +27121,7 @@
       <c r="AJ597" s="4"/>
       <c r="AK597" s="4"/>
     </row>
-    <row r="598" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:37" ht="12.5">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -26965,7 +27160,7 @@
       <c r="AJ598" s="4"/>
       <c r="AK598" s="4"/>
     </row>
-    <row r="599" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:37" ht="12.5">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -27004,7 +27199,7 @@
       <c r="AJ599" s="4"/>
       <c r="AK599" s="4"/>
     </row>
-    <row r="600" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:37" ht="12.5">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -27043,7 +27238,7 @@
       <c r="AJ600" s="4"/>
       <c r="AK600" s="4"/>
     </row>
-    <row r="601" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:37" ht="12.5">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -27082,7 +27277,7 @@
       <c r="AJ601" s="4"/>
       <c r="AK601" s="4"/>
     </row>
-    <row r="602" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:37" ht="12.5">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -27121,7 +27316,7 @@
       <c r="AJ602" s="4"/>
       <c r="AK602" s="4"/>
     </row>
-    <row r="603" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:37" ht="12.5">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -27160,7 +27355,7 @@
       <c r="AJ603" s="4"/>
       <c r="AK603" s="4"/>
     </row>
-    <row r="604" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:37" ht="12.5">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -27199,7 +27394,7 @@
       <c r="AJ604" s="4"/>
       <c r="AK604" s="4"/>
     </row>
-    <row r="605" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:37" ht="12.5">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -27238,7 +27433,7 @@
       <c r="AJ605" s="4"/>
       <c r="AK605" s="4"/>
     </row>
-    <row r="606" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:37" ht="12.5">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -27277,7 +27472,7 @@
       <c r="AJ606" s="4"/>
       <c r="AK606" s="4"/>
     </row>
-    <row r="607" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:37" ht="12.5">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -27316,7 +27511,7 @@
       <c r="AJ607" s="4"/>
       <c r="AK607" s="4"/>
     </row>
-    <row r="608" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:37" ht="12.5">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -27355,7 +27550,7 @@
       <c r="AJ608" s="4"/>
       <c r="AK608" s="4"/>
     </row>
-    <row r="609" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:37" ht="12.5">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -27394,7 +27589,7 @@
       <c r="AJ609" s="4"/>
       <c r="AK609" s="4"/>
     </row>
-    <row r="610" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:37" ht="12.5">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -27433,7 +27628,7 @@
       <c r="AJ610" s="4"/>
       <c r="AK610" s="4"/>
     </row>
-    <row r="611" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:37" ht="12.5">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -27472,7 +27667,7 @@
       <c r="AJ611" s="4"/>
       <c r="AK611" s="4"/>
     </row>
-    <row r="612" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:37" ht="12.5">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -27511,7 +27706,7 @@
       <c r="AJ612" s="4"/>
       <c r="AK612" s="4"/>
     </row>
-    <row r="613" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:37" ht="12.5">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -27550,7 +27745,7 @@
       <c r="AJ613" s="4"/>
       <c r="AK613" s="4"/>
     </row>
-    <row r="614" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:37" ht="12.5">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -27589,7 +27784,7 @@
       <c r="AJ614" s="4"/>
       <c r="AK614" s="4"/>
     </row>
-    <row r="615" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:37" ht="12.5">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -27628,7 +27823,7 @@
       <c r="AJ615" s="4"/>
       <c r="AK615" s="4"/>
     </row>
-    <row r="616" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:37" ht="12.5">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -27667,7 +27862,7 @@
       <c r="AJ616" s="4"/>
       <c r="AK616" s="4"/>
     </row>
-    <row r="617" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:37" ht="12.5">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -27706,7 +27901,7 @@
       <c r="AJ617" s="4"/>
       <c r="AK617" s="4"/>
     </row>
-    <row r="618" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:37" ht="12.5">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -27745,7 +27940,7 @@
       <c r="AJ618" s="4"/>
       <c r="AK618" s="4"/>
     </row>
-    <row r="619" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:37" ht="12.5">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -27784,7 +27979,7 @@
       <c r="AJ619" s="4"/>
       <c r="AK619" s="4"/>
     </row>
-    <row r="620" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:37" ht="12.5">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -27823,7 +28018,7 @@
       <c r="AJ620" s="4"/>
       <c r="AK620" s="4"/>
     </row>
-    <row r="621" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:37" ht="12.5">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -27862,7 +28057,7 @@
       <c r="AJ621" s="4"/>
       <c r="AK621" s="4"/>
     </row>
-    <row r="622" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:37" ht="12.5">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -27901,7 +28096,7 @@
       <c r="AJ622" s="4"/>
       <c r="AK622" s="4"/>
     </row>
-    <row r="623" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:37" ht="12.5">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -27940,7 +28135,7 @@
       <c r="AJ623" s="4"/>
       <c r="AK623" s="4"/>
     </row>
-    <row r="624" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:37" ht="12.5">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -27979,7 +28174,7 @@
       <c r="AJ624" s="4"/>
       <c r="AK624" s="4"/>
     </row>
-    <row r="625" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:37" ht="12.5">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -28018,7 +28213,7 @@
       <c r="AJ625" s="4"/>
       <c r="AK625" s="4"/>
     </row>
-    <row r="626" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:37" ht="12.5">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -28057,7 +28252,7 @@
       <c r="AJ626" s="4"/>
       <c r="AK626" s="4"/>
     </row>
-    <row r="627" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:37" ht="12.5">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -28096,7 +28291,7 @@
       <c r="AJ627" s="4"/>
       <c r="AK627" s="4"/>
     </row>
-    <row r="628" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:37" ht="12.5">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -28135,7 +28330,7 @@
       <c r="AJ628" s="4"/>
       <c r="AK628" s="4"/>
     </row>
-    <row r="629" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:37" ht="12.5">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -28174,7 +28369,7 @@
       <c r="AJ629" s="4"/>
       <c r="AK629" s="4"/>
     </row>
-    <row r="630" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:37" ht="12.5">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -28213,7 +28408,7 @@
       <c r="AJ630" s="4"/>
       <c r="AK630" s="4"/>
     </row>
-    <row r="631" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:37" ht="12.5">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -28252,7 +28447,7 @@
       <c r="AJ631" s="4"/>
       <c r="AK631" s="4"/>
     </row>
-    <row r="632" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:37" ht="12.5">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -28291,7 +28486,7 @@
       <c r="AJ632" s="4"/>
       <c r="AK632" s="4"/>
     </row>
-    <row r="633" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:37" ht="12.5">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -28330,7 +28525,7 @@
       <c r="AJ633" s="4"/>
       <c r="AK633" s="4"/>
     </row>
-    <row r="634" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:37" ht="12.5">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -28369,7 +28564,7 @@
       <c r="AJ634" s="4"/>
       <c r="AK634" s="4"/>
     </row>
-    <row r="635" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:37" ht="12.5">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -28408,7 +28603,7 @@
       <c r="AJ635" s="4"/>
       <c r="AK635" s="4"/>
     </row>
-    <row r="636" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:37" ht="12.5">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -28447,7 +28642,7 @@
       <c r="AJ636" s="4"/>
       <c r="AK636" s="4"/>
     </row>
-    <row r="637" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:37" ht="12.5">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -28486,7 +28681,7 @@
       <c r="AJ637" s="4"/>
       <c r="AK637" s="4"/>
     </row>
-    <row r="638" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:37" ht="12.5">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -28525,7 +28720,7 @@
       <c r="AJ638" s="4"/>
       <c r="AK638" s="4"/>
     </row>
-    <row r="639" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:37" ht="12.5">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -28564,7 +28759,7 @@
       <c r="AJ639" s="4"/>
       <c r="AK639" s="4"/>
     </row>
-    <row r="640" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:37" ht="12.5">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -28603,7 +28798,7 @@
       <c r="AJ640" s="4"/>
       <c r="AK640" s="4"/>
     </row>
-    <row r="641" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:37" ht="12.5">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -28642,7 +28837,7 @@
       <c r="AJ641" s="4"/>
       <c r="AK641" s="4"/>
     </row>
-    <row r="642" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:37" ht="12.5">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -28681,7 +28876,7 @@
       <c r="AJ642" s="4"/>
       <c r="AK642" s="4"/>
     </row>
-    <row r="643" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:37" ht="12.5">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -28720,7 +28915,7 @@
       <c r="AJ643" s="4"/>
       <c r="AK643" s="4"/>
     </row>
-    <row r="644" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:37" ht="12.5">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -28759,7 +28954,7 @@
       <c r="AJ644" s="4"/>
       <c r="AK644" s="4"/>
     </row>
-    <row r="645" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:37" ht="12.5">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -28798,7 +28993,7 @@
       <c r="AJ645" s="4"/>
       <c r="AK645" s="4"/>
     </row>
-    <row r="646" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:37" ht="12.5">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -28837,7 +29032,7 @@
       <c r="AJ646" s="4"/>
       <c r="AK646" s="4"/>
     </row>
-    <row r="647" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:37" ht="12.5">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -28876,7 +29071,7 @@
       <c r="AJ647" s="4"/>
       <c r="AK647" s="4"/>
     </row>
-    <row r="648" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:37" ht="12.5">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -28915,7 +29110,7 @@
       <c r="AJ648" s="4"/>
       <c r="AK648" s="4"/>
     </row>
-    <row r="649" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:37" ht="12.5">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -28954,7 +29149,7 @@
       <c r="AJ649" s="4"/>
       <c r="AK649" s="4"/>
     </row>
-    <row r="650" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:37" ht="12.5">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -28993,7 +29188,7 @@
       <c r="AJ650" s="4"/>
       <c r="AK650" s="4"/>
     </row>
-    <row r="651" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:37" ht="12.5">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -29032,7 +29227,7 @@
       <c r="AJ651" s="4"/>
       <c r="AK651" s="4"/>
     </row>
-    <row r="652" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:37" ht="12.5">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -29071,7 +29266,7 @@
       <c r="AJ652" s="4"/>
       <c r="AK652" s="4"/>
     </row>
-    <row r="653" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:37" ht="12.5">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -29110,7 +29305,7 @@
       <c r="AJ653" s="4"/>
       <c r="AK653" s="4"/>
     </row>
-    <row r="654" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:37" ht="12.5">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -29149,7 +29344,7 @@
       <c r="AJ654" s="4"/>
       <c r="AK654" s="4"/>
     </row>
-    <row r="655" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:37" ht="12.5">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -29188,7 +29383,7 @@
       <c r="AJ655" s="4"/>
       <c r="AK655" s="4"/>
     </row>
-    <row r="656" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:37" ht="12.5">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -29227,7 +29422,7 @@
       <c r="AJ656" s="4"/>
       <c r="AK656" s="4"/>
     </row>
-    <row r="657" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:37" ht="12.5">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -29266,7 +29461,7 @@
       <c r="AJ657" s="4"/>
       <c r="AK657" s="4"/>
     </row>
-    <row r="658" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:37" ht="12.5">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -29305,7 +29500,7 @@
       <c r="AJ658" s="4"/>
       <c r="AK658" s="4"/>
     </row>
-    <row r="659" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:37" ht="12.5">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -29344,7 +29539,7 @@
       <c r="AJ659" s="4"/>
       <c r="AK659" s="4"/>
     </row>
-    <row r="660" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:37" ht="12.5">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -29383,7 +29578,7 @@
       <c r="AJ660" s="4"/>
       <c r="AK660" s="4"/>
     </row>
-    <row r="661" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:37" ht="12.5">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -29422,7 +29617,7 @@
       <c r="AJ661" s="4"/>
       <c r="AK661" s="4"/>
     </row>
-    <row r="662" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:37" ht="12.5">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -29461,7 +29656,7 @@
       <c r="AJ662" s="4"/>
       <c r="AK662" s="4"/>
     </row>
-    <row r="663" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:37" ht="12.5">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -29500,7 +29695,7 @@
       <c r="AJ663" s="4"/>
       <c r="AK663" s="4"/>
     </row>
-    <row r="664" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:37" ht="12.5">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -29539,7 +29734,7 @@
       <c r="AJ664" s="4"/>
       <c r="AK664" s="4"/>
     </row>
-    <row r="665" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:37" ht="12.5">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -29578,7 +29773,7 @@
       <c r="AJ665" s="4"/>
       <c r="AK665" s="4"/>
     </row>
-    <row r="666" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:37" ht="12.5">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -29617,7 +29812,7 @@
       <c r="AJ666" s="4"/>
       <c r="AK666" s="4"/>
     </row>
-    <row r="667" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:37" ht="12.5">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -29656,7 +29851,7 @@
       <c r="AJ667" s="4"/>
       <c r="AK667" s="4"/>
     </row>
-    <row r="668" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:37" ht="12.5">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -29695,7 +29890,7 @@
       <c r="AJ668" s="4"/>
       <c r="AK668" s="4"/>
     </row>
-    <row r="669" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:37" ht="12.5">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -29734,7 +29929,7 @@
       <c r="AJ669" s="4"/>
       <c r="AK669" s="4"/>
     </row>
-    <row r="670" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:37" ht="12.5">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -29773,7 +29968,7 @@
       <c r="AJ670" s="4"/>
       <c r="AK670" s="4"/>
     </row>
-    <row r="671" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:37" ht="12.5">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -29812,7 +30007,7 @@
       <c r="AJ671" s="4"/>
       <c r="AK671" s="4"/>
     </row>
-    <row r="672" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:37" ht="12.5">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -29851,7 +30046,7 @@
       <c r="AJ672" s="4"/>
       <c r="AK672" s="4"/>
     </row>
-    <row r="673" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:37" ht="12.5">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -29890,7 +30085,7 @@
       <c r="AJ673" s="4"/>
       <c r="AK673" s="4"/>
     </row>
-    <row r="674" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:37" ht="12.5">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -29929,7 +30124,7 @@
       <c r="AJ674" s="4"/>
       <c r="AK674" s="4"/>
     </row>
-    <row r="675" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:37" ht="12.5">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -29968,7 +30163,7 @@
       <c r="AJ675" s="4"/>
       <c r="AK675" s="4"/>
     </row>
-    <row r="676" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:37" ht="12.5">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -30007,7 +30202,7 @@
       <c r="AJ676" s="4"/>
       <c r="AK676" s="4"/>
     </row>
-    <row r="677" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:37" ht="12.5">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -30046,7 +30241,7 @@
       <c r="AJ677" s="4"/>
       <c r="AK677" s="4"/>
     </row>
-    <row r="678" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:37" ht="12.5">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -30085,7 +30280,7 @@
       <c r="AJ678" s="4"/>
       <c r="AK678" s="4"/>
     </row>
-    <row r="679" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:37" ht="12.5">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -30124,7 +30319,7 @@
       <c r="AJ679" s="4"/>
       <c r="AK679" s="4"/>
     </row>
-    <row r="680" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:37" ht="12.5">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -30163,7 +30358,7 @@
       <c r="AJ680" s="4"/>
       <c r="AK680" s="4"/>
     </row>
-    <row r="681" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:37" ht="12.5">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -30202,7 +30397,7 @@
       <c r="AJ681" s="4"/>
       <c r="AK681" s="4"/>
     </row>
-    <row r="682" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:37" ht="12.5">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -30241,7 +30436,7 @@
       <c r="AJ682" s="4"/>
       <c r="AK682" s="4"/>
     </row>
-    <row r="683" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:37" ht="12.5">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -30280,7 +30475,7 @@
       <c r="AJ683" s="4"/>
       <c r="AK683" s="4"/>
     </row>
-    <row r="684" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:37" ht="12.5">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -30319,7 +30514,7 @@
       <c r="AJ684" s="4"/>
       <c r="AK684" s="4"/>
     </row>
-    <row r="685" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:37" ht="12.5">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -30358,7 +30553,7 @@
       <c r="AJ685" s="4"/>
       <c r="AK685" s="4"/>
     </row>
-    <row r="686" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:37" ht="12.5">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -30397,7 +30592,7 @@
       <c r="AJ686" s="4"/>
       <c r="AK686" s="4"/>
     </row>
-    <row r="687" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:37" ht="12.5">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -30436,7 +30631,7 @@
       <c r="AJ687" s="4"/>
       <c r="AK687" s="4"/>
     </row>
-    <row r="688" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:37" ht="12.5">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -30475,7 +30670,7 @@
       <c r="AJ688" s="4"/>
       <c r="AK688" s="4"/>
     </row>
-    <row r="689" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:37" ht="12.5">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -30514,7 +30709,7 @@
       <c r="AJ689" s="4"/>
       <c r="AK689" s="4"/>
     </row>
-    <row r="690" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:37" ht="12.5">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -30553,7 +30748,7 @@
       <c r="AJ690" s="4"/>
       <c r="AK690" s="4"/>
     </row>
-    <row r="691" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:37" ht="12.5">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -30592,7 +30787,7 @@
       <c r="AJ691" s="4"/>
       <c r="AK691" s="4"/>
     </row>
-    <row r="692" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:37" ht="12.5">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -30631,7 +30826,7 @@
       <c r="AJ692" s="4"/>
       <c r="AK692" s="4"/>
     </row>
-    <row r="693" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:37" ht="12.5">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -30670,7 +30865,7 @@
       <c r="AJ693" s="4"/>
       <c r="AK693" s="4"/>
     </row>
-    <row r="694" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:37" ht="12.5">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -30709,7 +30904,7 @@
       <c r="AJ694" s="4"/>
       <c r="AK694" s="4"/>
     </row>
-    <row r="695" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:37" ht="12.5">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -30748,7 +30943,7 @@
       <c r="AJ695" s="4"/>
       <c r="AK695" s="4"/>
     </row>
-    <row r="696" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:37" ht="12.5">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -30787,7 +30982,7 @@
       <c r="AJ696" s="4"/>
       <c r="AK696" s="4"/>
     </row>
-    <row r="697" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:37" ht="12.5">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -30826,7 +31021,7 @@
       <c r="AJ697" s="4"/>
       <c r="AK697" s="4"/>
     </row>
-    <row r="698" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:37" ht="12.5">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -30865,7 +31060,7 @@
       <c r="AJ698" s="4"/>
       <c r="AK698" s="4"/>
     </row>
-    <row r="699" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:37" ht="12.5">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -30904,7 +31099,7 @@
       <c r="AJ699" s="4"/>
       <c r="AK699" s="4"/>
     </row>
-    <row r="700" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:37" ht="12.5">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -30943,7 +31138,7 @@
       <c r="AJ700" s="4"/>
       <c r="AK700" s="4"/>
     </row>
-    <row r="701" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:37" ht="12.5">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -30982,7 +31177,7 @@
       <c r="AJ701" s="4"/>
       <c r="AK701" s="4"/>
     </row>
-    <row r="702" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:37" ht="12.5">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -31021,7 +31216,7 @@
       <c r="AJ702" s="4"/>
       <c r="AK702" s="4"/>
     </row>
-    <row r="703" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:37" ht="12.5">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -31060,7 +31255,7 @@
       <c r="AJ703" s="4"/>
       <c r="AK703" s="4"/>
     </row>
-    <row r="704" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:37" ht="12.5">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -31099,7 +31294,7 @@
       <c r="AJ704" s="4"/>
       <c r="AK704" s="4"/>
     </row>
-    <row r="705" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:37" ht="12.5">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -31138,7 +31333,7 @@
       <c r="AJ705" s="4"/>
       <c r="AK705" s="4"/>
     </row>
-    <row r="706" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:37" ht="12.5">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -31177,7 +31372,7 @@
       <c r="AJ706" s="4"/>
       <c r="AK706" s="4"/>
     </row>
-    <row r="707" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:37" ht="12.5">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -31216,7 +31411,7 @@
       <c r="AJ707" s="4"/>
       <c r="AK707" s="4"/>
     </row>
-    <row r="708" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:37" ht="12.5">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -31255,7 +31450,7 @@
       <c r="AJ708" s="4"/>
       <c r="AK708" s="4"/>
     </row>
-    <row r="709" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:37" ht="12.5">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -31294,7 +31489,7 @@
       <c r="AJ709" s="4"/>
       <c r="AK709" s="4"/>
     </row>
-    <row r="710" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:37" ht="12.5">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -31333,7 +31528,7 @@
       <c r="AJ710" s="4"/>
       <c r="AK710" s="4"/>
     </row>
-    <row r="711" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:37" ht="12.5">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -31372,7 +31567,7 @@
       <c r="AJ711" s="4"/>
       <c r="AK711" s="4"/>
     </row>
-    <row r="712" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:37" ht="12.5">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -31411,7 +31606,7 @@
       <c r="AJ712" s="4"/>
       <c r="AK712" s="4"/>
     </row>
-    <row r="713" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:37" ht="12.5">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -31450,7 +31645,7 @@
       <c r="AJ713" s="4"/>
       <c r="AK713" s="4"/>
     </row>
-    <row r="714" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:37" ht="12.5">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -31489,7 +31684,7 @@
       <c r="AJ714" s="4"/>
       <c r="AK714" s="4"/>
     </row>
-    <row r="715" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:37" ht="12.5">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -31528,7 +31723,7 @@
       <c r="AJ715" s="4"/>
       <c r="AK715" s="4"/>
     </row>
-    <row r="716" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:37" ht="12.5">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -31567,7 +31762,7 @@
       <c r="AJ716" s="4"/>
       <c r="AK716" s="4"/>
     </row>
-    <row r="717" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:37" ht="12.5">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -31606,7 +31801,7 @@
       <c r="AJ717" s="4"/>
       <c r="AK717" s="4"/>
     </row>
-    <row r="718" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:37" ht="12.5">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -31645,7 +31840,7 @@
       <c r="AJ718" s="4"/>
       <c r="AK718" s="4"/>
     </row>
-    <row r="719" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:37" ht="12.5">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -31684,7 +31879,7 @@
       <c r="AJ719" s="4"/>
       <c r="AK719" s="4"/>
     </row>
-    <row r="720" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:37" ht="12.5">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -31723,7 +31918,7 @@
       <c r="AJ720" s="4"/>
       <c r="AK720" s="4"/>
     </row>
-    <row r="721" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:37" ht="12.5">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -31762,7 +31957,7 @@
       <c r="AJ721" s="4"/>
       <c r="AK721" s="4"/>
     </row>
-    <row r="722" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:37" ht="12.5">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -31801,7 +31996,7 @@
       <c r="AJ722" s="4"/>
       <c r="AK722" s="4"/>
     </row>
-    <row r="723" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:37" ht="12.5">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -31840,7 +32035,7 @@
       <c r="AJ723" s="4"/>
       <c r="AK723" s="4"/>
     </row>
-    <row r="724" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:37" ht="12.5">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -31879,7 +32074,7 @@
       <c r="AJ724" s="4"/>
       <c r="AK724" s="4"/>
     </row>
-    <row r="725" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:37" ht="12.5">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -31918,7 +32113,7 @@
       <c r="AJ725" s="4"/>
       <c r="AK725" s="4"/>
     </row>
-    <row r="726" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:37" ht="12.5">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -31957,7 +32152,7 @@
       <c r="AJ726" s="4"/>
       <c r="AK726" s="4"/>
     </row>
-    <row r="727" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:37" ht="12.5">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -31996,7 +32191,7 @@
       <c r="AJ727" s="4"/>
       <c r="AK727" s="4"/>
     </row>
-    <row r="728" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:37" ht="12.5">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -32035,7 +32230,7 @@
       <c r="AJ728" s="4"/>
       <c r="AK728" s="4"/>
     </row>
-    <row r="729" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:37" ht="12.5">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -32074,7 +32269,7 @@
       <c r="AJ729" s="4"/>
       <c r="AK729" s="4"/>
     </row>
-    <row r="730" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:37" ht="12.5">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -32113,7 +32308,7 @@
       <c r="AJ730" s="4"/>
       <c r="AK730" s="4"/>
     </row>
-    <row r="731" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:37" ht="12.5">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -32152,7 +32347,7 @@
       <c r="AJ731" s="4"/>
       <c r="AK731" s="4"/>
     </row>
-    <row r="732" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:37" ht="12.5">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -32191,7 +32386,7 @@
       <c r="AJ732" s="4"/>
       <c r="AK732" s="4"/>
     </row>
-    <row r="733" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:37" ht="12.5">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -32230,7 +32425,7 @@
       <c r="AJ733" s="4"/>
       <c r="AK733" s="4"/>
     </row>
-    <row r="734" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:37" ht="12.5">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -32269,7 +32464,7 @@
       <c r="AJ734" s="4"/>
       <c r="AK734" s="4"/>
     </row>
-    <row r="735" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:37" ht="12.5">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -32308,7 +32503,7 @@
       <c r="AJ735" s="4"/>
       <c r="AK735" s="4"/>
     </row>
-    <row r="736" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:37" ht="12.5">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -32347,7 +32542,7 @@
       <c r="AJ736" s="4"/>
       <c r="AK736" s="4"/>
     </row>
-    <row r="737" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:37" ht="12.5">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -32386,7 +32581,7 @@
       <c r="AJ737" s="4"/>
       <c r="AK737" s="4"/>
     </row>
-    <row r="738" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:37" ht="12.5">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -32425,7 +32620,7 @@
       <c r="AJ738" s="4"/>
       <c r="AK738" s="4"/>
     </row>
-    <row r="739" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:37" ht="12.5">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -32464,7 +32659,7 @@
       <c r="AJ739" s="4"/>
       <c r="AK739" s="4"/>
     </row>
-    <row r="740" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:37" ht="12.5">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -32503,7 +32698,7 @@
       <c r="AJ740" s="4"/>
       <c r="AK740" s="4"/>
     </row>
-    <row r="741" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:37" ht="12.5">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -32542,7 +32737,7 @@
       <c r="AJ741" s="4"/>
       <c r="AK741" s="4"/>
     </row>
-    <row r="742" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:37" ht="12.5">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -32581,7 +32776,7 @@
       <c r="AJ742" s="4"/>
       <c r="AK742" s="4"/>
     </row>
-    <row r="743" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:37" ht="12.5">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -32620,7 +32815,7 @@
       <c r="AJ743" s="4"/>
       <c r="AK743" s="4"/>
     </row>
-    <row r="744" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:37" ht="12.5">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -32659,7 +32854,7 @@
       <c r="AJ744" s="4"/>
       <c r="AK744" s="4"/>
     </row>
-    <row r="745" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:37" ht="12.5">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -32698,7 +32893,7 @@
       <c r="AJ745" s="4"/>
       <c r="AK745" s="4"/>
     </row>
-    <row r="746" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:37" ht="12.5">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -32737,7 +32932,7 @@
       <c r="AJ746" s="4"/>
       <c r="AK746" s="4"/>
     </row>
-    <row r="747" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:37" ht="12.5">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -32776,7 +32971,7 @@
       <c r="AJ747" s="4"/>
       <c r="AK747" s="4"/>
     </row>
-    <row r="748" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:37" ht="12.5">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -32815,7 +33010,7 @@
       <c r="AJ748" s="4"/>
       <c r="AK748" s="4"/>
     </row>
-    <row r="749" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:37" ht="12.5">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -32854,7 +33049,7 @@
       <c r="AJ749" s="4"/>
       <c r="AK749" s="4"/>
     </row>
-    <row r="750" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:37" ht="12.5">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -32893,7 +33088,7 @@
       <c r="AJ750" s="4"/>
       <c r="AK750" s="4"/>
     </row>
-    <row r="751" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:37" ht="12.5">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -32932,7 +33127,7 @@
       <c r="AJ751" s="4"/>
       <c r="AK751" s="4"/>
     </row>
-    <row r="752" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:37" ht="12.5">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -32971,7 +33166,7 @@
       <c r="AJ752" s="4"/>
       <c r="AK752" s="4"/>
     </row>
-    <row r="753" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:37" ht="12.5">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -33010,7 +33205,7 @@
       <c r="AJ753" s="4"/>
       <c r="AK753" s="4"/>
     </row>
-    <row r="754" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:37" ht="12.5">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -33049,7 +33244,7 @@
       <c r="AJ754" s="4"/>
       <c r="AK754" s="4"/>
     </row>
-    <row r="755" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:37" ht="12.5">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -33088,7 +33283,7 @@
       <c r="AJ755" s="4"/>
       <c r="AK755" s="4"/>
     </row>
-    <row r="756" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:37" ht="12.5">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -33127,7 +33322,7 @@
       <c r="AJ756" s="4"/>
       <c r="AK756" s="4"/>
     </row>
-    <row r="757" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:37" ht="12.5">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -33166,7 +33361,7 @@
       <c r="AJ757" s="4"/>
       <c r="AK757" s="4"/>
     </row>
-    <row r="758" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:37" ht="12.5">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -33205,7 +33400,7 @@
       <c r="AJ758" s="4"/>
       <c r="AK758" s="4"/>
     </row>
-    <row r="759" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:37" ht="12.5">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -33244,7 +33439,7 @@
       <c r="AJ759" s="4"/>
       <c r="AK759" s="4"/>
     </row>
-    <row r="760" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:37" ht="12.5">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -33283,7 +33478,7 @@
       <c r="AJ760" s="4"/>
       <c r="AK760" s="4"/>
     </row>
-    <row r="761" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:37" ht="12.5">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -33322,7 +33517,7 @@
       <c r="AJ761" s="4"/>
       <c r="AK761" s="4"/>
     </row>
-    <row r="762" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:37" ht="12.5">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -33361,7 +33556,7 @@
       <c r="AJ762" s="4"/>
       <c r="AK762" s="4"/>
     </row>
-    <row r="763" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:37" ht="12.5">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -33400,7 +33595,7 @@
       <c r="AJ763" s="4"/>
       <c r="AK763" s="4"/>
     </row>
-    <row r="764" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:37" ht="12.5">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -33439,7 +33634,7 @@
       <c r="AJ764" s="4"/>
       <c r="AK764" s="4"/>
     </row>
-    <row r="765" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:37" ht="12.5">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -33478,7 +33673,7 @@
       <c r="AJ765" s="4"/>
       <c r="AK765" s="4"/>
     </row>
-    <row r="766" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:37" ht="12.5">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -33517,7 +33712,7 @@
       <c r="AJ766" s="4"/>
       <c r="AK766" s="4"/>
     </row>
-    <row r="767" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:37" ht="12.5">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -33556,7 +33751,7 @@
       <c r="AJ767" s="4"/>
       <c r="AK767" s="4"/>
     </row>
-    <row r="768" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:37" ht="12.5">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -33595,7 +33790,7 @@
       <c r="AJ768" s="4"/>
       <c r="AK768" s="4"/>
     </row>
-    <row r="769" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:37" ht="12.5">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -33634,7 +33829,7 @@
       <c r="AJ769" s="4"/>
       <c r="AK769" s="4"/>
     </row>
-    <row r="770" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:37" ht="12.5">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -33673,7 +33868,7 @@
       <c r="AJ770" s="4"/>
       <c r="AK770" s="4"/>
     </row>
-    <row r="771" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:37" ht="12.5">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -33712,7 +33907,7 @@
       <c r="AJ771" s="4"/>
       <c r="AK771" s="4"/>
     </row>
-    <row r="772" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:37" ht="12.5">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -33751,7 +33946,7 @@
       <c r="AJ772" s="4"/>
       <c r="AK772" s="4"/>
     </row>
-    <row r="773" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:37" ht="12.5">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -33790,7 +33985,7 @@
       <c r="AJ773" s="4"/>
       <c r="AK773" s="4"/>
     </row>
-    <row r="774" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:37" ht="12.5">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -33829,7 +34024,7 @@
       <c r="AJ774" s="4"/>
       <c r="AK774" s="4"/>
     </row>
-    <row r="775" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:37" ht="12.5">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -33868,7 +34063,7 @@
       <c r="AJ775" s="4"/>
       <c r="AK775" s="4"/>
     </row>
-    <row r="776" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:37" ht="12.5">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -33907,7 +34102,7 @@
       <c r="AJ776" s="4"/>
       <c r="AK776" s="4"/>
     </row>
-    <row r="777" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:37" ht="12.5">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -33946,7 +34141,7 @@
       <c r="AJ777" s="4"/>
       <c r="AK777" s="4"/>
     </row>
-    <row r="778" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:37" ht="12.5">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -33985,7 +34180,7 @@
       <c r="AJ778" s="4"/>
       <c r="AK778" s="4"/>
     </row>
-    <row r="779" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:37" ht="12.5">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -34024,7 +34219,7 @@
       <c r="AJ779" s="4"/>
       <c r="AK779" s="4"/>
     </row>
-    <row r="780" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:37" ht="12.5">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -34063,7 +34258,7 @@
       <c r="AJ780" s="4"/>
       <c r="AK780" s="4"/>
     </row>
-    <row r="781" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:37" ht="12.5">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -34102,7 +34297,7 @@
       <c r="AJ781" s="4"/>
       <c r="AK781" s="4"/>
     </row>
-    <row r="782" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:37" ht="12.5">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -34141,7 +34336,7 @@
       <c r="AJ782" s="4"/>
       <c r="AK782" s="4"/>
     </row>
-    <row r="783" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:37" ht="12.5">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -34180,7 +34375,7 @@
       <c r="AJ783" s="4"/>
       <c r="AK783" s="4"/>
     </row>
-    <row r="784" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:37" ht="12.5">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -34219,7 +34414,7 @@
       <c r="AJ784" s="4"/>
       <c r="AK784" s="4"/>
     </row>
-    <row r="785" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:37" ht="12.5">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -34258,7 +34453,7 @@
       <c r="AJ785" s="4"/>
       <c r="AK785" s="4"/>
     </row>
-    <row r="786" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:37" ht="12.5">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -34297,7 +34492,7 @@
       <c r="AJ786" s="4"/>
       <c r="AK786" s="4"/>
     </row>
-    <row r="787" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:37" ht="12.5">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -34336,7 +34531,7 @@
       <c r="AJ787" s="4"/>
       <c r="AK787" s="4"/>
     </row>
-    <row r="788" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:37" ht="12.5">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -34375,7 +34570,7 @@
       <c r="AJ788" s="4"/>
       <c r="AK788" s="4"/>
     </row>
-    <row r="789" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:37" ht="12.5">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -34414,7 +34609,7 @@
       <c r="AJ789" s="4"/>
       <c r="AK789" s="4"/>
     </row>
-    <row r="790" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:37" ht="12.5">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -34453,7 +34648,7 @@
       <c r="AJ790" s="4"/>
       <c r="AK790" s="4"/>
     </row>
-    <row r="791" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:37" ht="12.5">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -34492,7 +34687,7 @@
       <c r="AJ791" s="4"/>
       <c r="AK791" s="4"/>
     </row>
-    <row r="792" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:37" ht="12.5">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -34531,7 +34726,7 @@
       <c r="AJ792" s="4"/>
       <c r="AK792" s="4"/>
     </row>
-    <row r="793" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:37" ht="12.5">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -34570,7 +34765,7 @@
       <c r="AJ793" s="4"/>
       <c r="AK793" s="4"/>
     </row>
-    <row r="794" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:37" ht="12.5">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -34609,7 +34804,7 @@
       <c r="AJ794" s="4"/>
       <c r="AK794" s="4"/>
     </row>
-    <row r="795" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:37" ht="12.5">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -34648,7 +34843,7 @@
       <c r="AJ795" s="4"/>
       <c r="AK795" s="4"/>
     </row>
-    <row r="796" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:37" ht="12.5">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -34687,7 +34882,7 @@
       <c r="AJ796" s="4"/>
       <c r="AK796" s="4"/>
     </row>
-    <row r="797" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:37" ht="12.5">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -34726,7 +34921,7 @@
       <c r="AJ797" s="4"/>
       <c r="AK797" s="4"/>
     </row>
-    <row r="798" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:37" ht="12.5">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -34765,7 +34960,7 @@
       <c r="AJ798" s="4"/>
       <c r="AK798" s="4"/>
     </row>
-    <row r="799" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:37" ht="12.5">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -34804,7 +34999,7 @@
       <c r="AJ799" s="4"/>
       <c r="AK799" s="4"/>
     </row>
-    <row r="800" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:37" ht="12.5">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -34843,7 +35038,7 @@
       <c r="AJ800" s="4"/>
       <c r="AK800" s="4"/>
     </row>
-    <row r="801" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:37" ht="12.5">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -34882,7 +35077,7 @@
       <c r="AJ801" s="4"/>
       <c r="AK801" s="4"/>
     </row>
-    <row r="802" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:37" ht="12.5">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -34921,7 +35116,7 @@
       <c r="AJ802" s="4"/>
       <c r="AK802" s="4"/>
     </row>
-    <row r="803" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:37" ht="12.5">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -34960,7 +35155,7 @@
       <c r="AJ803" s="4"/>
       <c r="AK803" s="4"/>
     </row>
-    <row r="804" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:37" ht="12.5">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -34999,7 +35194,7 @@
       <c r="AJ804" s="4"/>
       <c r="AK804" s="4"/>
     </row>
-    <row r="805" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:37" ht="12.5">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -35038,7 +35233,7 @@
       <c r="AJ805" s="4"/>
       <c r="AK805" s="4"/>
     </row>
-    <row r="806" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:37" ht="12.5">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -35077,7 +35272,7 @@
       <c r="AJ806" s="4"/>
       <c r="AK806" s="4"/>
     </row>
-    <row r="807" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:37" ht="12.5">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -35116,7 +35311,7 @@
       <c r="AJ807" s="4"/>
       <c r="AK807" s="4"/>
     </row>
-    <row r="808" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:37" ht="12.5">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -35155,7 +35350,7 @@
       <c r="AJ808" s="4"/>
       <c r="AK808" s="4"/>
     </row>
-    <row r="809" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:37" ht="12.5">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -35194,7 +35389,7 @@
       <c r="AJ809" s="4"/>
       <c r="AK809" s="4"/>
     </row>
-    <row r="810" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:37" ht="12.5">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -35233,7 +35428,7 @@
       <c r="AJ810" s="4"/>
       <c r="AK810" s="4"/>
     </row>
-    <row r="811" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:37" ht="12.5">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -35272,7 +35467,7 @@
       <c r="AJ811" s="4"/>
       <c r="AK811" s="4"/>
     </row>
-    <row r="812" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:37" ht="12.5">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -35311,7 +35506,7 @@
       <c r="AJ812" s="4"/>
       <c r="AK812" s="4"/>
     </row>
-    <row r="813" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:37" ht="12.5">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -35350,7 +35545,7 @@
       <c r="AJ813" s="4"/>
       <c r="AK813" s="4"/>
     </row>
-    <row r="814" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:37" ht="12.5">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -35389,7 +35584,7 @@
       <c r="AJ814" s="4"/>
       <c r="AK814" s="4"/>
     </row>
-    <row r="815" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:37" ht="12.5">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -35428,7 +35623,7 @@
       <c r="AJ815" s="4"/>
       <c r="AK815" s="4"/>
     </row>
-    <row r="816" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:37" ht="12.5">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -35467,7 +35662,7 @@
       <c r="AJ816" s="4"/>
       <c r="AK816" s="4"/>
     </row>
-    <row r="817" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:37" ht="12.5">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -35506,7 +35701,7 @@
       <c r="AJ817" s="4"/>
       <c r="AK817" s="4"/>
     </row>
-    <row r="818" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:37" ht="12.5">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -35545,7 +35740,7 @@
       <c r="AJ818" s="4"/>
       <c r="AK818" s="4"/>
     </row>
-    <row r="819" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:37" ht="12.5">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -35584,7 +35779,7 @@
       <c r="AJ819" s="4"/>
       <c r="AK819" s="4"/>
     </row>
-    <row r="820" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:37" ht="12.5">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -35623,7 +35818,7 @@
       <c r="AJ820" s="4"/>
       <c r="AK820" s="4"/>
     </row>
-    <row r="821" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:37" ht="12.5">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -35662,7 +35857,7 @@
       <c r="AJ821" s="4"/>
       <c r="AK821" s="4"/>
     </row>
-    <row r="822" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:37" ht="12.5">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -35701,7 +35896,7 @@
       <c r="AJ822" s="4"/>
       <c r="AK822" s="4"/>
     </row>
-    <row r="823" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:37" ht="12.5">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -35740,7 +35935,7 @@
       <c r="AJ823" s="4"/>
       <c r="AK823" s="4"/>
     </row>
-    <row r="824" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:37" ht="12.5">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -35779,7 +35974,7 @@
       <c r="AJ824" s="4"/>
       <c r="AK824" s="4"/>
     </row>
-    <row r="825" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:37" ht="12.5">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -35818,7 +36013,7 @@
       <c r="AJ825" s="4"/>
       <c r="AK825" s="4"/>
     </row>
-    <row r="826" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:37" ht="12.5">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -35857,7 +36052,7 @@
       <c r="AJ826" s="4"/>
       <c r="AK826" s="4"/>
     </row>
-    <row r="827" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:37" ht="12.5">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -35896,7 +36091,7 @@
       <c r="AJ827" s="4"/>
       <c r="AK827" s="4"/>
     </row>
-    <row r="828" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:37" ht="12.5">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -35935,7 +36130,7 @@
       <c r="AJ828" s="4"/>
       <c r="AK828" s="4"/>
     </row>
-    <row r="829" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:37" ht="12.5">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -35974,7 +36169,7 @@
       <c r="AJ829" s="4"/>
       <c r="AK829" s="4"/>
     </row>
-    <row r="830" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:37" ht="12.5">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -36013,7 +36208,7 @@
       <c r="AJ830" s="4"/>
       <c r="AK830" s="4"/>
     </row>
-    <row r="831" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:37" ht="12.5">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -36052,7 +36247,7 @@
       <c r="AJ831" s="4"/>
       <c r="AK831" s="4"/>
     </row>
-    <row r="832" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:37" ht="12.5">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -36091,7 +36286,7 @@
       <c r="AJ832" s="4"/>
       <c r="AK832" s="4"/>
     </row>
-    <row r="833" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:37" ht="12.5">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -36130,7 +36325,7 @@
       <c r="AJ833" s="4"/>
       <c r="AK833" s="4"/>
     </row>
-    <row r="834" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:37" ht="12.5">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -36169,7 +36364,7 @@
       <c r="AJ834" s="4"/>
       <c r="AK834" s="4"/>
     </row>
-    <row r="835" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:37" ht="12.5">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -36208,7 +36403,7 @@
       <c r="AJ835" s="4"/>
       <c r="AK835" s="4"/>
     </row>
-    <row r="836" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:37" ht="12.5">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -36247,7 +36442,7 @@
       <c r="AJ836" s="4"/>
       <c r="AK836" s="4"/>
     </row>
-    <row r="837" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:37" ht="12.5">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -36286,7 +36481,7 @@
       <c r="AJ837" s="4"/>
       <c r="AK837" s="4"/>
     </row>
-    <row r="838" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:37" ht="12.5">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -36325,7 +36520,7 @@
       <c r="AJ838" s="4"/>
       <c r="AK838" s="4"/>
     </row>
-    <row r="839" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:37" ht="12.5">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -36364,7 +36559,7 @@
       <c r="AJ839" s="4"/>
       <c r="AK839" s="4"/>
     </row>
-    <row r="840" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:37" ht="12.5">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -36403,7 +36598,7 @@
       <c r="AJ840" s="4"/>
       <c r="AK840" s="4"/>
     </row>
-    <row r="841" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:37" ht="12.5">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -36442,7 +36637,7 @@
       <c r="AJ841" s="4"/>
       <c r="AK841" s="4"/>
     </row>
-    <row r="842" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:37" ht="12.5">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -36481,7 +36676,7 @@
       <c r="AJ842" s="4"/>
       <c r="AK842" s="4"/>
     </row>
-    <row r="843" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:37" ht="12.5">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -36520,7 +36715,7 @@
       <c r="AJ843" s="4"/>
       <c r="AK843" s="4"/>
     </row>
-    <row r="844" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:37" ht="12.5">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -36559,7 +36754,7 @@
       <c r="AJ844" s="4"/>
       <c r="AK844" s="4"/>
     </row>
-    <row r="845" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:37" ht="12.5">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -36598,7 +36793,7 @@
       <c r="AJ845" s="4"/>
       <c r="AK845" s="4"/>
     </row>
-    <row r="846" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:37" ht="12.5">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -36637,7 +36832,7 @@
       <c r="AJ846" s="4"/>
       <c r="AK846" s="4"/>
     </row>
-    <row r="847" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:37" ht="12.5">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -36676,7 +36871,7 @@
       <c r="AJ847" s="4"/>
       <c r="AK847" s="4"/>
     </row>
-    <row r="848" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:37" ht="12.5">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -36715,7 +36910,7 @@
       <c r="AJ848" s="4"/>
       <c r="AK848" s="4"/>
     </row>
-    <row r="849" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:37" ht="12.5">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -36754,7 +36949,7 @@
       <c r="AJ849" s="4"/>
       <c r="AK849" s="4"/>
     </row>
-    <row r="850" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:37" ht="12.5">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -36793,7 +36988,7 @@
       <c r="AJ850" s="4"/>
       <c r="AK850" s="4"/>
     </row>
-    <row r="851" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:37" ht="12.5">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -36832,7 +37027,7 @@
       <c r="AJ851" s="4"/>
       <c r="AK851" s="4"/>
     </row>
-    <row r="852" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:37" ht="12.5">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -36871,7 +37066,7 @@
       <c r="AJ852" s="4"/>
       <c r="AK852" s="4"/>
     </row>
-    <row r="853" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:37" ht="12.5">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -36910,7 +37105,7 @@
       <c r="AJ853" s="4"/>
       <c r="AK853" s="4"/>
     </row>
-    <row r="854" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:37" ht="12.5">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -36949,7 +37144,7 @@
       <c r="AJ854" s="4"/>
       <c r="AK854" s="4"/>
     </row>
-    <row r="855" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:37" ht="12.5">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -36988,7 +37183,7 @@
       <c r="AJ855" s="4"/>
       <c r="AK855" s="4"/>
     </row>
-    <row r="856" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:37" ht="12.5">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -37027,7 +37222,7 @@
       <c r="AJ856" s="4"/>
       <c r="AK856" s="4"/>
     </row>
-    <row r="857" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:37" ht="12.5">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -37066,7 +37261,7 @@
       <c r="AJ857" s="4"/>
       <c r="AK857" s="4"/>
     </row>
-    <row r="858" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:37" ht="12.5">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -37105,7 +37300,7 @@
       <c r="AJ858" s="4"/>
       <c r="AK858" s="4"/>
     </row>
-    <row r="859" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:37" ht="12.5">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -37144,7 +37339,7 @@
       <c r="AJ859" s="4"/>
       <c r="AK859" s="4"/>
     </row>
-    <row r="860" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:37" ht="12.5">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -37183,7 +37378,7 @@
       <c r="AJ860" s="4"/>
       <c r="AK860" s="4"/>
     </row>
-    <row r="861" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:37" ht="12.5">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -37222,7 +37417,7 @@
       <c r="AJ861" s="4"/>
       <c r="AK861" s="4"/>
     </row>
-    <row r="862" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:37" ht="12.5">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -37261,7 +37456,7 @@
       <c r="AJ862" s="4"/>
       <c r="AK862" s="4"/>
     </row>
-    <row r="863" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:37" ht="12.5">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -37300,7 +37495,7 @@
       <c r="AJ863" s="4"/>
       <c r="AK863" s="4"/>
     </row>
-    <row r="864" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:37" ht="12.5">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -37339,7 +37534,7 @@
       <c r="AJ864" s="4"/>
       <c r="AK864" s="4"/>
     </row>
-    <row r="865" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:37" ht="12.5">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -37378,7 +37573,7 @@
       <c r="AJ865" s="4"/>
       <c r="AK865" s="4"/>
     </row>
-    <row r="866" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:37" ht="12.5">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -37417,7 +37612,7 @@
       <c r="AJ866" s="4"/>
       <c r="AK866" s="4"/>
     </row>
-    <row r="867" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:37" ht="12.5">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -37456,7 +37651,7 @@
       <c r="AJ867" s="4"/>
       <c r="AK867" s="4"/>
     </row>
-    <row r="868" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:37" ht="12.5">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -37495,7 +37690,7 @@
       <c r="AJ868" s="4"/>
       <c r="AK868" s="4"/>
     </row>
-    <row r="869" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:37" ht="12.5">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -37534,7 +37729,7 @@
       <c r="AJ869" s="4"/>
       <c r="AK869" s="4"/>
     </row>
-    <row r="870" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:37" ht="12.5">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -37573,7 +37768,7 @@
       <c r="AJ870" s="4"/>
       <c r="AK870" s="4"/>
     </row>
-    <row r="871" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:37" ht="12.5">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -37612,7 +37807,7 @@
       <c r="AJ871" s="4"/>
       <c r="AK871" s="4"/>
     </row>
-    <row r="872" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:37" ht="12.5">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -37651,7 +37846,7 @@
       <c r="AJ872" s="4"/>
       <c r="AK872" s="4"/>
     </row>
-    <row r="873" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:37" ht="12.5">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -37690,7 +37885,7 @@
       <c r="AJ873" s="4"/>
       <c r="AK873" s="4"/>
     </row>
-    <row r="874" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:37" ht="12.5">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -37729,7 +37924,7 @@
       <c r="AJ874" s="4"/>
       <c r="AK874" s="4"/>
     </row>
-    <row r="875" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:37" ht="12.5">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -37768,7 +37963,7 @@
       <c r="AJ875" s="4"/>
       <c r="AK875" s="4"/>
     </row>
-    <row r="876" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:37" ht="12.5">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -37807,7 +38002,7 @@
       <c r="AJ876" s="4"/>
       <c r="AK876" s="4"/>
     </row>
-    <row r="877" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:37" ht="12.5">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -37846,7 +38041,7 @@
       <c r="AJ877" s="4"/>
       <c r="AK877" s="4"/>
     </row>
-    <row r="878" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:37" ht="12.5">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -37885,7 +38080,7 @@
       <c r="AJ878" s="4"/>
       <c r="AK878" s="4"/>
     </row>
-    <row r="879" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:37" ht="12.5">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -37924,7 +38119,7 @@
       <c r="AJ879" s="4"/>
       <c r="AK879" s="4"/>
     </row>
-    <row r="880" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:37" ht="12.5">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -37963,7 +38158,7 @@
       <c r="AJ880" s="4"/>
       <c r="AK880" s="4"/>
     </row>
-    <row r="881" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:37" ht="12.5">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -38002,7 +38197,7 @@
       <c r="AJ881" s="4"/>
       <c r="AK881" s="4"/>
     </row>
-    <row r="882" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:37" ht="12.5">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -38041,7 +38236,7 @@
       <c r="AJ882" s="4"/>
       <c r="AK882" s="4"/>
     </row>
-    <row r="883" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:37" ht="12.5">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -38080,7 +38275,7 @@
       <c r="AJ883" s="4"/>
       <c r="AK883" s="4"/>
     </row>
-    <row r="884" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:37" ht="12.5">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -38119,7 +38314,7 @@
       <c r="AJ884" s="4"/>
       <c r="AK884" s="4"/>
     </row>
-    <row r="885" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:37" ht="12.5">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -38158,7 +38353,7 @@
       <c r="AJ885" s="4"/>
       <c r="AK885" s="4"/>
     </row>
-    <row r="886" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:37" ht="12.5">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -38197,7 +38392,7 @@
       <c r="AJ886" s="4"/>
       <c r="AK886" s="4"/>
     </row>
-    <row r="887" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:37" ht="12.5">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -38236,7 +38431,7 @@
       <c r="AJ887" s="4"/>
       <c r="AK887" s="4"/>
     </row>
-    <row r="888" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:37" ht="12.5">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -38275,7 +38470,7 @@
       <c r="AJ888" s="4"/>
       <c r="AK888" s="4"/>
     </row>
-    <row r="889" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:37" ht="12.5">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -38314,7 +38509,7 @@
       <c r="AJ889" s="4"/>
       <c r="AK889" s="4"/>
     </row>
-    <row r="890" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:37" ht="12.5">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -38353,7 +38548,7 @@
       <c r="AJ890" s="4"/>
       <c r="AK890" s="4"/>
     </row>
-    <row r="891" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:37" ht="12.5">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -38392,7 +38587,7 @@
       <c r="AJ891" s="4"/>
       <c r="AK891" s="4"/>
     </row>
-    <row r="892" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:37" ht="12.5">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -38431,7 +38626,7 @@
       <c r="AJ892" s="4"/>
       <c r="AK892" s="4"/>
     </row>
-    <row r="893" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:37" ht="12.5">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -38470,7 +38665,7 @@
       <c r="AJ893" s="4"/>
       <c r="AK893" s="4"/>
     </row>
-    <row r="894" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:37" ht="12.5">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -38509,7 +38704,7 @@
       <c r="AJ894" s="4"/>
       <c r="AK894" s="4"/>
     </row>
-    <row r="895" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:37" ht="12.5">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -38548,7 +38743,7 @@
       <c r="AJ895" s="4"/>
       <c r="AK895" s="4"/>
     </row>
-    <row r="896" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:37" ht="12.5">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -38587,7 +38782,7 @@
       <c r="AJ896" s="4"/>
       <c r="AK896" s="4"/>
     </row>
-    <row r="897" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:37" ht="12.5">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -38626,7 +38821,7 @@
       <c r="AJ897" s="4"/>
       <c r="AK897" s="4"/>
     </row>
-    <row r="898" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:37" ht="12.5">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -38665,7 +38860,7 @@
       <c r="AJ898" s="4"/>
       <c r="AK898" s="4"/>
     </row>
-    <row r="899" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:37" ht="12.5">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -38704,7 +38899,7 @@
       <c r="AJ899" s="4"/>
       <c r="AK899" s="4"/>
     </row>
-    <row r="900" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:37" ht="12.5">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -38743,7 +38938,7 @@
       <c r="AJ900" s="4"/>
       <c r="AK900" s="4"/>
     </row>
-    <row r="901" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:37" ht="12.5">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -38782,7 +38977,7 @@
       <c r="AJ901" s="4"/>
       <c r="AK901" s="4"/>
     </row>
-    <row r="902" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:37" ht="12.5">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -38821,7 +39016,7 @@
       <c r="AJ902" s="4"/>
       <c r="AK902" s="4"/>
     </row>
-    <row r="903" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:37" ht="12.5">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -38860,7 +39055,7 @@
       <c r="AJ903" s="4"/>
       <c r="AK903" s="4"/>
     </row>
-    <row r="904" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:37" ht="12.5">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -38899,7 +39094,7 @@
       <c r="AJ904" s="4"/>
       <c r="AK904" s="4"/>
     </row>
-    <row r="905" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:37" ht="12.5">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -38938,7 +39133,7 @@
       <c r="AJ905" s="4"/>
       <c r="AK905" s="4"/>
     </row>
-    <row r="906" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:37" ht="12.5">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -38977,7 +39172,7 @@
       <c r="AJ906" s="4"/>
       <c r="AK906" s="4"/>
     </row>
-    <row r="907" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:37" ht="12.5">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -39016,7 +39211,7 @@
       <c r="AJ907" s="4"/>
       <c r="AK907" s="4"/>
     </row>
-    <row r="908" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:37" ht="12.5">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -39055,7 +39250,7 @@
       <c r="AJ908" s="4"/>
       <c r="AK908" s="4"/>
     </row>
-    <row r="909" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:37" ht="12.5">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -39094,7 +39289,7 @@
       <c r="AJ909" s="4"/>
       <c r="AK909" s="4"/>
     </row>
-    <row r="910" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:37" ht="12.5">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -39133,7 +39328,7 @@
       <c r="AJ910" s="4"/>
       <c r="AK910" s="4"/>
     </row>
-    <row r="911" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:37" ht="12.5">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -39172,7 +39367,7 @@
       <c r="AJ911" s="4"/>
       <c r="AK911" s="4"/>
     </row>
-    <row r="912" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:37" ht="12.5">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -39211,7 +39406,7 @@
       <c r="AJ912" s="4"/>
       <c r="AK912" s="4"/>
     </row>
-    <row r="913" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:37" ht="12.5">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -39250,7 +39445,7 @@
       <c r="AJ913" s="4"/>
       <c r="AK913" s="4"/>
     </row>
-    <row r="914" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:37" ht="12.5">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -39289,7 +39484,7 @@
       <c r="AJ914" s="4"/>
       <c r="AK914" s="4"/>
     </row>
-    <row r="915" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:37" ht="12.5">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -39328,7 +39523,7 @@
       <c r="AJ915" s="4"/>
       <c r="AK915" s="4"/>
     </row>
-    <row r="916" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:37" ht="12.5">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -39367,7 +39562,7 @@
       <c r="AJ916" s="4"/>
       <c r="AK916" s="4"/>
     </row>
-    <row r="917" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:37" ht="12.5">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -39406,7 +39601,7 @@
       <c r="AJ917" s="4"/>
       <c r="AK917" s="4"/>
     </row>
-    <row r="918" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:37" ht="12.5">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -39445,7 +39640,7 @@
       <c r="AJ918" s="4"/>
       <c r="AK918" s="4"/>
     </row>
-    <row r="919" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:37" ht="12.5">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -39484,7 +39679,7 @@
       <c r="AJ919" s="4"/>
       <c r="AK919" s="4"/>
     </row>
-    <row r="920" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:37" ht="12.5">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -39523,7 +39718,7 @@
       <c r="AJ920" s="4"/>
       <c r="AK920" s="4"/>
     </row>
-    <row r="921" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:37" ht="12.5">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -39562,7 +39757,7 @@
       <c r="AJ921" s="4"/>
       <c r="AK921" s="4"/>
     </row>
-    <row r="922" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:37" ht="12.5">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -39601,7 +39796,7 @@
       <c r="AJ922" s="4"/>
       <c r="AK922" s="4"/>
     </row>
-    <row r="923" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:37" ht="12.5">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -39640,7 +39835,7 @@
       <c r="AJ923" s="4"/>
       <c r="AK923" s="4"/>
     </row>
-    <row r="924" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:37" ht="12.5">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -39679,7 +39874,7 @@
       <c r="AJ924" s="4"/>
       <c r="AK924" s="4"/>
     </row>
-    <row r="925" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:37" ht="12.5">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -39718,7 +39913,7 @@
       <c r="AJ925" s="4"/>
       <c r="AK925" s="4"/>
     </row>
-    <row r="926" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:37" ht="12.5">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -39757,7 +39952,7 @@
       <c r="AJ926" s="4"/>
       <c r="AK926" s="4"/>
     </row>
-    <row r="927" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:37" ht="12.5">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -39796,7 +39991,7 @@
       <c r="AJ927" s="4"/>
       <c r="AK927" s="4"/>
     </row>
-    <row r="928" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:37" ht="12.5">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -39835,7 +40030,7 @@
       <c r="AJ928" s="4"/>
       <c r="AK928" s="4"/>
     </row>
-    <row r="929" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:37" ht="12.5">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -39874,7 +40069,7 @@
       <c r="AJ929" s="4"/>
       <c r="AK929" s="4"/>
     </row>
-    <row r="930" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:37" ht="12.5">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -39913,7 +40108,7 @@
       <c r="AJ930" s="4"/>
       <c r="AK930" s="4"/>
     </row>
-    <row r="931" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:37" ht="12.5">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -39952,7 +40147,7 @@
       <c r="AJ931" s="4"/>
       <c r="AK931" s="4"/>
     </row>
-    <row r="932" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:37" ht="12.5">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -39991,7 +40186,7 @@
       <c r="AJ932" s="4"/>
       <c r="AK932" s="4"/>
     </row>
-    <row r="933" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:37" ht="12.5">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -40030,7 +40225,7 @@
       <c r="AJ933" s="4"/>
       <c r="AK933" s="4"/>
     </row>
-    <row r="934" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:37" ht="12.5">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -40069,7 +40264,7 @@
       <c r="AJ934" s="4"/>
       <c r="AK934" s="4"/>
     </row>
-    <row r="935" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:37" ht="12.5">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -40108,7 +40303,7 @@
       <c r="AJ935" s="4"/>
       <c r="AK935" s="4"/>
     </row>
-    <row r="936" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:37" ht="12.5">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -40147,7 +40342,7 @@
       <c r="AJ936" s="4"/>
       <c r="AK936" s="4"/>
     </row>
-    <row r="937" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:37" ht="12.5">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -40186,7 +40381,7 @@
       <c r="AJ937" s="4"/>
       <c r="AK937" s="4"/>
     </row>
-    <row r="938" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:37" ht="12.5">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -40225,7 +40420,7 @@
       <c r="AJ938" s="4"/>
       <c r="AK938" s="4"/>
     </row>
-    <row r="939" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:37" ht="12.5">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -40264,7 +40459,7 @@
       <c r="AJ939" s="4"/>
       <c r="AK939" s="4"/>
     </row>
-    <row r="940" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:37" ht="12.5">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -40303,7 +40498,7 @@
       <c r="AJ940" s="4"/>
       <c r="AK940" s="4"/>
     </row>
-    <row r="941" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:37" ht="12.5">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -40342,7 +40537,7 @@
       <c r="AJ941" s="4"/>
       <c r="AK941" s="4"/>
     </row>
-    <row r="942" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:37" ht="12.5">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -40381,7 +40576,7 @@
       <c r="AJ942" s="4"/>
       <c r="AK942" s="4"/>
     </row>
-    <row r="943" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:37" ht="12.5">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -40420,7 +40615,7 @@
       <c r="AJ943" s="4"/>
       <c r="AK943" s="4"/>
     </row>
-    <row r="944" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:37" ht="12.5">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -40459,7 +40654,7 @@
       <c r="AJ944" s="4"/>
       <c r="AK944" s="4"/>
     </row>
-    <row r="945" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:37" ht="12.5">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -40498,7 +40693,7 @@
       <c r="AJ945" s="4"/>
       <c r="AK945" s="4"/>
     </row>
-    <row r="946" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:37" ht="12.5">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -40537,7 +40732,7 @@
       <c r="AJ946" s="4"/>
       <c r="AK946" s="4"/>
     </row>
-    <row r="947" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:37" ht="12.5">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -40576,7 +40771,7 @@
       <c r="AJ947" s="4"/>
       <c r="AK947" s="4"/>
     </row>
-    <row r="948" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:37" ht="12.5">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -40615,7 +40810,7 @@
       <c r="AJ948" s="4"/>
       <c r="AK948" s="4"/>
     </row>
-    <row r="949" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:37" ht="12.5">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -40654,7 +40849,7 @@
       <c r="AJ949" s="4"/>
       <c r="AK949" s="4"/>
     </row>
-    <row r="950" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:37" ht="12.5">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -40693,7 +40888,7 @@
       <c r="AJ950" s="4"/>
       <c r="AK950" s="4"/>
     </row>
-    <row r="951" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:37" ht="12.5">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -40732,7 +40927,7 @@
       <c r="AJ951" s="4"/>
       <c r="AK951" s="4"/>
     </row>
-    <row r="952" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:37" ht="12.5">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -40771,7 +40966,7 @@
       <c r="AJ952" s="4"/>
       <c r="AK952" s="4"/>
     </row>
-    <row r="953" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:37" ht="12.5">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -40810,7 +41005,7 @@
       <c r="AJ953" s="4"/>
       <c r="AK953" s="4"/>
     </row>
-    <row r="954" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:37" ht="12.5">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -40849,7 +41044,7 @@
       <c r="AJ954" s="4"/>
       <c r="AK954" s="4"/>
     </row>
-    <row r="955" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:37" ht="12.5">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -40888,7 +41083,7 @@
       <c r="AJ955" s="4"/>
       <c r="AK955" s="4"/>
     </row>
-    <row r="956" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:37" ht="12.5">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -40927,7 +41122,7 @@
       <c r="AJ956" s="4"/>
       <c r="AK956" s="4"/>
     </row>
-    <row r="957" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:37" ht="12.5">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -40966,7 +41161,7 @@
       <c r="AJ957" s="4"/>
       <c r="AK957" s="4"/>
     </row>
-    <row r="958" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:37" ht="12.5">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -41005,7 +41200,7 @@
       <c r="AJ958" s="4"/>
       <c r="AK958" s="4"/>
     </row>
-    <row r="959" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:37" ht="12.5">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -41044,7 +41239,7 @@
       <c r="AJ959" s="4"/>
       <c r="AK959" s="4"/>
     </row>
-    <row r="960" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:37" ht="12.5">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -41083,7 +41278,7 @@
       <c r="AJ960" s="4"/>
       <c r="AK960" s="4"/>
     </row>
-    <row r="961" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:37" ht="12.5">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -41122,7 +41317,7 @@
       <c r="AJ961" s="4"/>
       <c r="AK961" s="4"/>
     </row>
-    <row r="962" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:37" ht="12.5">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -41161,7 +41356,7 @@
       <c r="AJ962" s="4"/>
       <c r="AK962" s="4"/>
     </row>
-    <row r="963" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:37" ht="12.5">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -41200,7 +41395,7 @@
       <c r="AJ963" s="4"/>
       <c r="AK963" s="4"/>
     </row>
-    <row r="964" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:37" ht="12.5">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -41239,7 +41434,7 @@
       <c r="AJ964" s="4"/>
       <c r="AK964" s="4"/>
     </row>
-    <row r="965" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:37" ht="12.5">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -41278,7 +41473,7 @@
       <c r="AJ965" s="4"/>
       <c r="AK965" s="4"/>
     </row>
-    <row r="966" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:37" ht="12.5">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -41317,7 +41512,7 @@
       <c r="AJ966" s="4"/>
       <c r="AK966" s="4"/>
     </row>
-    <row r="967" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:37" ht="12.5">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -41356,7 +41551,7 @@
       <c r="AJ967" s="4"/>
       <c r="AK967" s="4"/>
     </row>
-    <row r="968" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:37" ht="12.5">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -41395,7 +41590,7 @@
       <c r="AJ968" s="4"/>
       <c r="AK968" s="4"/>
     </row>
-    <row r="969" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:37" ht="12.5">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -41434,7 +41629,7 @@
       <c r="AJ969" s="4"/>
       <c r="AK969" s="4"/>
     </row>
-    <row r="970" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:37" ht="12.5">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -41473,7 +41668,7 @@
       <c r="AJ970" s="4"/>
       <c r="AK970" s="4"/>
     </row>
-    <row r="971" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:37" ht="12.5">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -41512,7 +41707,7 @@
       <c r="AJ971" s="4"/>
       <c r="AK971" s="4"/>
     </row>
-    <row r="972" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:37" ht="12.5">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -41551,7 +41746,7 @@
       <c r="AJ972" s="4"/>
       <c r="AK972" s="4"/>
     </row>
-    <row r="973" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:37" ht="12.5">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -41590,7 +41785,7 @@
       <c r="AJ973" s="4"/>
       <c r="AK973" s="4"/>
     </row>
-    <row r="974" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:37" ht="12.5">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -41629,7 +41824,7 @@
       <c r="AJ974" s="4"/>
       <c r="AK974" s="4"/>
     </row>
-    <row r="975" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:37" ht="12.5">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -41668,7 +41863,7 @@
       <c r="AJ975" s="4"/>
       <c r="AK975" s="4"/>
     </row>
-    <row r="976" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:37" ht="12.5">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -41707,7 +41902,7 @@
       <c r="AJ976" s="4"/>
       <c r="AK976" s="4"/>
     </row>
-    <row r="977" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:37" ht="12.5">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -41746,7 +41941,7 @@
       <c r="AJ977" s="4"/>
       <c r="AK977" s="4"/>
     </row>
-    <row r="978" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:37" ht="12.5">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -41785,7 +41980,7 @@
       <c r="AJ978" s="4"/>
       <c r="AK978" s="4"/>
     </row>
-    <row r="979" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:37" ht="12.5">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -41824,7 +42019,7 @@
       <c r="AJ979" s="4"/>
       <c r="AK979" s="4"/>
     </row>
-    <row r="980" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:37" ht="12.5">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -41863,7 +42058,7 @@
       <c r="AJ980" s="4"/>
       <c r="AK980" s="4"/>
     </row>
-    <row r="981" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:37" ht="12.5">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -41902,7 +42097,7 @@
       <c r="AJ981" s="4"/>
       <c r="AK981" s="4"/>
     </row>
-    <row r="982" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:37" ht="12.5">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -41941,7 +42136,7 @@
       <c r="AJ982" s="4"/>
       <c r="AK982" s="4"/>
     </row>
-    <row r="983" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:37" ht="12.5">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -41980,7 +42175,7 @@
       <c r="AJ983" s="4"/>
       <c r="AK983" s="4"/>
     </row>
-    <row r="984" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:37" ht="12.5">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -42019,7 +42214,7 @@
       <c r="AJ984" s="4"/>
       <c r="AK984" s="4"/>
     </row>
-    <row r="985" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:37" ht="12.5">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -42058,7 +42253,7 @@
       <c r="AJ985" s="4"/>
       <c r="AK985" s="4"/>
     </row>
-    <row r="986" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:37" ht="12.5">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -42097,7 +42292,7 @@
       <c r="AJ986" s="4"/>
       <c r="AK986" s="4"/>
     </row>
-    <row r="987" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:37" ht="12.5">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -42136,7 +42331,7 @@
       <c r="AJ987" s="4"/>
       <c r="AK987" s="4"/>
     </row>
-    <row r="988" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:37" ht="12.5">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -42175,7 +42370,7 @@
       <c r="AJ988" s="4"/>
       <c r="AK988" s="4"/>
     </row>
-    <row r="989" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:37" ht="12.5">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -42214,7 +42409,7 @@
       <c r="AJ989" s="4"/>
       <c r="AK989" s="4"/>
     </row>
-    <row r="990" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:37" ht="12.5">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -42253,7 +42448,7 @@
       <c r="AJ990" s="4"/>
       <c r="AK990" s="4"/>
     </row>
-    <row r="991" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:37" ht="12.5">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -42292,7 +42487,7 @@
       <c r="AJ991" s="4"/>
       <c r="AK991" s="4"/>
     </row>
-    <row r="992" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:37" ht="12.5">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -42331,7 +42526,7 @@
       <c r="AJ992" s="4"/>
       <c r="AK992" s="4"/>
     </row>
-    <row r="993" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:37" ht="12.5">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -42370,7 +42565,7 @@
       <c r="AJ993" s="4"/>
       <c r="AK993" s="4"/>
     </row>
-    <row r="994" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:37" ht="12.5">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -42409,7 +42604,7 @@
       <c r="AJ994" s="4"/>
       <c r="AK994" s="4"/>
     </row>
-    <row r="995" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:37" ht="12.5">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -42448,7 +42643,7 @@
       <c r="AJ995" s="4"/>
       <c r="AK995" s="4"/>
     </row>
-    <row r="996" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:37" ht="12.5">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -42487,7 +42682,7 @@
       <c r="AJ996" s="4"/>
       <c r="AK996" s="4"/>
     </row>
-    <row r="997" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:37" ht="12.5">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -42526,7 +42721,7 @@
       <c r="AJ997" s="4"/>
       <c r="AK997" s="4"/>
     </row>
-    <row r="998" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:37" ht="12.5">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -42565,7 +42760,7 @@
       <c r="AJ998" s="4"/>
       <c r="AK998" s="4"/>
     </row>
-    <row r="999" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:37" ht="12.5">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -42604,7 +42799,7 @@
       <c r="AJ999" s="4"/>
       <c r="AK999" s="4"/>
     </row>
-    <row r="1000" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:37" ht="12.5">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
@@ -42643,7 +42838,7 @@
       <c r="AJ1000" s="4"/>
       <c r="AK1000" s="4"/>
     </row>
-    <row r="1001" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:37" ht="12.5">
       <c r="A1001" s="4"/>
       <c r="B1001" s="4"/>
       <c r="C1001" s="4"/>
@@ -42684,6 +42879,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="R84:R85"/>
+    <mergeCell ref="S84:S85"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="Q94:Q95"/>
+    <mergeCell ref="R94:R95"/>
+    <mergeCell ref="S94:S95"/>
+    <mergeCell ref="Q84:Q85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="M84:M85"/>
     <mergeCell ref="A94:A95"/>
     <mergeCell ref="L94:L95"/>
     <mergeCell ref="K94:K95"/>
@@ -42696,28 +42913,6 @@
     <mergeCell ref="D94:D95"/>
     <mergeCell ref="C94:C95"/>
     <mergeCell ref="B94:B95"/>
-    <mergeCell ref="R84:R85"/>
-    <mergeCell ref="S84:S85"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="Q94:Q95"/>
-    <mergeCell ref="R94:R95"/>
-    <mergeCell ref="S94:S95"/>
-    <mergeCell ref="Q84:Q85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="I84:I85"/>
   </mergeCells>
   <conditionalFormatting sqref="A2 C2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
